--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38466101-920D-4378-81A8-575F92A8E13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="11115" yWindow="1545" windowWidth="17250" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
   <si>
     <t>Doi</t>
   </si>
@@ -51,9 +58,6 @@
     <t>10.7326/M20-3799</t>
   </si>
   <si>
-    <t>1097/QAD.0000000000002677</t>
-  </si>
-  <si>
     <t>10.1016/j.jadohealth.2020.07.013</t>
   </si>
   <si>
@@ -114,18 +118,45 @@
     <t>Authors</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID Format</t>
+  </si>
+  <si>
+    <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>10.1097/QAD.0000000000002677</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>Assessment of SARS-CoV-2 Infection Prevalence in Homeless Shelters — Four U.S. Cities, March 27–April 15, 2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%4, Erin M.%Parker%NULL%2, Kristie E. N.%Clarke%NULL%1, Jessie M.%Gaeta%NULL%1, Travis P.%Baggett%NULL%1, Elizabeth%Imbert%NULL%2, Madeline%Sankaran%NULL%2, Ashley%Scarborough%NULL%2, Karin%Huster%NULL%2, Matt%Hanson%NULL%1, Elysia%Gonzales%NULL%2, Jody%Rauch%NULL%2, Libby%Page%NULL%1, Temet M.%McMichael%NULL%0, Ryan%Keating%NULL%2, Grace E.%Marx%NULL%2, Tom%Andrews%NULL%2, Kristine%Schmit%NULL%2, Sapna Bamrah%Morris%NULL%2, Nicole F.%Dowling%NULL%2, Georgina%Peacock%NULL%2, NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Ann%Buff%NULL%1, Calla%Jamison%NULL%2, Ruthanne%Marcus%NULL%1, Carol Y.%Rao%NULL%2, Julie L.%Self%NULL%2, Farrell%Tobolowsky%NULL%1, Samantha%Williams%NULL%1, Meagan%Kay%NULL%2, Naveena%Bobba%NULL%1, Stephanie%Cohen%NULL%2, Jonathan%Fuchs%NULL%1, Trang%Nguyen%NULL%1, Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7206983</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
     <t>Unknown Title</t>
   </si>
   <si>
     <t>Unknown Abstract</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID Format</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -133,27 +164,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Date Accepted</t>
-  </si>
-  <si>
-    <t>Assessment of SARS-CoV-2 Infection Prevalence in Homeless Shelters — Four U.S. Cities, March 27–April 15, 2020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>[Emily%Mosites%NULL%4, Erin M.%Parker%NULL%2, Kristie E. N.%Clarke%NULL%1, Jessie M.%Gaeta%NULL%1, Travis P.%Baggett%NULL%1, Elizabeth%Imbert%NULL%2, Madeline%Sankaran%NULL%2, Ashley%Scarborough%NULL%2, Karin%Huster%NULL%2, Matt%Hanson%NULL%1, Elysia%Gonzales%NULL%2, Jody%Rauch%NULL%2, Libby%Page%NULL%1, Temet M.%McMichael%NULL%0, Ryan%Keating%NULL%2, Grace E.%Marx%NULL%2, Tom%Andrews%NULL%2, Kristine%Schmit%NULL%2, Sapna Bamrah%Morris%NULL%2, Nicole F.%Dowling%NULL%2, Georgina%Peacock%NULL%2, NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Ann%Buff%NULL%1, Calla%Jamison%NULL%2, Ruthanne%Marcus%NULL%1, Carol Y.%Rao%NULL%2, Julie L.%Self%NULL%2, Farrell%Tobolowsky%NULL%1, Samantha%Williams%NULL%1, Meagan%Kay%NULL%2, Naveena%Bobba%NULL%1, Stephanie%Cohen%NULL%2, Jonathan%Fuchs%NULL%1, Trang%Nguyen%NULL%1, Julie%Stoltey%NULL%1]</t>
-  </si>
-  <si>
-    <t>PMC7206983</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>1970-01-01</t>
   </si>
   <si>
     <t>Risk Factors for Severe Acute Respiratory Syndrome Coronavirus 2 Infection in Homeless Shelters in Chicago, Illinois—March–May, 2020</t>
@@ -202,6 +212,9 @@
   </si>
   <si>
     <t>PMC7515628</t>
+  </si>
+  <si>
+    <t>_elsevier</t>
   </si>
   <si>
     <t>Race/Ethnicity, Underlying Medical Conditions, Homelessness, and Hospitalization Status of Adult Patients with COVID-19 at an Urban Safety-Net Medical Center — Boston, Massachusetts, 2020</t>
@@ -477,13 +490,16 @@
 </t>
   </si>
   <si>
-    <t>[Tran Duc Anh%Ly%NULL%0, Van Thuan%Hoang%NULL%2, Ndiaw%Goumballa%NULL%2, Meriem%Louni%NULL%2, Naomie%Canard%NULL%2, Thi Loi%Dao%NULL%2, Hacene%Medkour%NULL%2, Audrey%Borg%NULL%2, Kevin%Bardy%NULL%2, Véra%Esteves-Vieira%NULL%2, Véronique%Filosa%NULL%2, Bernard%Davoust%NULL%2, Oleg%Mediannikov%NULL%2, Pierre-Edouard%Fournier%NULL%2, Didier%Raoult%NULL%2, Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+    <t>[Tran Duc Anh%Ly%NULL%0, Van Thuan%Hoang%NULL%2, Ndiaw%Goumballa%NULL%2, Meriem%Louni%NULL%2, Naomie%Canard%NULL%2, Thi Loi%Dao%NULL%2, Hacene%Medkour%NULL%2, Audrey%Borg%NULL%2, Kevin%Bardy%NULL%2, Véra%Esteves-Vieira%NULL%2, Véronique%Filosa%NULL%2, Bernard%Davoust%NULL%2, Oleg%Mediannikov%NULL%2, Pierre-Edouard%Fournier%NULL%2, Didier%Raoult%NULL%2, Philippe%Gautret%philippe.gautret@club-internet.fr%0]</t>
   </si>
   <si>
     <t>PMC7881748</t>
   </si>
   <si>
     <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>_Springer</t>
   </si>
   <si>
     <t>Seroprevalence and risk factors of exposure to COVID-19 in homeless people in Paris, France: a cross-sectional study</t>
@@ -604,137 +620,80 @@
   <si>
     <t>PMC7443578</t>
   </si>
-  <si>
-    <t>[Emily%Mosites%NULL%1,  Erin M.%Parker%NULL%2,  Kristie E. N.%Clarke%NULL%1,  Jessie M.%Gaeta%NULL%1,  Travis P.%Baggett%NULL%1,  Elizabeth%Imbert%NULL%1,  Madeline%Sankaran%NULL%2,  Ashley%Scarborough%NULL%2,  Karin%Huster%NULL%2,  Matt%Hanson%NULL%1,  Elysia%Gonzales%NULL%0,  Jody%Rauch%NULL%2,  Libby%Page%NULL%1,  Temet M.%McMichael%NULL%2,  Ryan%Keating%NULL%2,  Grace E.%Marx%NULL%2,  Tom%Andrews%NULL%2,  Kristine%Schmit%NULL%0,  Sapna Bamrah%Morris%NULL%0,  Nicole F.%Dowling%NULL%2,  Georgina%Peacock%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  Ann%Buff%NULL%1,  Calla%Jamison%NULL%2,  Ruthanne%Marcus%NULL%1,  Carol Y.%Rao%NULL%2,  Julie L.%Self%NULL%2,  Farrell%Tobolowsky%NULL%0,  Samantha%Williams%NULL%1,  Meagan%Kay%NULL%0,  Naveena%Bobba%NULL%0,  Stephanie%Cohen%NULL%0,  Jonathan%Fuchs%NULL%1,  Trang%Nguyen%NULL%1,  Julie%Stoltey%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,  Elizabeth S%Davis%NULL%2,  Elizabeth S%Davis%NULL%0,  Stockton%Mayer%NULL%1,  Karrie-Ann%Toews%NULL%1,  Thomas D%Huggett%NULL%1,  Nyssa%Snow-Hill%NULL%1,  Omar%Perez%NULL%1,  Mary K%Hayden%NULL%1,  Seena%Tehrani%NULL%1,  A Justine%Landi%NULL%1,  Stephanie%Crane%NULL%1,  Elizabeth%Bell%NULL%1,  Joy-Marie%Hermes%NULL%1,  Kush%Desai%NULL%1,  Michelle%Godbee%NULL%1,  Naman%Jhaveri%NULL%1,  Brian%Borah%NULL%1,  Tracy%Cable%NULL%1,  Sofia%Sami%NULL%1,  Laura%Nozicka%NULL%1,  Yi-Shin%Chang%NULL%1,  Aditi%Jagadish%NULL%1,  Mark%Chee%NULL%1,  Brynna%Thigpen%NULL%1,  Christopher%Llerena%NULL%1,  Minh%Tran%NULL%1,  Divya Meher%Surabhi%NULL%1,  Emilia D%Smith%NULL%1,  Rosemary G%Remus%NULL%1,  Roweine%Staszcuk%NULL%1,  Evelyn%Figueroa%NULL%1,  Paul%Leo%NULL%1,  Wayne M%Detmer%NULL%1,  Evan%Lyon%NULL%1,  Sarah%Carreon%NULL%1,  Stacey%Hoferka%NULL%1,  Kathleen A%Ritger%NULL%1,  Wilnise%Jasmin%NULL%1,  Prathima%Nagireddy%NULL%1,  Jennifer Y%Seo%NULL%1,  Marielle J%Fricchione%NULL%1,  Janna L%Kerins%NULL%1,  Stephanie R%Black%NULL%1,  Lisa Morrison%Butler%NULL%1,  Kimberly%Howard%NULL%1,  Maura%McCauley%NULL%1,  Todd%Fraley%NULL%1,  M Allison%Arwady%NULL%1,  Stephanie%Gretsch%NULL%1,  Megan%Cunningham%NULL%1,  Massimo%Pacilli%NULL%1,  Peter S%Ruestow%NULL%2,  Peter S%Ruestow%NULL%0,  Emily%Mosites%NULL%3,  Elizabeth%Avery%NULL%1,  Joshua%Longcoy%NULL%1,  Elizabeth B%Lynch%NULL%1,  Jennifer E%Layden%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Emeline%Han%NULL%1,  Melisa Mei Jin%Tan%NULL%1,  Eva%Turk%NULL%1,  Devi%Sridhar%NULL%1,  Gabriel M%Leung%NULL%3,  Kenji%Shibuya%NULL%1,  Nima%Asgari%NULL%1,  Juhwan%Oh%NULL%1,  Alberto L%García-Basteiro%NULL%1,  Johanna%Hanefeld%NULL%1,  Alex R%Cook%NULL%1,  Li Yang%Hsu%NULL%1,  Yik Ying%Teo%NULL%1,  David%Heymann%NULL%1,  Helen%Clark%NULL%1,  Martin%McKee%NULL%1,  Helena%Legido-Quigley%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Heather E.%Hsu%NULL%1,  Erin M.%Ashe%NULL%1,  Michael%Silverstein%NULL%1,  Melissa%Hofman%NULL%1,  Samantha J.%Lange%NULL%1,  Hilda%Razzaghi%NULL%0,  Rebecca G.%Mishuris%NULL%1,  Ravin%Davidoff%NULL%1,  Erin M.%Parker%NULL%0,  Ana%Penman-Aguilar%NULL%1,  Kristie E.N.%Clarke%NULL%1,  Anna%Goldman%NULL%1,  Thea L.%James%NULL%1,  Karen%Jacobson%NULL%1,  Karen E.%Lasser%NULL%1,  Ziming%Xuan%NULL%1,  Georgina%Peacock%NULL%0,  Nicole F.%Dowling%NULL%0,  Alyson B.%Goodman%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lauren P.%Jatt%NULL%1,  Alexander%Winnett%NULL%0,  Alexander%Winnett%NULL%0,  Christopher J.%Graber%NULL%0,  Christopher J.%Graber%NULL%0,  John%Vallone%NULL%1,  David O.%Beenhouwer%NULL%1,  Matthew Bidwell%Goetz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Dan%Kelly%NULL%1,  Holly%Murphy%NULL%1,  Ravi%Vadlamudi%NULL%2,  Ravi%Vadlamudi%NULL%0,  Ruth%Kraut%NULL%1,  Kate%Dalessio%NULL%1,  Anurag N.%Malani%NULL%1,  Meghan%Glabach%NULL%1,  Juan Luis%Marquez%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Julia H.%Rogers%NULL%1,  Amy C.%Link%NULL%2,  Amy C.%Link%NULL%0,  Denise%McCulloch%NULL%1,  Elisabeth%Brandstetter%NULL%0,  Kira L.%Newman%NULL%0,  Kira L.%Newman%NULL%0,  Michael L.%Jackson%NULL%2,  Michael L.%Jackson%NULL%0,  James P.%Hughes%NULL%2,  James P.%Hughes%NULL%0,  Janet A.%Englund%NULL%0,  Janet A.%Englund%NULL%0,  Michael%Boeckh%NULL%2,  Michael%Boeckh%NULL%0,  Nancy%Sugg%NULL%2,  Misja%Ilcisin%NULL%1,  Thomas R.%Sibley%NULL%2,  Thomas R.%Sibley%NULL%0,  Kairsten%Fay%NULL%2,  Kairsten%Fay%NULL%0,  Jover%Lee%NULL%2,  Jover%Lee%NULL%0,  Peter%Han%NULL%2,  Peter%Han%NULL%0,  Melissa%Truong%NULL%1,  Matthew%Richardson%NULL%2,  Matthew%Richardson%NULL%0,  Deborah A.%Nickerson%NULL%2,  Deborah A.%Nickerson%NULL%0,  Lea M.%Starita%NULL%0,  Trevor%Bedford%NULL%0,  Trevor%Bedford%NULL%0,  Helen Y.%Chu%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Hanna%Marquez%NULL%1,  Christian%Ramers%NULL%1,  Adam%Northrup%NULL%1,  Aaron%Tam%aaront@fhscd.org%1,  Jie%Liu%NULL%1,  Sarah%Rojas%NULL%1,  Stacey%Klaman%NULL%1,  Maureen%Khasira%NULL%1,  Jenan%Madbak%NULL%1,  Eva%Matthews%NULL%1,  Jeffrey%Norris%NULL%1,  Job%Godino%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jane C%Yoon%NULL%1,  Martha P%Montgomery%NULL%2,  Martha P%Montgomery%NULL%0,  Ann M%Buff%NULL%1,  Andrew T%Boyd%NULL%1,  Calla%Jamison%NULL%0,  Alfonso%Hernandez%NULL%1,  Kristine%Schmit%NULL%0,  Sarita%Shah%NULL%0,  Sophia%Ajoku%NULL%1,  David P%Holland%NULL%1,  Juliana%Prieto%NULL%0,  Sasha%Smith%NULL%0,  Mark A%Swancutt%NULL%1,  Kim%Turner%NULL%0,  Tom%Andrews%NULL%0,  Kevin%Flowers%NULL%1,  Alyssa%Wells%NULL%1,  Cathryn%Marchman%NULL%1,  Emaline%Laney%NULL%1,  Danae%Bixler%NULL%1,  Sean%Cavanaugh%NULL%1,  Nicole%Flowers%NULL%1,  Nicholas%Gaffga%NULL%1,  Jean Y%Ko%NULL%1,  Heather N%Paulin%NULL%1,  Mark K%Weng%NULL%1,  Emily%Mosites%NULL%0,  Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
-  </si>
-  <si>
-    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,  Patrick M%Kinley%NULL%1,  Ashley%Scarborough%NULL%0,  Caroline%Cawley%NULL%1,  Madeline%Sankaran%NULL%0,  Sarah N%Cox%NULL%1,  Margot%Kushel%NULL%1,  Juliet%Stoltey%NULL%0,  Stephanie%Cohen%NULL%0,  Jonathan D%Fuchs%NULL%1,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Farrell A.%Tobolowsky%NULL%1,  Elysia%Gonzales%NULL%0,  Julie L.%Self%NULL%0,  Carol Y.%Rao%NULL%0,  Ryan%Keating%NULL%0,  Grace E.%Marx%NULL%0,  Temet M.%McMichael%NULL%0,  Margaret D.%Lukoff%NULL%0,  Jeffrey S.%Duchin%NULL%0,  Karin%Huster%NULL%0,  Jody%Rauch%NULL%0,  Hedda%McLendon%NULL%1,  Matthew%Hanson%NULL%1,  Dave%Nichols%NULL%1,  Sargis%Pogosjans%NULL%0,  Meaghan%Fagalde%NULL%1,  Jennifer%Lenahan%NULL%1,  Emily%Maier%NULL%1,  Holly%Whitney%NULL%0,  Nancy%Sugg%NULL%0,  Helen%Chu%NULL%1,  Julia%Rogers%NULL%1,  Emily%Mosites%NULL%0,  Meagan%Kay%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rebecca%Karb%NULL%1,  Elizabeth%Samuels%NULL%1,  Rahul%Vanjani%NULL%1,  Catherine%Trimbur%NULL%1,  Anthony%Napoli%NULL%1]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,  Josephine%Jacobs%NULL%2,  Josephine%Jacobs%NULL%0,  Maria%Yefimova%NULL%1,  Liberty%Greene%NULL%1,  Leonie%Heyworth%NULL%1,  Donna M%Zulman%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lucie%Richard%NULL%1,  Richard%Booth%NULL%1,  Jennifer%Rayner%NULL%1,  Kristin K.%Clemens%NULL%1,  Cheryl%Forchuk%NULL%1,  Salimah Z.%Shariff%NULL%1]</t>
-  </si>
-  <si>
-    <t>[ Linwei%Wang%null%1,   Huiting%Ma%null%1,   Kristy C.Y.%Yiu%null%1,   Andrew%Calzavara%null%1,   David%Landsman%null%1,   Linh%Luong%null%1,   Adrienne K.%Chan%null%1,   Rafal%Kustra%null%1,   Jeffrey C.%Kwong%null%1,   Marie-Claude%Boily%null%1,   Stephen%Hwang%null%1,   Sharon%Straus%null%1,   Stefan D.%Baral%null%1,   Sharmistha%Mishra%null%1]</t>
-  </si>
-  <si>
-    <t>[Tran Duc Anh%Ly%NULL%0,  Van Thuan%Hoang%NULL%3,  Ndiaw%Goumballa%NULL%2,  Meriem%Louni%NULL%2,  Naomie%Canard%NULL%2,  Thi Loi%Dao%NULL%2,  Hacene%Medkour%NULL%2,  Audrey%Borg%NULL%2,  Kevin%Bardy%NULL%2,  Véra%Esteves-Vieira%NULL%2,  Véronique%Filosa%NULL%2,  Bernard%Davoust%NULL%2,  Oleg%Mediannikov%NULL%2,  Pierre-Edouard%Fournier%NULL%2,  Didier%Raoult%NULL%0,  Philippe%Gautret%philippe.gautret@club-internet.fr%0]</t>
-  </si>
-  <si>
-    <t>[Thomas%Roederer%NULL%1,  Bastien%Mollo%NULL%1,  Charline%Vincent%NULL%1,  Birgit%Nikolay%NULL%1,  Augusto E%Llosa%NULL%1,  Robin%Nesbitt%NULL%1,  Jessica%Vanhomwegen%NULL%1,  Thierry%Rose%NULL%1,  Sophie%Goyard%NULL%1,  François%Anna%NULL%1,  Corinne%Torre%NULL%1,  Emilie%Fourrey%NULL%1,  Erica%Simons%NULL%1,  William%Hennequin%NULL%1,  Clair%Mills%NULL%1,  Francisco J%Luquero%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Tran Duc Anh%Ly%NULL%0,  Nhu Ngoc%Nguyen%NULL%1,  Van Thuan%Hoang%NULL%0,  Ndiaw%Goumballa%NULL%0,  Meriem%Louni%NULL%0,  Naomie%Canard%NULL%0,  Thi Loi%Dao%NULL%0,  Hacene%Medkour%NULL%0,  Audrey%Borg%NULL%0,  Kevin%Bardy%NULL%0,  Véra%Esteves-Vieira%NULL%0,  Véronique%Filosa%NULL%0,  Bernard%Davoust%NULL%0,  Oleg%Mediannikov%NULL%0,  Pierre-Edouard%Fournier%NULL%0,  Didier%Raoult%NULL%0,  Philippe%Gautret%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Massimo%Ralli%NULL%1,  Aldo%Morrone%NULL%1,  Andrea%Arcangeli%NULL%1,  Lucia%Ercoli%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Loïc%Schrooyen%NULL%1,  Marc%Delforge%NULL%1,  Faustine%Lebout%NULL%1,  Thibaut%Vanbaelen%NULL%1,  Amaryl%Lecompte%NULL%1,  Nicolas%Dauby%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Carmen%Martin%NULL%1,  Pilar%Andrés%NULL%2,  Pilar%Andrés%NULL%0,  Alberto%Bullón%NULL%1,  José Luis%Villegas%NULL%2,  José Luis%Villegas%NULL%0,  Javier Ignacio%de la Iglesia-Larrad%NULL%1,  Berta%Bote%NULL%1,  Nieves%Prieto%NULL%1,  Carlos%Roncero%NULL%1]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="165" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="166" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy mmm d"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\ mmm\ d"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="mmmm yyyy"/>
-    <numFmt numFmtId="170" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="171" formatCode="mmmm dd, yyyy"/>
+    <numFmt numFmtId="169" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="171" formatCode="mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -742,7 +701,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -752,92 +711,80 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1027,20 +974,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,732 +1000,834 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43948.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>44116.0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8">
-        <v>44022.0</v>
+      <c r="B7" s="7">
+        <v>44022</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>43998.0</v>
+      <c r="B8" s="6">
+        <v>43998</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
-        <v>44069.0</v>
+      <c r="B9" s="9">
+        <v>44069</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
-        <v>44197.0</v>
+      <c r="B10" s="10">
+        <v>44197</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="11">
+        <v>44105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44082</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43952</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13">
+        <v>44136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>44105.0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14">
+        <v>44075</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44132.0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44082.0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>44046.0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43952.0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="14">
-        <v>44136.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="15">
-        <v>44075.0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
         <v>100</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
         <v>103</v>
       </c>
-      <c r="E19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
         <v>105</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7">
-        <v>44134.0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F21" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
         <v>109</v>
       </c>
-      <c r="G20" t="s">
+      <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="H20" t="s">
+      <c r="F22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>44207.0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G22" t="s">
         <v>112</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H22" t="s">
         <v>113</v>
       </c>
-      <c r="E21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="18">
+        <v>44240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E23" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="17">
-        <v>44113.0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
         <v>118</v>
       </c>
-      <c r="E22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44287</v>
+      </c>
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="19">
-        <v>44240.0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>121</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C25" t="s">
         <v>124</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="D25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="11">
-        <v>44287.0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E25" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F25" t="s">
         <v>127</v>
       </c>
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44228</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="12">
-        <v>44287.0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44049</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="20">
+        <v>44064</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="12">
-        <v>44228.0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="17">
-        <v>44049.0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="21">
-        <v>44064.0</v>
+      <c r="I28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A7"/>
-    <hyperlink r:id="rId5" ref="A8"/>
-    <hyperlink r:id="rId6" ref="A9"/>
-    <hyperlink r:id="rId7" ref="A10"/>
-    <hyperlink r:id="rId8" ref="A12"/>
-    <hyperlink r:id="rId9" ref="A13"/>
-    <hyperlink r:id="rId10" ref="A14"/>
-    <hyperlink r:id="rId11" ref="A15"/>
-    <hyperlink r:id="rId12" ref="A16"/>
-    <hyperlink r:id="rId13" ref="A17"/>
-    <hyperlink r:id="rId14" ref="B17"/>
-    <hyperlink r:id="rId15" ref="A18"/>
-    <hyperlink r:id="rId16" ref="A20"/>
-    <hyperlink r:id="rId17" ref="A24"/>
-    <hyperlink r:id="rId18" ref="A25"/>
-    <hyperlink r:id="rId19" ref="A26"/>
-    <hyperlink r:id="rId20" ref="A27"/>
-    <hyperlink r:id="rId21" ref="A28"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" display="about:blank" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="167">
   <si>
     <t>Doi</t>
   </si>
@@ -619,6 +619,81 @@
   </si>
   <si>
     <t>PMC7443578</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,  Erin M.%Parker%NULL%2,  Kristie E. N.%Clarke%NULL%1,  Jessie M.%Gaeta%NULL%1,  Travis P.%Baggett%NULL%1,  Elizabeth%Imbert%NULL%1,  Madeline%Sankaran%NULL%2,  Ashley%Scarborough%NULL%2,  Karin%Huster%NULL%2,  Matt%Hanson%NULL%1,  Elysia%Gonzales%NULL%2,  Jody%Rauch%NULL%2,  Libby%Page%NULL%1,  Temet M.%McMichael%NULL%2,  Ryan%Keating%NULL%2,  Grace E.%Marx%NULL%2,  Tom%Andrews%NULL%2,  Kristine%Schmit%NULL%2,  Sapna Bamrah%Morris%NULL%2,  Nicole F.%Dowling%NULL%2,  Georgina%Peacock%NULL%2,  NULL%NULL%NULL%5,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  Ann%Buff%NULL%1,  Calla%Jamison%NULL%2,  Ruthanne%Marcus%NULL%1,  Carol Y.%Rao%NULL%2,  Julie L.%Self%NULL%2,  Farrell%Tobolowsky%NULL%1,  Samantha%Williams%NULL%1,  Meagan%Kay%NULL%2,  Naveena%Bobba%NULL%1,  Stephanie%Cohen%NULL%2,  Jonathan%Fuchs%NULL%1,  Trang%Nguyen%NULL%1,  Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,  Elizabeth S%Davis%NULL%2,  Elizabeth S%Davis%NULL%0,  Stockton%Mayer%NULL%1,  Karrie-Ann%Toews%NULL%1,  Thomas D%Huggett%NULL%1,  Nyssa%Snow-Hill%NULL%1,  Omar%Perez%NULL%1,  Mary K%Hayden%NULL%1,  Seena%Tehrani%NULL%1,  A Justine%Landi%NULL%1,  Stephanie%Crane%NULL%1,  Elizabeth%Bell%NULL%1,  Joy-Marie%Hermes%NULL%1,  Kush%Desai%NULL%1,  Michelle%Godbee%NULL%1,  Naman%Jhaveri%NULL%1,  Brian%Borah%NULL%1,  Tracy%Cable%NULL%1,  Sofia%Sami%NULL%1,  Laura%Nozicka%NULL%1,  Yi-Shin%Chang%NULL%1,  Aditi%Jagadish%NULL%1,  Mark%Chee%NULL%1,  Brynna%Thigpen%NULL%1,  Christopher%Llerena%NULL%1,  Minh%Tran%NULL%1,  Divya Meher%Surabhi%NULL%1,  Emilia D%Smith%NULL%1,  Rosemary G%Remus%NULL%1,  Roweine%Staszcuk%NULL%1,  Evelyn%Figueroa%NULL%1,  Paul%Leo%NULL%1,  Wayne M%Detmer%NULL%1,  Evan%Lyon%NULL%1,  Sarah%Carreon%NULL%1,  Stacey%Hoferka%NULL%1,  Kathleen A%Ritger%NULL%1,  Wilnise%Jasmin%NULL%1,  Prathima%Nagireddy%NULL%1,  Jennifer Y%Seo%NULL%1,  Marielle J%Fricchione%NULL%1,  Janna L%Kerins%NULL%1,  Stephanie R%Black%NULL%1,  Lisa Morrison%Butler%NULL%1,  Kimberly%Howard%NULL%1,  Maura%McCauley%NULL%1,  Todd%Fraley%NULL%1,  M Allison%Arwady%NULL%1,  Stephanie%Gretsch%NULL%1,  Megan%Cunningham%NULL%1,  Massimo%Pacilli%NULL%1,  Peter S%Ruestow%NULL%2,  Peter S%Ruestow%NULL%0,  Emily%Mosites%NULL%3,  Elizabeth%Avery%NULL%1,  Joshua%Longcoy%NULL%1,  Elizabeth B%Lynch%NULL%1,  Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,  Melisa Mei Jin%Tan%NULL%1,  Eva%Turk%NULL%1,  Devi%Sridhar%NULL%1,  Gabriel M%Leung%NULL%1,  Kenji%Shibuya%NULL%1,  Nima%Asgari%NULL%1,  Juhwan%Oh%NULL%1,  Alberto L%García-Basteiro%NULL%1,  Johanna%Hanefeld%NULL%1,  Alex R%Cook%NULL%1,  Li Yang%Hsu%NULL%1,  Yik Ying%Teo%NULL%1,  David%Heymann%NULL%1,  Helen%Clark%NULL%1,  Martin%McKee%NULL%1,  Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_PMC</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,  Erin M.%Ashe%NULL%1,  Michael%Silverstein%NULL%1,  Melissa%Hofman%NULL%1,  Samantha J.%Lange%NULL%1,  Hilda%Razzaghi%NULL%1,  Rebecca G.%Mishuris%NULL%1,  Ravin%Davidoff%NULL%1,  Erin M.%Parker%NULL%0,  Ana%Penman-Aguilar%NULL%1,  Kristie E.N.%Clarke%NULL%1,  Anna%Goldman%NULL%1,  Thea L.%James%NULL%1,  Karen%Jacobson%NULL%1,  Karen E.%Lasser%NULL%1,  Ziming%Xuan%NULL%1,  Georgina%Peacock%NULL%0,  Nicole F.%Dowling%NULL%0,  Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,  Alexander%Winnett%NULL%2,  Alexander%Winnett%NULL%0,  Christopher J.%Graber%NULL%2,  Christopher J.%Graber%NULL%0,  John%Vallone%NULL%1,  David O.%Beenhouwer%NULL%1,  Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,  Holly%Murphy%NULL%1,  Ravi%Vadlamudi%NULL%2,  Ravi%Vadlamudi%NULL%0,  Ruth%Kraut%NULL%1,  Kate%Dalessio%NULL%1,  Anurag N.%Malani%NULL%1,  Meghan%Glabach%NULL%1,  Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,  Amy C.%Link%NULL%2,  Amy C.%Link%NULL%0,  Denise%McCulloch%NULL%1,  Elisabeth%Brandstetter%NULL%1,  Kira L.%Newman%NULL%2,  Kira L.%Newman%NULL%0,  Michael L.%Jackson%NULL%2,  Michael L.%Jackson%NULL%0,  James P.%Hughes%NULL%2,  James P.%Hughes%NULL%0,  Janet A.%Englund%NULL%2,  Janet A.%Englund%NULL%0,  Michael%Boeckh%NULL%2,  Michael%Boeckh%NULL%0,  Nancy%Sugg%NULL%2,  Misja%Ilcisin%NULL%1,  Thomas R.%Sibley%NULL%2,  Thomas R.%Sibley%NULL%0,  Kairsten%Fay%NULL%2,  Kairsten%Fay%NULL%0,  Jover%Lee%NULL%2,  Jover%Lee%NULL%0,  Peter%Han%NULL%2,  Peter%Han%NULL%0,  Melissa%Truong%NULL%1,  Matthew%Richardson%NULL%2,  Matthew%Richardson%NULL%0,  Deborah A.%Nickerson%NULL%2,  Deborah A.%Nickerson%NULL%0,  Lea M.%Starita%NULL%1,  Trevor%Bedford%NULL%2,  Trevor%Bedford%NULL%0,  Helen Y.%Chu%NULL%1,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,  Elizabeth J.%D'Amico%NULL%1,  Eric R.%Pedersen%NULL%1,  Rick%Garvey%NULL%1,  Anthony%Rodriguez%NULL%1,  David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,  Christian%Ramers%NULL%1,  Adam%Northrup%NULL%1,  Aaron%Tam%aaront@fhscd.org%1,  Jie%Liu%NULL%1,  Sarah%Rojas%NULL%1,  Stacey%Klaman%NULL%1,  Maureen%Khasira%NULL%1,  Jenan%Madbak%NULL%1,  Eva%Matthews%NULL%1,  Jeffrey%Norris%NULL%1,  Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,  Martha P%Montgomery%NULL%2,  Martha P%Montgomery%NULL%0,  Ann M%Buff%NULL%1,  Andrew T%Boyd%NULL%1,  Calla%Jamison%NULL%0,  Alfonso%Hernandez%NULL%1,  Kristine%Schmit%NULL%0,  Sarita%Shah%NULL%1,  Sophia%Ajoku%NULL%1,  David P%Holland%NULL%1,  Juliana%Prieto%NULL%1,  Sasha%Smith%NULL%1,  Mark A%Swancutt%NULL%1,  Kim%Turner%NULL%1,  Tom%Andrews%NULL%0,  Kevin%Flowers%NULL%1,  Alyssa%Wells%NULL%1,  Cathryn%Marchman%NULL%1,  Emaline%Laney%NULL%1,  Danae%Bixler%NULL%1,  Sean%Cavanaugh%NULL%1,  Nicole%Flowers%NULL%1,  Nicholas%Gaffga%NULL%1,  Jean Y%Ko%NULL%1,  Heather N%Paulin%NULL%1,  Mark K%Weng%NULL%1,  Emily%Mosites%NULL%0,  Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,  Patrick M%Kinley%NULL%1,  Ashley%Scarborough%NULL%0,  Caroline%Cawley%NULL%1,  Madeline%Sankaran%NULL%0,  Sarah N%Cox%NULL%1,  Margot%Kushel%NULL%1,  Juliet%Stoltey%NULL%1,  Stephanie%Cohen%NULL%0,  Jonathan D%Fuchs%NULL%1,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,  Elysia%Gonzales%NULL%0,  Julie L.%Self%NULL%0,  Carol Y.%Rao%NULL%0,  Ryan%Keating%NULL%0,  Grace E.%Marx%NULL%0,  Temet M.%McMichael%NULL%0,  Margaret D.%Lukoff%NULL%1,  Jeffrey S.%Duchin%NULL%1,  Karin%Huster%NULL%0,  Jody%Rauch%NULL%0,  Hedda%McLendon%NULL%1,  Matthew%Hanson%NULL%1,  Dave%Nichols%NULL%1,  Sargis%Pogosjans%NULL%1,  Meaghan%Fagalde%NULL%1,  Jennifer%Lenahan%NULL%1,  Emily%Maier%NULL%1,  Holly%Whitney%NULL%1,  Nancy%Sugg%NULL%0,  Helen%Chu%NULL%1,  Julia%Rogers%NULL%1,  Emily%Mosites%NULL%0,  Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,  Elizabeth%Samuels%NULL%1,  Rahul%Vanjani%NULL%1,  Catherine%Trimbur%NULL%1,  Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,  Josephine%Jacobs%NULL%2,  Josephine%Jacobs%NULL%0,  Maria%Yefimova%NULL%1,  Liberty%Greene%NULL%1,  Leonie%Heyworth%NULL%1,  Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,  Richard%Booth%NULL%1,  Jennifer%Rayner%NULL%1,  Kristin K.%Clemens%NULL%1,  Cheryl%Forchuk%NULL%1,  Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%2,   Huiting%Ma%null%1,   Kristy C.Y.%Yiu%null%1,   Andrew%Calzavara%null%1,   David%Landsman%null%1,   Linh%Luong%null%1,   Adrienne K.%Chan%null%1,   Rafal%Kustra%null%1,   Jeffrey C.%Kwong%null%1,   Marie-Claude%Boily%null%1,   Stephen%Hwang%null%1,   Sharon%Straus%null%1,   Stefan D.%Baral%null%1,   Sharmistha%Mishra%null%1,  Linwei%Wang%null%0,  Huiting%Ma%null%1,  Kristy C.Y.%Yiu%null%1,  Andrew%Calzavara%null%1,  David%Landsman%null%1,  Linh%Luong%null%1,  Adrienne K.%Chan%null%1,  Rafal%Kustra%null%1,  Jeffrey C.%Kwong%null%1,  Marie-Claude%Boily%null%1,  Stephen%Hwang%null%1,  Sharon%Straus%null%1,  Stefan D.%Baral%null%1,  Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,  Van Thuan%Hoang%NULL%2,  Ndiaw%Goumballa%NULL%2,  Meriem%Louni%NULL%2,  Naomie%Canard%NULL%2,  Thi Loi%Dao%NULL%2,  Hacene%Medkour%NULL%2,  Audrey%Borg%NULL%2,  Kevin%Bardy%NULL%2,  Véra%Esteves-Vieira%NULL%2,  Véronique%Filosa%NULL%2,  Bernard%Davoust%NULL%2,  Oleg%Mediannikov%NULL%2,  Pierre-Edouard%Fournier%NULL%2,  Didier%Raoult%NULL%2,  Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>_Springer_PMC</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,  Bastien%Mollo%NULL%1,  Charline%Vincent%NULL%1,  Birgit%Nikolay%NULL%1,  Augusto E%Llosa%NULL%1,  Robin%Nesbitt%NULL%1,  Jessica%Vanhomwegen%NULL%1,  Thierry%Rose%NULL%1,  Sophie%Goyard%NULL%1,  François%Anna%NULL%1,  Corinne%Torre%NULL%1,  Emilie%Fourrey%NULL%1,  Erica%Simons%NULL%1,  William%Hennequin%NULL%1,  Clair%Mills%NULL%1,  Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,  Nhu Ngoc%Nguyen%NULL%1,  Van Thuan%Hoang%NULL%0,  Ndiaw%Goumballa%NULL%0,  Meriem%Louni%NULL%0,  Naomie%Canard%NULL%0,  Thi Loi%Dao%NULL%0,  Hacene%Medkour%NULL%0,  Audrey%Borg%NULL%0,  Kevin%Bardy%NULL%0,  Véra%Esteves-Vieira%NULL%0,  Véronique%Filosa%NULL%0,  Bernard%Davoust%NULL%0,  Oleg%Mediannikov%NULL%0,  Pierre-Edouard%Fournier%NULL%0,  Didier%Raoult%NULL%0,  Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,  Aldo%Morrone%NULL%1,  Andrea%Arcangeli%NULL%1,  Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,  Marc%Delforge%NULL%1,  Faustine%Lebout%NULL%1,  Thibaut%Vanbaelen%NULL%1,  Amaryl%Lecompte%NULL%1,  Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,  Pilar%Andrés%NULL%2,  Pilar%Andrés%NULL%0,  Alberto%Bullón%NULL%1,  José Luis%Villegas%NULL%2,  José Luis%Villegas%NULL%0,  Javier Ignacio%de la Iglesia-Larrad%NULL%1,  Berta%Bote%NULL%1,  Nieves%Prieto%NULL%1,  Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1047,7 +1122,7 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1105,7 +1180,7 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1151,7 +1226,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1163,7 +1238,7 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1180,7 +1255,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1192,7 +1267,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,7 +1284,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1221,7 +1296,7 @@
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1238,7 +1313,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1250,7 +1325,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1267,7 +1342,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -1279,7 +1354,7 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1325,7 +1400,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1337,7 +1412,7 @@
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1354,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1366,7 +1441,7 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1383,7 +1458,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1395,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1412,7 +1487,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1424,7 +1499,7 @@
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1441,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -1453,7 +1528,7 @@
         <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1574,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -1511,7 +1586,7 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1557,7 +1632,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1569,7 +1644,7 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1661,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -1598,7 +1673,7 @@
         <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1690,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -1644,7 +1719,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -1656,7 +1731,7 @@
         <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1673,7 +1748,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -1685,7 +1760,7 @@
         <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1777,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -1714,7 +1789,7 @@
         <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1731,7 +1806,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -1743,7 +1818,7 @@
         <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1760,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -1772,7 +1847,7 @@
         <v>137</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1789,7 +1864,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>
@@ -1801,7 +1876,7 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="233">
   <si>
     <t>Doi</t>
   </si>
@@ -694,6 +694,204 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,  Pilar%Andrés%NULL%2,  Pilar%Andrés%NULL%0,  Alberto%Bullón%NULL%1,  José Luis%Villegas%NULL%2,  José Luis%Villegas%NULL%0,  Javier Ignacio%de la Iglesia-Larrad%NULL%1,  Berta%Bote%NULL%1,  Nieves%Prieto%NULL%1,  Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,   Erin M.%Parker%NULL%2,   Kristie E. N.%Clarke%NULL%1,   Jessie M.%Gaeta%NULL%1,   Travis P.%Baggett%NULL%1,   Elizabeth%Imbert%NULL%1,   Madeline%Sankaran%NULL%2,   Ashley%Scarborough%NULL%2,   Karin%Huster%NULL%2,   Matt%Hanson%NULL%1,   Elysia%Gonzales%NULL%2,   Jody%Rauch%NULL%2,   Libby%Page%NULL%1,   Temet M.%McMichael%NULL%2,   Ryan%Keating%NULL%2,   Grace E.%Marx%NULL%2,   Tom%Andrews%NULL%2,   Kristine%Schmit%NULL%2,   Sapna Bamrah%Morris%NULL%2,   Nicole F.%Dowling%NULL%2,   Georgina%Peacock%NULL%2,   NULL%NULL%NULL%6,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Ann%Buff%NULL%1,   Calla%Jamison%NULL%2,   Ruthanne%Marcus%NULL%1,   Carol Y.%Rao%NULL%2,   Julie L.%Self%NULL%2,   Farrell%Tobolowsky%NULL%1,   Samantha%Williams%NULL%1,   Meagan%Kay%NULL%2,   Naveena%Bobba%NULL%1,   Stephanie%Cohen%NULL%2,   Jonathan%Fuchs%NULL%1,   Trang%Nguyen%NULL%1,   Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,   Elizabeth S%Davis%NULL%2,   Elizabeth S%Davis%NULL%0,   Stockton%Mayer%NULL%1,   Karrie-Ann%Toews%NULL%1,   Thomas D%Huggett%NULL%1,   Nyssa%Snow-Hill%NULL%1,   Omar%Perez%NULL%1,   Mary K%Hayden%NULL%1,   Seena%Tehrani%NULL%1,   A Justine%Landi%NULL%1,   Stephanie%Crane%NULL%1,   Elizabeth%Bell%NULL%1,   Joy-Marie%Hermes%NULL%1,   Kush%Desai%NULL%1,   Michelle%Godbee%NULL%1,   Naman%Jhaveri%NULL%1,   Brian%Borah%NULL%1,   Tracy%Cable%NULL%1,   Sofia%Sami%NULL%1,   Laura%Nozicka%NULL%1,   Yi-Shin%Chang%NULL%1,   Aditi%Jagadish%NULL%1,   Mark%Chee%NULL%1,   Brynna%Thigpen%NULL%1,   Christopher%Llerena%NULL%1,   Minh%Tran%NULL%1,   Divya Meher%Surabhi%NULL%1,   Emilia D%Smith%NULL%1,   Rosemary G%Remus%NULL%1,   Roweine%Staszcuk%NULL%1,   Evelyn%Figueroa%NULL%1,   Paul%Leo%NULL%1,   Wayne M%Detmer%NULL%1,   Evan%Lyon%NULL%1,   Sarah%Carreon%NULL%1,   Stacey%Hoferka%NULL%1,   Kathleen A%Ritger%NULL%1,   Wilnise%Jasmin%NULL%1,   Prathima%Nagireddy%NULL%1,   Jennifer Y%Seo%NULL%1,   Marielle J%Fricchione%NULL%1,   Janna L%Kerins%NULL%1,   Stephanie R%Black%NULL%1,   Lisa Morrison%Butler%NULL%1,   Kimberly%Howard%NULL%1,   Maura%McCauley%NULL%1,   Todd%Fraley%NULL%1,   M Allison%Arwady%NULL%1,   Stephanie%Gretsch%NULL%1,   Megan%Cunningham%NULL%1,   Massimo%Pacilli%NULL%1,   Peter S%Ruestow%NULL%2,   Peter S%Ruestow%NULL%0,   Emily%Mosites%NULL%3,   Elizabeth%Avery%NULL%1,   Joshua%Longcoy%NULL%1,   Elizabeth B%Lynch%NULL%1,   Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,   Melisa Mei Jin%Tan%NULL%1,   Eva%Turk%NULL%1,   Devi%Sridhar%NULL%1,   Gabriel M%Leung%NULL%1,   Kenji%Shibuya%NULL%1,   Nima%Asgari%NULL%1,   Juhwan%Oh%NULL%1,   Alberto L%García-Basteiro%NULL%1,   Johanna%Hanefeld%NULL%1,   Alex R%Cook%NULL%1,   Li Yang%Hsu%NULL%1,   Yik Ying%Teo%NULL%1,   David%Heymann%NULL%1,   Helen%Clark%NULL%1,   Martin%McKee%NULL%1,   Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,   Erin M.%Ashe%NULL%1,   Michael%Silverstein%NULL%1,   Melissa%Hofman%NULL%1,   Samantha J.%Lange%NULL%1,   Hilda%Razzaghi%NULL%1,   Rebecca G.%Mishuris%NULL%1,   Ravin%Davidoff%NULL%1,   Erin M.%Parker%NULL%0,   Ana%Penman-Aguilar%NULL%1,   Kristie E.N.%Clarke%NULL%1,   Anna%Goldman%NULL%1,   Thea L.%James%NULL%1,   Karen%Jacobson%NULL%1,   Karen E.%Lasser%NULL%1,   Ziming%Xuan%NULL%1,   Georgina%Peacock%NULL%0,   Nicole F.%Dowling%NULL%0,   Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,   Alexander%Winnett%NULL%2,   Alexander%Winnett%NULL%0,   Christopher J.%Graber%NULL%2,   Christopher J.%Graber%NULL%0,   John%Vallone%NULL%1,   David O.%Beenhouwer%NULL%1,   Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,   Holly%Murphy%NULL%1,   Ravi%Vadlamudi%NULL%2,   Ravi%Vadlamudi%NULL%0,   Ruth%Kraut%NULL%1,   Kate%Dalessio%NULL%1,   Anurag N.%Malani%NULL%1,   Meghan%Glabach%NULL%1,   Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,   Amy C.%Link%NULL%2,   Amy C.%Link%NULL%0,   Denise%McCulloch%NULL%1,   Elisabeth%Brandstetter%NULL%1,   Kira L.%Newman%NULL%2,   Kira L.%Newman%NULL%0,   Michael L.%Jackson%NULL%2,   Michael L.%Jackson%NULL%0,   James P.%Hughes%NULL%2,   James P.%Hughes%NULL%0,   Janet A.%Englund%NULL%2,   Janet A.%Englund%NULL%0,   Michael%Boeckh%NULL%2,   Michael%Boeckh%NULL%0,   Nancy%Sugg%NULL%2,   Misja%Ilcisin%NULL%1,   Thomas R.%Sibley%NULL%2,   Thomas R.%Sibley%NULL%0,   Kairsten%Fay%NULL%2,   Kairsten%Fay%NULL%0,   Jover%Lee%NULL%2,   Jover%Lee%NULL%0,   Peter%Han%NULL%2,   Peter%Han%NULL%0,   Melissa%Truong%NULL%1,   Matthew%Richardson%NULL%2,   Matthew%Richardson%NULL%0,   Deborah A.%Nickerson%NULL%2,   Deborah A.%Nickerson%NULL%0,   Lea M.%Starita%NULL%1,   Trevor%Bedford%NULL%2,   Trevor%Bedford%NULL%0,   Helen Y.%Chu%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,   Elizabeth J.%D'Amico%NULL%1,   Eric R.%Pedersen%NULL%1,   Rick%Garvey%NULL%1,   Anthony%Rodriguez%NULL%1,   David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,   Christian%Ramers%NULL%1,   Adam%Northrup%NULL%1,   Aaron%Tam%aaront@fhscd.org%1,   Jie%Liu%NULL%1,   Sarah%Rojas%NULL%1,   Stacey%Klaman%NULL%1,   Maureen%Khasira%NULL%1,   Jenan%Madbak%NULL%1,   Eva%Matthews%NULL%1,   Jeffrey%Norris%NULL%1,   Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,   Martha P%Montgomery%NULL%2,   Martha P%Montgomery%NULL%0,   Ann M%Buff%NULL%1,   Andrew T%Boyd%NULL%1,   Calla%Jamison%NULL%0,   Alfonso%Hernandez%NULL%1,   Kristine%Schmit%NULL%0,   Sarita%Shah%NULL%1,   Sophia%Ajoku%NULL%1,   David P%Holland%NULL%1,   Juliana%Prieto%NULL%1,   Sasha%Smith%NULL%1,   Mark A%Swancutt%NULL%1,   Kim%Turner%NULL%1,   Tom%Andrews%NULL%0,   Kevin%Flowers%NULL%1,   Alyssa%Wells%NULL%1,   Cathryn%Marchman%NULL%1,   Emaline%Laney%NULL%1,   Danae%Bixler%NULL%1,   Sean%Cavanaugh%NULL%1,   Nicole%Flowers%NULL%1,   Nicholas%Gaffga%NULL%1,   Jean Y%Ko%NULL%1,   Heather N%Paulin%NULL%1,   Mark K%Weng%NULL%1,   Emily%Mosites%NULL%0,   Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,   Patrick M%Kinley%NULL%1,   Ashley%Scarborough%NULL%0,   Caroline%Cawley%NULL%1,   Madeline%Sankaran%NULL%0,   Sarah N%Cox%NULL%1,   Margot%Kushel%NULL%1,   Juliet%Stoltey%NULL%1,   Stephanie%Cohen%NULL%0,   Jonathan D%Fuchs%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,   Elysia%Gonzales%NULL%0,   Julie L.%Self%NULL%0,   Carol Y.%Rao%NULL%0,   Ryan%Keating%NULL%0,   Grace E.%Marx%NULL%0,   Temet M.%McMichael%NULL%0,   Margaret D.%Lukoff%NULL%1,   Jeffrey S.%Duchin%NULL%1,   Karin%Huster%NULL%0,   Jody%Rauch%NULL%0,   Hedda%McLendon%NULL%1,   Matthew%Hanson%NULL%1,   Dave%Nichols%NULL%1,   Sargis%Pogosjans%NULL%1,   Meaghan%Fagalde%NULL%1,   Jennifer%Lenahan%NULL%1,   Emily%Maier%NULL%1,   Holly%Whitney%NULL%1,   Nancy%Sugg%NULL%0,   Helen%Chu%NULL%1,   Julia%Rogers%NULL%1,   Emily%Mosites%NULL%0,   Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,   Elizabeth%Samuels%NULL%1,   Rahul%Vanjani%NULL%1,   Catherine%Trimbur%NULL%1,   Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,   Josephine%Jacobs%NULL%2,   Josephine%Jacobs%NULL%0,   Maria%Yefimova%NULL%1,   Liberty%Greene%NULL%1,   Leonie%Heyworth%NULL%1,   Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,   Richard%Booth%NULL%1,   Jennifer%Rayner%NULL%1,   Kristin K.%Clemens%NULL%1,   Cheryl%Forchuk%NULL%1,   Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,    Huiting%Ma%null%1,    Kristy C.Y.%Yiu%null%1,    Andrew%Calzavara%null%1,    David%Landsman%null%1,    Linh%Luong%null%1,    Adrienne K.%Chan%null%1,    Rafal%Kustra%null%1,    Jeffrey C.%Kwong%null%1,    Marie-Claude%Boily%null%1,    Stephen%Hwang%null%1,    Sharon%Straus%null%1,    Stefan D.%Baral%null%1,    Sharmistha%Mishra%null%1,   Linwei%Wang%null%1,   Huiting%Ma%null%1,   Kristy C.Y.%Yiu%null%1,   Andrew%Calzavara%null%1,   David%Landsman%null%1,   Linh%Luong%null%1,   Adrienne K.%Chan%null%1,   Rafal%Kustra%null%1,   Jeffrey C.%Kwong%null%1,   Marie-Claude%Boily%null%1,   Stephen%Hwang%null%1,   Sharon%Straus%null%1,   Stefan D.%Baral%null%1,   Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,   Van Thuan%Hoang%NULL%2,   Ndiaw%Goumballa%NULL%2,   Meriem%Louni%NULL%2,   Naomie%Canard%NULL%2,   Thi Loi%Dao%NULL%2,   Hacene%Medkour%NULL%2,   Audrey%Borg%NULL%2,   Kevin%Bardy%NULL%2,   Véra%Esteves-Vieira%NULL%2,   Véronique%Filosa%NULL%2,   Bernard%Davoust%NULL%2,   Oleg%Mediannikov%NULL%2,   Pierre-Edouard%Fournier%NULL%2,   Didier%Raoult%NULL%2,   Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,   Bastien%Mollo%NULL%1,   Charline%Vincent%NULL%1,   Birgit%Nikolay%NULL%1,   Augusto E%Llosa%NULL%1,   Robin%Nesbitt%NULL%1,   Jessica%Vanhomwegen%NULL%1,   Thierry%Rose%NULL%1,   Sophie%Goyard%NULL%1,   François%Anna%NULL%1,   Corinne%Torre%NULL%1,   Emilie%Fourrey%NULL%1,   Erica%Simons%NULL%1,   William%Hennequin%NULL%1,   Clair%Mills%NULL%1,   Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,   Nhu Ngoc%Nguyen%NULL%1,   Van Thuan%Hoang%NULL%0,   Ndiaw%Goumballa%NULL%0,   Meriem%Louni%NULL%0,   Naomie%Canard%NULL%0,   Thi Loi%Dao%NULL%0,   Hacene%Medkour%NULL%0,   Audrey%Borg%NULL%0,   Kevin%Bardy%NULL%0,   Véra%Esteves-Vieira%NULL%0,   Véronique%Filosa%NULL%0,   Bernard%Davoust%NULL%0,   Oleg%Mediannikov%NULL%0,   Pierre-Edouard%Fournier%NULL%0,   Didier%Raoult%NULL%0,   Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,   Aldo%Morrone%NULL%1,   Andrea%Arcangeli%NULL%1,   Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,   Marc%Delforge%NULL%1,   Faustine%Lebout%NULL%1,   Thibaut%Vanbaelen%NULL%1,   Amaryl%Lecompte%NULL%1,   Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,   Pilar%Andrés%NULL%2,   Pilar%Andrés%NULL%0,   Alberto%Bullón%NULL%1,   José Luis%Villegas%NULL%2,   José Luis%Villegas%NULL%0,   Javier Ignacio%de la Iglesia-Larrad%NULL%1,   Berta%Bote%NULL%1,   Nieves%Prieto%NULL%1,   Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,    Erin M.%Parker%NULL%2,    Kristie E. N.%Clarke%NULL%1,    Jessie M.%Gaeta%NULL%1,    Travis P.%Baggett%NULL%1,    Elizabeth%Imbert%NULL%1,    Madeline%Sankaran%NULL%2,    Ashley%Scarborough%NULL%2,    Karin%Huster%NULL%2,    Matt%Hanson%NULL%1,    Elysia%Gonzales%NULL%2,    Jody%Rauch%NULL%2,    Libby%Page%NULL%1,    Temet M.%McMichael%NULL%2,    Ryan%Keating%NULL%2,    Grace E.%Marx%NULL%2,    Tom%Andrews%NULL%2,    Kristine%Schmit%NULL%2,    Sapna Bamrah%Morris%NULL%2,    Nicole F.%Dowling%NULL%2,    Georgina%Peacock%NULL%2,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Ann%Buff%NULL%1,    Calla%Jamison%NULL%2,    Ruthanne%Marcus%NULL%1,    Carol Y.%Rao%NULL%2,    Julie L.%Self%NULL%2,    Farrell%Tobolowsky%NULL%1,    Samantha%Williams%NULL%1,    Meagan%Kay%NULL%2,    Naveena%Bobba%NULL%1,    Stephanie%Cohen%NULL%2,    Jonathan%Fuchs%NULL%1,    Trang%Nguyen%NULL%1,    Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,    Elizabeth S%Davis%NULL%2,    Elizabeth S%Davis%NULL%0,    Stockton%Mayer%NULL%1,    Karrie-Ann%Toews%NULL%1,    Thomas D%Huggett%NULL%1,    Nyssa%Snow-Hill%NULL%1,    Omar%Perez%NULL%1,    Mary K%Hayden%NULL%1,    Seena%Tehrani%NULL%1,    A Justine%Landi%NULL%1,    Stephanie%Crane%NULL%1,    Elizabeth%Bell%NULL%1,    Joy-Marie%Hermes%NULL%1,    Kush%Desai%NULL%1,    Michelle%Godbee%NULL%1,    Naman%Jhaveri%NULL%1,    Brian%Borah%NULL%1,    Tracy%Cable%NULL%1,    Sofia%Sami%NULL%1,    Laura%Nozicka%NULL%1,    Yi-Shin%Chang%NULL%1,    Aditi%Jagadish%NULL%1,    Mark%Chee%NULL%1,    Brynna%Thigpen%NULL%1,    Christopher%Llerena%NULL%1,    Minh%Tran%NULL%1,    Divya Meher%Surabhi%NULL%1,    Emilia D%Smith%NULL%1,    Rosemary G%Remus%NULL%1,    Roweine%Staszcuk%NULL%1,    Evelyn%Figueroa%NULL%1,    Paul%Leo%NULL%1,    Wayne M%Detmer%NULL%1,    Evan%Lyon%NULL%1,    Sarah%Carreon%NULL%1,    Stacey%Hoferka%NULL%1,    Kathleen A%Ritger%NULL%1,    Wilnise%Jasmin%NULL%1,    Prathima%Nagireddy%NULL%1,    Jennifer Y%Seo%NULL%1,    Marielle J%Fricchione%NULL%1,    Janna L%Kerins%NULL%1,    Stephanie R%Black%NULL%1,    Lisa Morrison%Butler%NULL%1,    Kimberly%Howard%NULL%1,    Maura%McCauley%NULL%1,    Todd%Fraley%NULL%1,    M Allison%Arwady%NULL%1,    Stephanie%Gretsch%NULL%1,    Megan%Cunningham%NULL%1,    Massimo%Pacilli%NULL%1,    Peter S%Ruestow%NULL%2,    Peter S%Ruestow%NULL%0,    Emily%Mosites%NULL%3,    Elizabeth%Avery%NULL%1,    Joshua%Longcoy%NULL%1,    Elizabeth B%Lynch%NULL%1,    Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,    Melisa Mei Jin%Tan%NULL%1,    Eva%Turk%NULL%1,    Devi%Sridhar%NULL%1,    Gabriel M%Leung%NULL%1,    Kenji%Shibuya%NULL%1,    Nima%Asgari%NULL%1,    Juhwan%Oh%NULL%1,    Alberto L%García-Basteiro%NULL%1,    Johanna%Hanefeld%NULL%1,    Alex R%Cook%NULL%1,    Li Yang%Hsu%NULL%1,    Yik Ying%Teo%NULL%1,    David%Heymann%NULL%1,    Helen%Clark%NULL%1,    Martin%McKee%NULL%1,    Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,    Erin M.%Ashe%NULL%1,    Michael%Silverstein%NULL%1,    Melissa%Hofman%NULL%1,    Samantha J.%Lange%NULL%1,    Hilda%Razzaghi%NULL%1,    Rebecca G.%Mishuris%NULL%1,    Ravin%Davidoff%NULL%1,    Erin M.%Parker%NULL%0,    Ana%Penman-Aguilar%NULL%1,    Kristie E.N.%Clarke%NULL%1,    Anna%Goldman%NULL%1,    Thea L.%James%NULL%1,    Karen%Jacobson%NULL%1,    Karen E.%Lasser%NULL%1,    Ziming%Xuan%NULL%1,    Georgina%Peacock%NULL%0,    Nicole F.%Dowling%NULL%0,    Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,    Alexander%Winnett%NULL%2,    Alexander%Winnett%NULL%0,    Christopher J.%Graber%NULL%2,    Christopher J.%Graber%NULL%0,    John%Vallone%NULL%1,    David O.%Beenhouwer%NULL%1,    Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,    Holly%Murphy%NULL%1,    Ravi%Vadlamudi%NULL%2,    Ravi%Vadlamudi%NULL%0,    Ruth%Kraut%NULL%1,    Kate%Dalessio%NULL%1,    Anurag N.%Malani%NULL%1,    Meghan%Glabach%NULL%1,    Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,    Amy C.%Link%NULL%2,    Amy C.%Link%NULL%0,    Denise%McCulloch%NULL%1,    Elisabeth%Brandstetter%NULL%1,    Kira L.%Newman%NULL%2,    Kira L.%Newman%NULL%0,    Michael L.%Jackson%NULL%2,    Michael L.%Jackson%NULL%0,    James P.%Hughes%NULL%2,    James P.%Hughes%NULL%0,    Janet A.%Englund%NULL%2,    Janet A.%Englund%NULL%0,    Michael%Boeckh%NULL%2,    Michael%Boeckh%NULL%0,    Nancy%Sugg%NULL%2,    Misja%Ilcisin%NULL%1,    Thomas R.%Sibley%NULL%2,    Thomas R.%Sibley%NULL%0,    Kairsten%Fay%NULL%2,    Kairsten%Fay%NULL%0,    Jover%Lee%NULL%2,    Jover%Lee%NULL%0,    Peter%Han%NULL%2,    Peter%Han%NULL%0,    Melissa%Truong%NULL%1,    Matthew%Richardson%NULL%2,    Matthew%Richardson%NULL%0,    Deborah A.%Nickerson%NULL%2,    Deborah A.%Nickerson%NULL%0,    Lea M.%Starita%NULL%1,    Trevor%Bedford%NULL%2,    Trevor%Bedford%NULL%0,    Helen Y.%Chu%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,    Elizabeth J.%D'Amico%NULL%1,    Eric R.%Pedersen%NULL%1,    Rick%Garvey%NULL%1,    Anthony%Rodriguez%NULL%1,    David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,    Christian%Ramers%NULL%1,    Adam%Northrup%NULL%1,    Aaron%Tam%aaront@fhscd.org%1,    Jie%Liu%NULL%1,    Sarah%Rojas%NULL%1,    Stacey%Klaman%NULL%1,    Maureen%Khasira%NULL%1,    Jenan%Madbak%NULL%1,    Eva%Matthews%NULL%1,    Jeffrey%Norris%NULL%1,    Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,    Martha P%Montgomery%NULL%2,    Martha P%Montgomery%NULL%0,    Ann M%Buff%NULL%1,    Andrew T%Boyd%NULL%1,    Calla%Jamison%NULL%0,    Alfonso%Hernandez%NULL%1,    Kristine%Schmit%NULL%0,    Sarita%Shah%NULL%1,    Sophia%Ajoku%NULL%1,    David P%Holland%NULL%1,    Juliana%Prieto%NULL%1,    Sasha%Smith%NULL%1,    Mark A%Swancutt%NULL%1,    Kim%Turner%NULL%1,    Tom%Andrews%NULL%0,    Kevin%Flowers%NULL%1,    Alyssa%Wells%NULL%1,    Cathryn%Marchman%NULL%1,    Emaline%Laney%NULL%1,    Danae%Bixler%NULL%1,    Sean%Cavanaugh%NULL%1,    Nicole%Flowers%NULL%1,    Nicholas%Gaffga%NULL%1,    Jean Y%Ko%NULL%1,    Heather N%Paulin%NULL%1,    Mark K%Weng%NULL%1,    Emily%Mosites%NULL%0,    Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,    Patrick M%Kinley%NULL%1,    Ashley%Scarborough%NULL%0,    Caroline%Cawley%NULL%1,    Madeline%Sankaran%NULL%0,    Sarah N%Cox%NULL%1,    Margot%Kushel%NULL%1,    Juliet%Stoltey%NULL%1,    Stephanie%Cohen%NULL%0,    Jonathan D%Fuchs%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,    Elysia%Gonzales%NULL%0,    Julie L.%Self%NULL%0,    Carol Y.%Rao%NULL%0,    Ryan%Keating%NULL%0,    Grace E.%Marx%NULL%0,    Temet M.%McMichael%NULL%0,    Margaret D.%Lukoff%NULL%1,    Jeffrey S.%Duchin%NULL%1,    Karin%Huster%NULL%0,    Jody%Rauch%NULL%0,    Hedda%McLendon%NULL%1,    Matthew%Hanson%NULL%1,    Dave%Nichols%NULL%1,    Sargis%Pogosjans%NULL%1,    Meaghan%Fagalde%NULL%1,    Jennifer%Lenahan%NULL%1,    Emily%Maier%NULL%1,    Holly%Whitney%NULL%1,    Nancy%Sugg%NULL%0,    Helen%Chu%NULL%1,    Julia%Rogers%NULL%1,    Emily%Mosites%NULL%0,    Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,    Elizabeth%Samuels%NULL%1,    Rahul%Vanjani%NULL%1,    Catherine%Trimbur%NULL%1,    Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,    Josephine%Jacobs%NULL%2,    Josephine%Jacobs%NULL%0,    Maria%Yefimova%NULL%1,    Liberty%Greene%NULL%1,    Leonie%Heyworth%NULL%1,    Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,    Richard%Booth%NULL%1,    Jennifer%Rayner%NULL%1,    Kristin K.%Clemens%NULL%1,    Cheryl%Forchuk%NULL%1,    Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,     Huiting%Ma%null%1,     Kristy C.Y.%Yiu%null%1,     Andrew%Calzavara%null%1,     David%Landsman%null%1,     Linh%Luong%null%1,     Adrienne K.%Chan%null%1,     Rafal%Kustra%null%1,     Jeffrey C.%Kwong%null%1,     Marie-Claude%Boily%null%1,     Stephen%Hwang%null%1,     Sharon%Straus%null%1,     Stefan D.%Baral%null%1,     Sharmistha%Mishra%null%1,    Linwei%Wang%null%1,    Huiting%Ma%null%1,    Kristy C.Y.%Yiu%null%1,    Andrew%Calzavara%null%1,    David%Landsman%null%1,    Linh%Luong%null%1,    Adrienne K.%Chan%null%1,    Rafal%Kustra%null%1,    Jeffrey C.%Kwong%null%1,    Marie-Claude%Boily%null%1,    Stephen%Hwang%null%1,    Sharon%Straus%null%1,    Stefan D.%Baral%null%1,    Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,    Van Thuan%Hoang%NULL%2,    Ndiaw%Goumballa%NULL%2,    Meriem%Louni%NULL%2,    Naomie%Canard%NULL%2,    Thi Loi%Dao%NULL%2,    Hacene%Medkour%NULL%2,    Audrey%Borg%NULL%2,    Kevin%Bardy%NULL%2,    Véra%Esteves-Vieira%NULL%2,    Véronique%Filosa%NULL%2,    Bernard%Davoust%NULL%2,    Oleg%Mediannikov%NULL%2,    Pierre-Edouard%Fournier%NULL%2,    Didier%Raoult%NULL%2,    Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,    Bastien%Mollo%NULL%1,    Charline%Vincent%NULL%1,    Birgit%Nikolay%NULL%1,    Augusto E%Llosa%NULL%1,    Robin%Nesbitt%NULL%1,    Jessica%Vanhomwegen%NULL%1,    Thierry%Rose%NULL%1,    Sophie%Goyard%NULL%1,    François%Anna%NULL%1,    Corinne%Torre%NULL%1,    Emilie%Fourrey%NULL%1,    Erica%Simons%NULL%1,    William%Hennequin%NULL%1,    Clair%Mills%NULL%1,    Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,    Nhu Ngoc%Nguyen%NULL%1,    Van Thuan%Hoang%NULL%0,    Ndiaw%Goumballa%NULL%0,    Meriem%Louni%NULL%0,    Naomie%Canard%NULL%0,    Thi Loi%Dao%NULL%0,    Hacene%Medkour%NULL%0,    Audrey%Borg%NULL%0,    Kevin%Bardy%NULL%0,    Véra%Esteves-Vieira%NULL%0,    Véronique%Filosa%NULL%0,    Bernard%Davoust%NULL%0,    Oleg%Mediannikov%NULL%0,    Pierre-Edouard%Fournier%NULL%0,    Didier%Raoult%NULL%0,    Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,    Aldo%Morrone%NULL%1,    Andrea%Arcangeli%NULL%1,    Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,    Marc%Delforge%NULL%1,    Faustine%Lebout%NULL%1,    Thibaut%Vanbaelen%NULL%1,    Amaryl%Lecompte%NULL%1,    Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,    Pilar%Andrés%NULL%2,    Pilar%Andrés%NULL%0,    Alberto%Bullón%NULL%1,    José Luis%Villegas%NULL%2,    José Luis%Villegas%NULL%0,    Javier Ignacio%de la Iglesia-Larrad%NULL%1,    Berta%Bote%NULL%1,    Nieves%Prieto%NULL%1,    Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,     Erin M.%Parker%NULL%2,     Kristie E. N.%Clarke%NULL%1,     Jessie M.%Gaeta%NULL%1,     Travis P.%Baggett%NULL%1,     Elizabeth%Imbert%NULL%1,     Madeline%Sankaran%NULL%2,     Ashley%Scarborough%NULL%2,     Karin%Huster%NULL%2,     Matt%Hanson%NULL%1,     Elysia%Gonzales%NULL%2,     Jody%Rauch%NULL%2,     Libby%Page%NULL%1,     Temet M.%McMichael%NULL%2,     Ryan%Keating%NULL%2,     Grace E.%Marx%NULL%2,     Tom%Andrews%NULL%2,     Kristine%Schmit%NULL%2,     Sapna Bamrah%Morris%NULL%2,     Nicole F.%Dowling%NULL%2,     Georgina%Peacock%NULL%2,     NULL%NULL%NULL%5,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Ann%Buff%NULL%1,     Calla%Jamison%NULL%2,     Ruthanne%Marcus%NULL%1,     Carol Y.%Rao%NULL%2,     Julie L.%Self%NULL%2,     Farrell%Tobolowsky%NULL%1,     Samantha%Williams%NULL%1,     Meagan%Kay%NULL%2,     Naveena%Bobba%NULL%1,     Stephanie%Cohen%NULL%2,     Jonathan%Fuchs%NULL%1,     Trang%Nguyen%NULL%1,     Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,     Elizabeth S%Davis%NULL%2,     Elizabeth S%Davis%NULL%0,     Stockton%Mayer%NULL%1,     Karrie-Ann%Toews%NULL%1,     Thomas D%Huggett%NULL%1,     Nyssa%Snow-Hill%NULL%1,     Omar%Perez%NULL%1,     Mary K%Hayden%NULL%1,     Seena%Tehrani%NULL%1,     A Justine%Landi%NULL%1,     Stephanie%Crane%NULL%1,     Elizabeth%Bell%NULL%1,     Joy-Marie%Hermes%NULL%1,     Kush%Desai%NULL%1,     Michelle%Godbee%NULL%1,     Naman%Jhaveri%NULL%1,     Brian%Borah%NULL%1,     Tracy%Cable%NULL%1,     Sofia%Sami%NULL%1,     Laura%Nozicka%NULL%1,     Yi-Shin%Chang%NULL%1,     Aditi%Jagadish%NULL%1,     Mark%Chee%NULL%1,     Brynna%Thigpen%NULL%1,     Christopher%Llerena%NULL%1,     Minh%Tran%NULL%1,     Divya Meher%Surabhi%NULL%1,     Emilia D%Smith%NULL%1,     Rosemary G%Remus%NULL%1,     Roweine%Staszcuk%NULL%1,     Evelyn%Figueroa%NULL%1,     Paul%Leo%NULL%1,     Wayne M%Detmer%NULL%1,     Evan%Lyon%NULL%1,     Sarah%Carreon%NULL%1,     Stacey%Hoferka%NULL%1,     Kathleen A%Ritger%NULL%1,     Wilnise%Jasmin%NULL%1,     Prathima%Nagireddy%NULL%1,     Jennifer Y%Seo%NULL%1,     Marielle J%Fricchione%NULL%1,     Janna L%Kerins%NULL%1,     Stephanie R%Black%NULL%1,     Lisa Morrison%Butler%NULL%1,     Kimberly%Howard%NULL%1,     Maura%McCauley%NULL%1,     Todd%Fraley%NULL%1,     M Allison%Arwady%NULL%1,     Stephanie%Gretsch%NULL%1,     Megan%Cunningham%NULL%1,     Massimo%Pacilli%NULL%1,     Peter S%Ruestow%NULL%2,     Peter S%Ruestow%NULL%0,     Emily%Mosites%NULL%3,     Elizabeth%Avery%NULL%1,     Joshua%Longcoy%NULL%1,     Elizabeth B%Lynch%NULL%1,     Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,     Melisa Mei Jin%Tan%NULL%1,     Eva%Turk%NULL%1,     Devi%Sridhar%NULL%1,     Gabriel M%Leung%NULL%1,     Kenji%Shibuya%NULL%1,     Nima%Asgari%NULL%1,     Juhwan%Oh%NULL%1,     Alberto L%García-Basteiro%NULL%1,     Johanna%Hanefeld%NULL%1,     Alex R%Cook%NULL%1,     Li Yang%Hsu%NULL%1,     Yik Ying%Teo%NULL%1,     David%Heymann%NULL%1,     Helen%Clark%NULL%1,     Martin%McKee%NULL%1,     Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,     Erin M.%Ashe%NULL%1,     Michael%Silverstein%NULL%1,     Melissa%Hofman%NULL%1,     Samantha J.%Lange%NULL%1,     Hilda%Razzaghi%NULL%1,     Rebecca G.%Mishuris%NULL%1,     Ravin%Davidoff%NULL%1,     Erin M.%Parker%NULL%0,     Ana%Penman-Aguilar%NULL%1,     Kristie E.N.%Clarke%NULL%1,     Anna%Goldman%NULL%1,     Thea L.%James%NULL%1,     Karen%Jacobson%NULL%1,     Karen E.%Lasser%NULL%1,     Ziming%Xuan%NULL%1,     Georgina%Peacock%NULL%0,     Nicole F.%Dowling%NULL%0,     Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,     Alexander%Winnett%NULL%2,     Alexander%Winnett%NULL%0,     Christopher J.%Graber%NULL%2,     Christopher J.%Graber%NULL%0,     John%Vallone%NULL%1,     David O.%Beenhouwer%NULL%1,     Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,     Holly%Murphy%NULL%1,     Ravi%Vadlamudi%NULL%2,     Ravi%Vadlamudi%NULL%0,     Ruth%Kraut%NULL%1,     Kate%Dalessio%NULL%1,     Anurag N.%Malani%NULL%1,     Meghan%Glabach%NULL%1,     Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,     Amy C.%Link%NULL%2,     Amy C.%Link%NULL%0,     Denise%McCulloch%NULL%1,     Elisabeth%Brandstetter%NULL%1,     Kira L.%Newman%NULL%2,     Kira L.%Newman%NULL%0,     Michael L.%Jackson%NULL%2,     Michael L.%Jackson%NULL%0,     James P.%Hughes%NULL%2,     James P.%Hughes%NULL%0,     Janet A.%Englund%NULL%2,     Janet A.%Englund%NULL%0,     Michael%Boeckh%NULL%2,     Michael%Boeckh%NULL%0,     Nancy%Sugg%NULL%2,     Misja%Ilcisin%NULL%1,     Thomas R.%Sibley%NULL%2,     Thomas R.%Sibley%NULL%0,     Kairsten%Fay%NULL%2,     Kairsten%Fay%NULL%0,     Jover%Lee%NULL%2,     Jover%Lee%NULL%0,     Peter%Han%NULL%2,     Peter%Han%NULL%0,     Melissa%Truong%NULL%1,     Matthew%Richardson%NULL%2,     Matthew%Richardson%NULL%0,     Deborah A.%Nickerson%NULL%2,     Deborah A.%Nickerson%NULL%0,     Lea M.%Starita%NULL%1,     Trevor%Bedford%NULL%2,     Trevor%Bedford%NULL%0,     Helen Y.%Chu%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,     Elizabeth J.%D'Amico%NULL%1,     Eric R.%Pedersen%NULL%1,     Rick%Garvey%NULL%1,     Anthony%Rodriguez%NULL%1,     David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,     Christian%Ramers%NULL%1,     Adam%Northrup%NULL%1,     Aaron%Tam%aaront@fhscd.org%1,     Jie%Liu%NULL%1,     Sarah%Rojas%NULL%1,     Stacey%Klaman%NULL%1,     Maureen%Khasira%NULL%1,     Jenan%Madbak%NULL%1,     Eva%Matthews%NULL%1,     Jeffrey%Norris%NULL%1,     Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,     Martha P%Montgomery%NULL%2,     Martha P%Montgomery%NULL%0,     Ann M%Buff%NULL%1,     Andrew T%Boyd%NULL%1,     Calla%Jamison%NULL%0,     Alfonso%Hernandez%NULL%1,     Kristine%Schmit%NULL%0,     Sarita%Shah%NULL%1,     Sophia%Ajoku%NULL%1,     David P%Holland%NULL%1,     Juliana%Prieto%NULL%1,     Sasha%Smith%NULL%1,     Mark A%Swancutt%NULL%1,     Kim%Turner%NULL%1,     Tom%Andrews%NULL%0,     Kevin%Flowers%NULL%1,     Alyssa%Wells%NULL%1,     Cathryn%Marchman%NULL%1,     Emaline%Laney%NULL%1,     Danae%Bixler%NULL%1,     Sean%Cavanaugh%NULL%1,     Nicole%Flowers%NULL%1,     Nicholas%Gaffga%NULL%1,     Jean Y%Ko%NULL%1,     Heather N%Paulin%NULL%1,     Mark K%Weng%NULL%1,     Emily%Mosites%NULL%0,     Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,     Patrick M%Kinley%NULL%1,     Ashley%Scarborough%NULL%0,     Caroline%Cawley%NULL%1,     Madeline%Sankaran%NULL%0,     Sarah N%Cox%NULL%1,     Margot%Kushel%NULL%1,     Juliet%Stoltey%NULL%1,     Stephanie%Cohen%NULL%0,     Jonathan D%Fuchs%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,     Elysia%Gonzales%NULL%0,     Julie L.%Self%NULL%0,     Carol Y.%Rao%NULL%0,     Ryan%Keating%NULL%0,     Grace E.%Marx%NULL%0,     Temet M.%McMichael%NULL%0,     Margaret D.%Lukoff%NULL%1,     Jeffrey S.%Duchin%NULL%1,     Karin%Huster%NULL%0,     Jody%Rauch%NULL%0,     Hedda%McLendon%NULL%1,     Matthew%Hanson%NULL%1,     Dave%Nichols%NULL%1,     Sargis%Pogosjans%NULL%1,     Meaghan%Fagalde%NULL%1,     Jennifer%Lenahan%NULL%1,     Emily%Maier%NULL%1,     Holly%Whitney%NULL%1,     Nancy%Sugg%NULL%0,     Helen%Chu%NULL%1,     Julia%Rogers%NULL%1,     Emily%Mosites%NULL%0,     Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,     Elizabeth%Samuels%NULL%1,     Rahul%Vanjani%NULL%1,     Catherine%Trimbur%NULL%1,     Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,     Josephine%Jacobs%NULL%2,     Josephine%Jacobs%NULL%0,     Maria%Yefimova%NULL%1,     Liberty%Greene%NULL%1,     Leonie%Heyworth%NULL%1,     Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,     Richard%Booth%NULL%1,     Jennifer%Rayner%NULL%1,     Kristin K.%Clemens%NULL%1,     Cheryl%Forchuk%NULL%1,     Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,      Huiting%Ma%null%1,      Kristy C.Y.%Yiu%null%1,      Andrew%Calzavara%null%1,      David%Landsman%null%1,      Linh%Luong%null%1,      Adrienne K.%Chan%null%1,      Rafal%Kustra%null%1,      Jeffrey C.%Kwong%null%1,      Marie-Claude%Boily%null%1,      Stephen%Hwang%null%1,      Sharon%Straus%null%1,      Stefan D.%Baral%null%1,      Sharmistha%Mishra%null%1,     Linwei%Wang%null%1,     Huiting%Ma%null%1,     Kristy C.Y.%Yiu%null%1,     Andrew%Calzavara%null%1,     David%Landsman%null%1,     Linh%Luong%null%1,     Adrienne K.%Chan%null%1,     Rafal%Kustra%null%1,     Jeffrey C.%Kwong%null%1,     Marie-Claude%Boily%null%1,     Stephen%Hwang%null%1,     Sharon%Straus%null%1,     Stefan D.%Baral%null%1,     Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,     Van Thuan%Hoang%NULL%2,     Ndiaw%Goumballa%NULL%2,     Meriem%Louni%NULL%2,     Naomie%Canard%NULL%2,     Thi Loi%Dao%NULL%2,     Hacene%Medkour%NULL%2,     Audrey%Borg%NULL%2,     Kevin%Bardy%NULL%2,     Véra%Esteves-Vieira%NULL%2,     Véronique%Filosa%NULL%2,     Bernard%Davoust%NULL%2,     Oleg%Mediannikov%NULL%2,     Pierre-Edouard%Fournier%NULL%2,     Didier%Raoult%NULL%2,     Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,     Bastien%Mollo%NULL%1,     Charline%Vincent%NULL%1,     Birgit%Nikolay%NULL%1,     Augusto E%Llosa%NULL%1,     Robin%Nesbitt%NULL%1,     Jessica%Vanhomwegen%NULL%1,     Thierry%Rose%NULL%1,     Sophie%Goyard%NULL%1,     François%Anna%NULL%1,     Corinne%Torre%NULL%1,     Emilie%Fourrey%NULL%1,     Erica%Simons%NULL%1,     William%Hennequin%NULL%1,     Clair%Mills%NULL%1,     Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,     Nhu Ngoc%Nguyen%NULL%1,     Van Thuan%Hoang%NULL%0,     Ndiaw%Goumballa%NULL%0,     Meriem%Louni%NULL%0,     Naomie%Canard%NULL%0,     Thi Loi%Dao%NULL%0,     Hacene%Medkour%NULL%0,     Audrey%Borg%NULL%0,     Kevin%Bardy%NULL%0,     Véra%Esteves-Vieira%NULL%0,     Véronique%Filosa%NULL%0,     Bernard%Davoust%NULL%0,     Oleg%Mediannikov%NULL%0,     Pierre-Edouard%Fournier%NULL%0,     Didier%Raoult%NULL%0,     Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,     Aldo%Morrone%NULL%1,     Andrea%Arcangeli%NULL%1,     Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,     Marc%Delforge%NULL%1,     Faustine%Lebout%NULL%1,     Thibaut%Vanbaelen%NULL%1,     Amaryl%Lecompte%NULL%1,     Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,     Pilar%Andrés%NULL%2,     Pilar%Andrés%NULL%0,     Alberto%Bullón%NULL%1,     José Luis%Villegas%NULL%2,     José Luis%Villegas%NULL%0,     Javier Ignacio%de la Iglesia-Larrad%NULL%1,     Berta%Bote%NULL%1,     Nieves%Prieto%NULL%1,     Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1308,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1168,7 +1366,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1226,7 +1424,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1255,7 +1453,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1284,7 +1482,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1313,7 +1511,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1342,7 +1540,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -1400,7 +1598,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1429,7 +1627,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1458,7 +1656,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1487,7 +1685,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1516,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -1574,7 +1772,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -1632,7 +1830,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1661,7 +1859,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -1690,7 +1888,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -1719,7 +1917,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -1748,7 +1946,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -1777,7 +1975,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -1806,7 +2004,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -1835,7 +2033,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -1864,7 +2062,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="299">
   <si>
     <t>Doi</t>
   </si>
@@ -892,6 +892,210 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,     Pilar%Andrés%NULL%2,     Pilar%Andrés%NULL%0,     Alberto%Bullón%NULL%1,     José Luis%Villegas%NULL%2,     José Luis%Villegas%NULL%0,     Javier Ignacio%de la Iglesia-Larrad%NULL%1,     Berta%Bote%NULL%1,     Nieves%Prieto%NULL%1,     Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,      Erin M.%Parker%NULL%2,      Kristie E. N.%Clarke%NULL%1,      Jessie M.%Gaeta%NULL%1,      Travis P.%Baggett%NULL%1,      Elizabeth%Imbert%NULL%1,      Madeline%Sankaran%NULL%2,      Ashley%Scarborough%NULL%2,      Karin%Huster%NULL%2,      Matt%Hanson%NULL%1,      Elysia%Gonzales%NULL%2,      Jody%Rauch%NULL%2,      Libby%Page%NULL%1,      Temet M.%McMichael%NULL%2,      Ryan%Keating%NULL%2,      Grace E.%Marx%NULL%2,      Tom%Andrews%NULL%2,      Kristine%Schmit%NULL%2,      Sapna Bamrah%Morris%NULL%2,      Nicole F.%Dowling%NULL%2,      Georgina%Peacock%NULL%2,      NULL%NULL%NULL%5,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Ann%Buff%NULL%1,      Calla%Jamison%NULL%2,      Ruthanne%Marcus%NULL%1,      Carol Y.%Rao%NULL%2,      Julie L.%Self%NULL%2,      Farrell%Tobolowsky%NULL%1,      Samantha%Williams%NULL%1,      Meagan%Kay%NULL%2,      Naveena%Bobba%NULL%1,      Stephanie%Cohen%NULL%2,      Jonathan%Fuchs%NULL%1,      Trang%Nguyen%NULL%1,      Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Prevalence of SARS-CoV-2 Infection in Residents of a Large Homeless Shelter in Boston"</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2, Harrison%Keyes%xref no email%1, Nora%Sporn%xref no email%1, Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,      Elizabeth S%Davis%NULL%2,      Elizabeth S%Davis%NULL%0,      Stockton%Mayer%NULL%1,      Karrie-Ann%Toews%NULL%1,      Thomas D%Huggett%NULL%1,      Nyssa%Snow-Hill%NULL%1,      Omar%Perez%NULL%1,      Mary K%Hayden%NULL%1,      Seena%Tehrani%NULL%1,      A Justine%Landi%NULL%1,      Stephanie%Crane%NULL%1,      Elizabeth%Bell%NULL%1,      Joy-Marie%Hermes%NULL%1,      Kush%Desai%NULL%1,      Michelle%Godbee%NULL%1,      Naman%Jhaveri%NULL%1,      Brian%Borah%NULL%1,      Tracy%Cable%NULL%1,      Sofia%Sami%NULL%1,      Laura%Nozicka%NULL%1,      Yi-Shin%Chang%NULL%1,      Aditi%Jagadish%NULL%1,      Mark%Chee%NULL%1,      Brynna%Thigpen%NULL%1,      Christopher%Llerena%NULL%1,      Minh%Tran%NULL%1,      Divya Meher%Surabhi%NULL%1,      Emilia D%Smith%NULL%1,      Rosemary G%Remus%NULL%1,      Roweine%Staszcuk%NULL%1,      Evelyn%Figueroa%NULL%1,      Paul%Leo%NULL%1,      Wayne M%Detmer%NULL%1,      Evan%Lyon%NULL%1,      Sarah%Carreon%NULL%1,      Stacey%Hoferka%NULL%1,      Kathleen A%Ritger%NULL%1,      Wilnise%Jasmin%NULL%1,      Prathima%Nagireddy%NULL%1,      Jennifer Y%Seo%NULL%1,      Marielle J%Fricchione%NULL%1,      Janna L%Kerins%NULL%1,      Stephanie R%Black%NULL%1,      Lisa Morrison%Butler%NULL%1,      Kimberly%Howard%NULL%1,      Maura%McCauley%NULL%1,      Todd%Fraley%NULL%1,      M Allison%Arwady%NULL%1,      Stephanie%Gretsch%NULL%1,      Megan%Cunningham%NULL%1,      Massimo%Pacilli%NULL%1,      Peter S%Ruestow%NULL%2,      Peter S%Ruestow%NULL%0,      Emily%Mosites%NULL%3,      Elizabeth%Avery%NULL%1,      Joshua%Longcoy%NULL%1,      Elizabeth B%Lynch%NULL%1,      Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Viral suppression during COVID-19 among people with HIV experiencing homelessness in a low-barrier clinic-based program"</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%2, Elizabeth%Imbert%xref no email%0, David V.%Glidden%xref no email%2, Jan Bing%Del Rosario%xref no email%1, Mary%Chong%xref no email%1, Angelo%Clemenzi-Allen%xref no email%1, Jon%Oskarsson%xref no email%1, Elise D.%Riley%xref no email%1, Monica%Gandhi%xref no email%2, Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,      Melisa Mei Jin%Tan%NULL%1,      Eva%Turk%NULL%1,      Devi%Sridhar%NULL%1,      Gabriel M%Leung%NULL%1,      Kenji%Shibuya%NULL%1,      Nima%Asgari%NULL%1,      Juhwan%Oh%NULL%1,      Alberto L%García-Basteiro%NULL%1,      Johanna%Hanefeld%NULL%1,      Alex R%Cook%NULL%1,      Li Yang%Hsu%NULL%1,      Yik Ying%Teo%NULL%1,      David%Heymann%NULL%1,      Helen%Clark%NULL%1,      Martin%McKee%NULL%1,      Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,      Erin M.%Ashe%NULL%1,      Michael%Silverstein%NULL%1,      Melissa%Hofman%NULL%1,      Samantha J.%Lange%NULL%1,      Hilda%Razzaghi%NULL%1,      Rebecca G.%Mishuris%NULL%1,      Ravin%Davidoff%NULL%1,      Erin M.%Parker%NULL%0,      Ana%Penman-Aguilar%NULL%1,      Kristie E.N.%Clarke%NULL%1,      Anna%Goldman%NULL%1,      Thea L.%James%NULL%1,      Karen%Jacobson%NULL%1,      Karen E.%Lasser%NULL%1,      Ziming%Xuan%NULL%1,      Georgina%Peacock%NULL%0,      Nicole F.%Dowling%NULL%0,      Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,      Alexander%Winnett%NULL%2,      Alexander%Winnett%NULL%0,      Christopher J.%Graber%NULL%2,      Christopher J.%Graber%NULL%0,      John%Vallone%NULL%1,      David O.%Beenhouwer%NULL%1,      Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,      Holly%Murphy%NULL%1,      Ravi%Vadlamudi%NULL%2,      Ravi%Vadlamudi%NULL%0,      Ruth%Kraut%NULL%1,      Kate%Dalessio%NULL%1,      Anurag N.%Malani%NULL%1,      Meghan%Glabach%NULL%1,      Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,      Amy C.%Link%NULL%2,      Amy C.%Link%NULL%0,      Denise%McCulloch%NULL%1,      Elisabeth%Brandstetter%NULL%1,      Kira L.%Newman%NULL%2,      Kira L.%Newman%NULL%0,      Michael L.%Jackson%NULL%2,      Michael L.%Jackson%NULL%0,      James P.%Hughes%NULL%2,      James P.%Hughes%NULL%0,      Janet A.%Englund%NULL%2,      Janet A.%Englund%NULL%0,      Michael%Boeckh%NULL%2,      Michael%Boeckh%NULL%0,      Nancy%Sugg%NULL%2,      Misja%Ilcisin%NULL%1,      Thomas R.%Sibley%NULL%2,      Thomas R.%Sibley%NULL%0,      Kairsten%Fay%NULL%2,      Kairsten%Fay%NULL%0,      Jover%Lee%NULL%2,      Jover%Lee%NULL%0,      Peter%Han%NULL%2,      Peter%Han%NULL%0,      Melissa%Truong%NULL%1,      Matthew%Richardson%NULL%2,      Matthew%Richardson%NULL%0,      Deborah A.%Nickerson%NULL%2,      Deborah A.%Nickerson%NULL%0,      Lea M.%Starita%NULL%1,      Trevor%Bedford%NULL%2,      Trevor%Bedford%NULL%0,      Helen Y.%Chu%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Viral suppression rates in a safety-net HIV clinic in San Francisco destabilized during COVID-19"</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1, Matthew D.%Hickey%xref no email%0, David V.%Glidden%xref no email%0, Janet Q.%Nguyen%xref no email%1, Jon J.%Oskarsson%xref no email%1, Diane%Havlir%xref no email%1, Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,      Elizabeth J.%D'Amico%NULL%1,      Eric R.%Pedersen%NULL%1,      Rick%Garvey%NULL%1,      Anthony%Rodriguez%NULL%1,      David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,      Christian%Ramers%NULL%1,      Adam%Northrup%NULL%1,      Aaron%Tam%aaront@fhscd.org%1,      Jie%Liu%NULL%1,      Sarah%Rojas%NULL%1,      Stacey%Klaman%NULL%1,      Maureen%Khasira%NULL%1,      Jenan%Madbak%NULL%1,      Eva%Matthews%NULL%1,      Jeffrey%Norris%NULL%1,      Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,      Martha P%Montgomery%NULL%2,      Martha P%Montgomery%NULL%0,      Ann M%Buff%NULL%1,      Andrew T%Boyd%NULL%1,      Calla%Jamison%NULL%0,      Alfonso%Hernandez%NULL%1,      Kristine%Schmit%NULL%0,      Sarita%Shah%NULL%1,      Sophia%Ajoku%NULL%1,      David P%Holland%NULL%1,      Juliana%Prieto%NULL%1,      Sasha%Smith%NULL%1,      Mark A%Swancutt%NULL%1,      Kim%Turner%NULL%1,      Tom%Andrews%NULL%0,      Kevin%Flowers%NULL%1,      Alyssa%Wells%NULL%1,      Cathryn%Marchman%NULL%1,      Emaline%Laney%NULL%1,      Danae%Bixler%NULL%1,      Sean%Cavanaugh%NULL%1,      Nicole%Flowers%NULL%1,      Nicholas%Gaffga%NULL%1,      Jean Y%Ko%NULL%1,      Heather N%Paulin%NULL%1,      Mark K%Weng%NULL%1,      Emily%Mosites%NULL%0,      Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%2,      Patrick M%Kinley%NULL%1,      Ashley%Scarborough%NULL%0,      Caroline%Cawley%NULL%1,      Madeline%Sankaran%NULL%0,      Sarah N%Cox%NULL%1,      Margot%Kushel%NULL%1,      Juliet%Stoltey%NULL%1,      Stephanie%Cohen%NULL%0,      Jonathan D%Fuchs%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,      Elysia%Gonzales%NULL%0,      Julie L.%Self%NULL%0,      Carol Y.%Rao%NULL%0,      Ryan%Keating%NULL%0,      Grace E.%Marx%NULL%0,      Temet M.%McMichael%NULL%0,      Margaret D.%Lukoff%NULL%1,      Jeffrey S.%Duchin%NULL%1,      Karin%Huster%NULL%0,      Jody%Rauch%NULL%0,      Hedda%McLendon%NULL%1,      Matthew%Hanson%NULL%1,      Dave%Nichols%NULL%1,      Sargis%Pogosjans%NULL%1,      Meaghan%Fagalde%NULL%1,      Jennifer%Lenahan%NULL%1,      Emily%Maier%NULL%1,      Holly%Whitney%NULL%1,      Nancy%Sugg%NULL%0,      Helen%Chu%NULL%1,      Julia%Rogers%NULL%1,      Emily%Mosites%NULL%0,      Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Surveying Tenants of Permanent Supportive Housing in Skid Row about COVID-19"</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1, Brian%Redline%xref no email%1, Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,      Elizabeth%Samuels%NULL%1,      Rahul%Vanjani%NULL%1,      Catherine%Trimbur%NULL%1,      Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Addressing COVID-19 Among People Experiencing Homelessness: Description, Adaptation, and Early Findings of a Multiagency Response in Boston"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" People experiencing homelessness are at high risk for coronavirus disease 2019 (COVID-19).
+ In March 2020, Boston Health Care for the Homeless Program, in partnership with city and state public health agencies, municipal leaders, and homeless service providers, developed and implemented a citywide COVID-19 care model for this vulnerable population.
+ Components included symptom screening at shelter front doors, expedited testing at pop-up sites, isolation and management venues for symptomatic people under investigation and for people with confirmed disease, quarantine venues for asymptomatic exposed people, and contact investigation and tracing.
+ Real-time disease surveillance efforts in a large shelter outbreak of COVID-19 during the third week of operations illustrated the need for several adaptations to the care model to better respond to the local epidemiology of illness among people experiencing homelessness.
+ Symptom screening was de-emphasized given the high number of asymptomatic or minimally symptomatic infections discovered during mass testing; contact tracing and quarantining were phased out under the assumption of universal exposure among the sheltered population; and isolation and management venues were rapidly expanded to accommodate a surge in people with newly diagnosed COVID-19. During the first 6 weeks of operation, 429 of 1297 (33.1%) tested people were positive for COVID-19; of these, 395 people were experiencing homelessness at the time of testing, representing about 10% of the homeless adult population in Boston.
+ Universal testing, as resources permit, is a focal point of ongoing efforts to mitigate the effect of COVID-19 on this vulnerable group of people.
+ </t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0, Melanie W.%Racine%xref no email%1, Elizabeth%Lewis%xref no email%1, Denise%De Las Nueces%xref no email%1, James J.%O\u2019Connell%xref no email%1, Barry%Bock%xref no email%1, Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-03-26</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,      Josephine%Jacobs%NULL%2,      Josephine%Jacobs%NULL%0,      Maria%Yefimova%NULL%1,      Liberty%Greene%NULL%1,      Leonie%Heyworth%NULL%1,      Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,      Richard%Booth%NULL%1,      Jennifer%Rayner%NULL%1,      Kristin K.%Clemens%NULL%1,      Cheryl%Forchuk%NULL%1,      Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,       Huiting%Ma%null%1,       Kristy C.Y.%Yiu%null%1,       Andrew%Calzavara%null%1,       David%Landsman%null%1,       Linh%Luong%null%1,       Adrienne K.%Chan%null%1,       Rafal%Kustra%null%1,       Jeffrey C.%Kwong%null%1,       Marie-Claude%Boily%null%1,       Stephen%Hwang%null%1,       Sharon%Straus%null%1,       Stefan D.%Baral%null%1,       Sharmistha%Mishra%null%1,      Linwei%Wang%null%1,      Huiting%Ma%null%1,      Kristy C.Y.%Yiu%null%1,      Andrew%Calzavara%null%1,      David%Landsman%null%1,      Linh%Luong%null%1,      Adrienne K.%Chan%null%1,      Rafal%Kustra%null%1,      Jeffrey C.%Kwong%null%1,      Marie-Claude%Boily%null%1,      Stephen%Hwang%null%1,      Sharon%Straus%null%1,      Stefan D.%Baral%null%1,      Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,      Van Thuan%Hoang%NULL%2,      Ndiaw%Goumballa%NULL%2,      Meriem%Louni%NULL%2,      Naomie%Canard%NULL%2,      Thi Loi%Dao%NULL%2,      Hacene%Medkour%NULL%2,      Audrey%Borg%NULL%2,      Kevin%Bardy%NULL%2,      Véra%Esteves-Vieira%NULL%2,      Véronique%Filosa%NULL%2,      Bernard%Davoust%NULL%2,      Oleg%Mediannikov%NULL%2,      Pierre-Edouard%Fournier%NULL%2,      Didier%Raoult%NULL%2,      Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,      Bastien%Mollo%NULL%1,      Charline%Vincent%NULL%1,      Birgit%Nikolay%NULL%1,      Augusto E%Llosa%NULL%1,      Robin%Nesbitt%NULL%1,      Jessica%Vanhomwegen%NULL%1,      Thierry%Rose%NULL%1,      Sophie%Goyard%NULL%1,      François%Anna%NULL%1,      Corinne%Torre%NULL%1,      Emilie%Fourrey%NULL%1,      Erica%Simons%NULL%1,      William%Hennequin%NULL%1,      Clair%Mills%NULL%1,      Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,      Nhu Ngoc%Nguyen%NULL%1,      Van Thuan%Hoang%NULL%0,      Ndiaw%Goumballa%NULL%0,      Meriem%Louni%NULL%0,      Naomie%Canard%NULL%0,      Thi Loi%Dao%NULL%0,      Hacene%Medkour%NULL%0,      Audrey%Borg%NULL%0,      Kevin%Bardy%NULL%0,      Véra%Esteves-Vieira%NULL%0,      Véronique%Filosa%NULL%0,      Bernard%Davoust%NULL%0,      Oleg%Mediannikov%NULL%0,      Pierre-Edouard%Fournier%NULL%0,      Didier%Raoult%NULL%0,      Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,      Aldo%Morrone%NULL%1,      Andrea%Arcangeli%NULL%1,      Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,      Marc%Delforge%NULL%1,      Faustine%Lebout%NULL%1,      Thibaut%Vanbaelen%NULL%1,      Amaryl%Lecompte%NULL%1,      Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,      Pilar%Andrés%NULL%2,      Pilar%Andrés%NULL%0,      Alberto%Bullón%NULL%1,      José Luis%Villegas%NULL%2,      José Luis%Villegas%NULL%0,      Javier Ignacio%de la Iglesia-Larrad%NULL%1,      Berta%Bote%NULL%1,      Nieves%Prieto%NULL%1,      Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,       Erin M.%Parker%NULL%2,       Kristie E. N.%Clarke%NULL%1,       Jessie M.%Gaeta%NULL%1,       Travis P.%Baggett%NULL%1,       Elizabeth%Imbert%NULL%1,       Madeline%Sankaran%NULL%2,       Ashley%Scarborough%NULL%2,       Karin%Huster%NULL%2,       Matt%Hanson%NULL%1,       Elysia%Gonzales%NULL%2,       Jody%Rauch%NULL%2,       Libby%Page%NULL%1,       Temet M.%McMichael%NULL%2,       Ryan%Keating%NULL%2,       Grace E.%Marx%NULL%2,       Tom%Andrews%NULL%2,       Kristine%Schmit%NULL%2,       Sapna Bamrah%Morris%NULL%2,       Nicole F.%Dowling%NULL%2,       Georgina%Peacock%NULL%2,       NULL%NULL%NULL%5,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Ann%Buff%NULL%1,       Calla%Jamison%NULL%2,       Ruthanne%Marcus%NULL%1,       Carol Y.%Rao%NULL%2,       Julie L.%Self%NULL%2,       Farrell%Tobolowsky%NULL%1,       Samantha%Williams%NULL%1,       Meagan%Kay%NULL%2,       Naveena%Bobba%NULL%1,       Stephanie%Cohen%NULL%2,       Jonathan%Fuchs%NULL%1,       Trang%Nguyen%NULL%1,       Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,  Harrison%Keyes%xref no email%1,  Nora%Sporn%xref no email%1,  Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,       Elizabeth S%Davis%NULL%2,       Elizabeth S%Davis%NULL%0,       Stockton%Mayer%NULL%1,       Karrie-Ann%Toews%NULL%1,       Thomas D%Huggett%NULL%1,       Nyssa%Snow-Hill%NULL%1,       Omar%Perez%NULL%1,       Mary K%Hayden%NULL%1,       Seena%Tehrani%NULL%1,       A Justine%Landi%NULL%1,       Stephanie%Crane%NULL%1,       Elizabeth%Bell%NULL%1,       Joy-Marie%Hermes%NULL%1,       Kush%Desai%NULL%1,       Michelle%Godbee%NULL%1,       Naman%Jhaveri%NULL%1,       Brian%Borah%NULL%1,       Tracy%Cable%NULL%1,       Sofia%Sami%NULL%1,       Laura%Nozicka%NULL%1,       Yi-Shin%Chang%NULL%1,       Aditi%Jagadish%NULL%1,       Mark%Chee%NULL%1,       Brynna%Thigpen%NULL%1,       Christopher%Llerena%NULL%1,       Minh%Tran%NULL%1,       Divya Meher%Surabhi%NULL%1,       Emilia D%Smith%NULL%1,       Rosemary G%Remus%NULL%1,       Roweine%Staszcuk%NULL%1,       Evelyn%Figueroa%NULL%1,       Paul%Leo%NULL%1,       Wayne M%Detmer%NULL%1,       Evan%Lyon%NULL%1,       Sarah%Carreon%NULL%1,       Stacey%Hoferka%NULL%1,       Kathleen A%Ritger%NULL%1,       Wilnise%Jasmin%NULL%1,       Prathima%Nagireddy%NULL%1,       Jennifer Y%Seo%NULL%1,       Marielle J%Fricchione%NULL%1,       Janna L%Kerins%NULL%1,       Stephanie R%Black%NULL%1,       Lisa Morrison%Butler%NULL%1,       Kimberly%Howard%NULL%1,       Maura%McCauley%NULL%1,       Todd%Fraley%NULL%1,       M Allison%Arwady%NULL%1,       Stephanie%Gretsch%NULL%1,       Megan%Cunningham%NULL%1,       Massimo%Pacilli%NULL%1,       Peter S%Ruestow%NULL%2,       Peter S%Ruestow%NULL%0,       Emily%Mosites%NULL%3,       Elizabeth%Avery%NULL%1,       Joshua%Longcoy%NULL%1,       Elizabeth B%Lynch%NULL%1,       Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,  Elizabeth%Imbert%xref no email%1,  David V.%Glidden%xref no email%2,  Jan Bing%Del Rosario%xref no email%1,  Mary%Chong%xref no email%1,  Angelo%Clemenzi-Allen%xref no email%1,  Jon%Oskarsson%xref no email%1,  Elise D.%Riley%xref no email%1,  Monica%Gandhi%xref no email%2,  Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,       Melisa Mei Jin%Tan%NULL%1,       Eva%Turk%NULL%1,       Devi%Sridhar%NULL%1,       Gabriel M%Leung%NULL%1,       Kenji%Shibuya%NULL%1,       Nima%Asgari%NULL%1,       Juhwan%Oh%NULL%1,       Alberto L%García-Basteiro%NULL%1,       Johanna%Hanefeld%NULL%1,       Alex R%Cook%NULL%1,       Li Yang%Hsu%NULL%1,       Yik Ying%Teo%NULL%1,       David%Heymann%NULL%1,       Helen%Clark%NULL%1,       Martin%McKee%NULL%1,       Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,       Erin M.%Ashe%NULL%1,       Michael%Silverstein%NULL%1,       Melissa%Hofman%NULL%1,       Samantha J.%Lange%NULL%1,       Hilda%Razzaghi%NULL%1,       Rebecca G.%Mishuris%NULL%1,       Ravin%Davidoff%NULL%1,       Erin M.%Parker%NULL%0,       Ana%Penman-Aguilar%NULL%1,       Kristie E.N.%Clarke%NULL%1,       Anna%Goldman%NULL%1,       Thea L.%James%NULL%1,       Karen%Jacobson%NULL%1,       Karen E.%Lasser%NULL%1,       Ziming%Xuan%NULL%1,       Georgina%Peacock%NULL%0,       Nicole F.%Dowling%NULL%0,       Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,       Alexander%Winnett%NULL%2,       Alexander%Winnett%NULL%0,       Christopher J.%Graber%NULL%2,       Christopher J.%Graber%NULL%0,       John%Vallone%NULL%1,       David O.%Beenhouwer%NULL%1,       Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,       Holly%Murphy%NULL%1,       Ravi%Vadlamudi%NULL%2,       Ravi%Vadlamudi%NULL%0,       Ruth%Kraut%NULL%1,       Kate%Dalessio%NULL%1,       Anurag N.%Malani%NULL%1,       Meghan%Glabach%NULL%1,       Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,       Amy C.%Link%NULL%2,       Amy C.%Link%NULL%0,       Denise%McCulloch%NULL%1,       Elisabeth%Brandstetter%NULL%1,       Kira L.%Newman%NULL%2,       Kira L.%Newman%NULL%0,       Michael L.%Jackson%NULL%2,       Michael L.%Jackson%NULL%0,       James P.%Hughes%NULL%2,       James P.%Hughes%NULL%0,       Janet A.%Englund%NULL%2,       Janet A.%Englund%NULL%0,       Michael%Boeckh%NULL%2,       Michael%Boeckh%NULL%0,       Nancy%Sugg%NULL%2,       Misja%Ilcisin%NULL%1,       Thomas R.%Sibley%NULL%2,       Thomas R.%Sibley%NULL%0,       Kairsten%Fay%NULL%2,       Kairsten%Fay%NULL%0,       Jover%Lee%NULL%2,       Jover%Lee%NULL%0,       Peter%Han%NULL%2,       Peter%Han%NULL%0,       Melissa%Truong%NULL%1,       Matthew%Richardson%NULL%2,       Matthew%Richardson%NULL%0,       Deborah A.%Nickerson%NULL%2,       Deborah A.%Nickerson%NULL%0,       Lea M.%Starita%NULL%1,       Trevor%Bedford%NULL%2,       Trevor%Bedford%NULL%0,       Helen Y.%Chu%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,  Matthew D.%Hickey%xref no email%1,  David V.%Glidden%xref no email%0,  Janet Q.%Nguyen%xref no email%1,  Jon J.%Oskarsson%xref no email%1,  Diane%Havlir%xref no email%1,  Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,       Elizabeth J.%D'Amico%NULL%1,       Eric R.%Pedersen%NULL%1,       Rick%Garvey%NULL%1,       Anthony%Rodriguez%NULL%1,       David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,       Christian%Ramers%NULL%1,       Adam%Northrup%NULL%1,       Aaron%Tam%aaront@fhscd.org%1,       Jie%Liu%NULL%1,       Sarah%Rojas%NULL%1,       Stacey%Klaman%NULL%1,       Maureen%Khasira%NULL%1,       Jenan%Madbak%NULL%1,       Eva%Matthews%NULL%1,       Jeffrey%Norris%NULL%1,       Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,       Martha P%Montgomery%NULL%2,       Martha P%Montgomery%NULL%0,       Ann M%Buff%NULL%1,       Andrew T%Boyd%NULL%1,       Calla%Jamison%NULL%0,       Alfonso%Hernandez%NULL%1,       Kristine%Schmit%NULL%0,       Sarita%Shah%NULL%1,       Sophia%Ajoku%NULL%1,       David P%Holland%NULL%1,       Juliana%Prieto%NULL%1,       Sasha%Smith%NULL%1,       Mark A%Swancutt%NULL%1,       Kim%Turner%NULL%1,       Tom%Andrews%NULL%0,       Kevin%Flowers%NULL%1,       Alyssa%Wells%NULL%1,       Cathryn%Marchman%NULL%1,       Emaline%Laney%NULL%1,       Danae%Bixler%NULL%1,       Sean%Cavanaugh%NULL%1,       Nicole%Flowers%NULL%1,       Nicholas%Gaffga%NULL%1,       Jean Y%Ko%NULL%1,       Heather N%Paulin%NULL%1,       Mark K%Weng%NULL%1,       Emily%Mosites%NULL%0,       Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,       Patrick M%Kinley%NULL%1,       Ashley%Scarborough%NULL%0,       Caroline%Cawley%NULL%1,       Madeline%Sankaran%NULL%0,       Sarah N%Cox%NULL%1,       Margot%Kushel%NULL%1,       Juliet%Stoltey%NULL%1,       Stephanie%Cohen%NULL%0,       Jonathan D%Fuchs%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,       Elysia%Gonzales%NULL%0,       Julie L.%Self%NULL%0,       Carol Y.%Rao%NULL%0,       Ryan%Keating%NULL%0,       Grace E.%Marx%NULL%0,       Temet M.%McMichael%NULL%0,       Margaret D.%Lukoff%NULL%1,       Jeffrey S.%Duchin%NULL%1,       Karin%Huster%NULL%0,       Jody%Rauch%NULL%0,       Hedda%McLendon%NULL%1,       Matthew%Hanson%NULL%1,       Dave%Nichols%NULL%1,       Sargis%Pogosjans%NULL%1,       Meaghan%Fagalde%NULL%1,       Jennifer%Lenahan%NULL%1,       Emily%Maier%NULL%1,       Holly%Whitney%NULL%1,       Nancy%Sugg%NULL%0,       Helen%Chu%NULL%1,       Julia%Rogers%NULL%1,       Emily%Mosites%NULL%0,       Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,  Brian%Redline%xref no email%1,  Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,       Elizabeth%Samuels%NULL%1,       Rahul%Vanjani%NULL%1,       Catherine%Trimbur%NULL%1,       Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,  Melanie W.%Racine%xref no email%1,  Elizabeth%Lewis%xref no email%1,  Denise%De Las Nueces%xref no email%1,  James J.%O\u2019Connell%xref no email%1,  Barry%Bock%xref no email%1,  Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,       Josephine%Jacobs%NULL%2,       Josephine%Jacobs%NULL%0,       Maria%Yefimova%NULL%1,       Liberty%Greene%NULL%1,       Leonie%Heyworth%NULL%1,       Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,       Richard%Booth%NULL%1,       Jennifer%Rayner%NULL%1,       Kristin K.%Clemens%NULL%1,       Cheryl%Forchuk%NULL%1,       Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,        Huiting%Ma%null%1,        Kristy C.Y.%Yiu%null%1,        Andrew%Calzavara%null%1,        David%Landsman%null%1,        Linh%Luong%null%1,        Adrienne K.%Chan%null%1,        Rafal%Kustra%null%1,        Jeffrey C.%Kwong%null%1,        Marie-Claude%Boily%null%1,        Stephen%Hwang%null%1,        Sharon%Straus%null%1,        Stefan D.%Baral%null%1,        Sharmistha%Mishra%null%1,       Linwei%Wang%null%1,       Huiting%Ma%null%1,       Kristy C.Y.%Yiu%null%1,       Andrew%Calzavara%null%1,       David%Landsman%null%1,       Linh%Luong%null%1,       Adrienne K.%Chan%null%1,       Rafal%Kustra%null%1,       Jeffrey C.%Kwong%null%1,       Marie-Claude%Boily%null%1,       Stephen%Hwang%null%1,       Sharon%Straus%null%1,       Stefan D.%Baral%null%1,       Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,       Van Thuan%Hoang%NULL%2,       Ndiaw%Goumballa%NULL%2,       Meriem%Louni%NULL%2,       Naomie%Canard%NULL%2,       Thi Loi%Dao%NULL%2,       Hacene%Medkour%NULL%2,       Audrey%Borg%NULL%2,       Kevin%Bardy%NULL%2,       Véra%Esteves-Vieira%NULL%2,       Véronique%Filosa%NULL%2,       Bernard%Davoust%NULL%2,       Oleg%Mediannikov%NULL%2,       Pierre-Edouard%Fournier%NULL%2,       Didier%Raoult%NULL%2,       Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,       Bastien%Mollo%NULL%1,       Charline%Vincent%NULL%1,       Birgit%Nikolay%NULL%1,       Augusto E%Llosa%NULL%1,       Robin%Nesbitt%NULL%1,       Jessica%Vanhomwegen%NULL%1,       Thierry%Rose%NULL%1,       Sophie%Goyard%NULL%1,       François%Anna%NULL%1,       Corinne%Torre%NULL%1,       Emilie%Fourrey%NULL%1,       Erica%Simons%NULL%1,       William%Hennequin%NULL%1,       Clair%Mills%NULL%1,       Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,       Nhu Ngoc%Nguyen%NULL%1,       Van Thuan%Hoang%NULL%0,       Ndiaw%Goumballa%NULL%0,       Meriem%Louni%NULL%0,       Naomie%Canard%NULL%0,       Thi Loi%Dao%NULL%0,       Hacene%Medkour%NULL%0,       Audrey%Borg%NULL%0,       Kevin%Bardy%NULL%0,       Véra%Esteves-Vieira%NULL%0,       Véronique%Filosa%NULL%0,       Bernard%Davoust%NULL%0,       Oleg%Mediannikov%NULL%0,       Pierre-Edouard%Fournier%NULL%0,       Didier%Raoult%NULL%0,       Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,       Aldo%Morrone%NULL%1,       Andrea%Arcangeli%NULL%1,       Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,       Marc%Delforge%NULL%1,       Faustine%Lebout%NULL%1,       Thibaut%Vanbaelen%NULL%1,       Amaryl%Lecompte%NULL%1,       Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,       Pilar%Andrés%NULL%2,       Pilar%Andrés%NULL%0,       Alberto%Bullón%NULL%1,       José Luis%Villegas%NULL%2,       José Luis%Villegas%NULL%0,       Javier Ignacio%de la Iglesia-Larrad%NULL%1,       Berta%Bote%NULL%1,       Nieves%Prieto%NULL%1,       Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1331,22 +1535,22 @@
         <v>43948</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
@@ -1366,7 +1570,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1389,22 +1593,22 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -1424,7 +1628,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1453,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1482,7 +1686,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1511,7 +1715,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1540,7 +1744,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -1563,22 +1767,22 @@
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -1598,7 +1802,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1627,7 +1831,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1656,7 +1860,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1685,7 +1889,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1714,7 +1918,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -1737,22 +1941,22 @@
         <v>44136</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="I17" t="s">
         <v>38</v>
@@ -1772,7 +1976,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -1795,22 +1999,22 @@
         <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="I19" t="s">
         <v>38</v>
@@ -1830,7 +2034,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1859,7 +2063,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -1888,7 +2092,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -1917,7 +2121,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -1946,7 +2150,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -1975,7 +2179,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2004,7 +2208,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2033,7 +2237,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2062,7 +2266,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="353">
   <si>
     <t>Doi</t>
   </si>
@@ -1096,6 +1096,168 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,       Pilar%Andrés%NULL%2,       Pilar%Andrés%NULL%0,       Alberto%Bullón%NULL%1,       José Luis%Villegas%NULL%2,       José Luis%Villegas%NULL%0,       Javier Ignacio%de la Iglesia-Larrad%NULL%1,       Berta%Bote%NULL%1,       Nieves%Prieto%NULL%1,       Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,        Erin M.%Parker%NULL%2,        Kristie E. N.%Clarke%NULL%1,        Jessie M.%Gaeta%NULL%1,        Travis P.%Baggett%NULL%1,        Elizabeth%Imbert%NULL%1,        Madeline%Sankaran%NULL%2,        Ashley%Scarborough%NULL%2,        Karin%Huster%NULL%2,        Matt%Hanson%NULL%1,        Elysia%Gonzales%NULL%2,        Jody%Rauch%NULL%2,        Libby%Page%NULL%1,        Temet M.%McMichael%NULL%2,        Ryan%Keating%NULL%2,        Grace E.%Marx%NULL%2,        Tom%Andrews%NULL%2,        Kristine%Schmit%NULL%2,        Sapna Bamrah%Morris%NULL%2,        Nicole F.%Dowling%NULL%2,        Georgina%Peacock%NULL%2,        NULL%NULL%NULL%5,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Ann%Buff%NULL%1,        Calla%Jamison%NULL%2,        Ruthanne%Marcus%NULL%1,        Carol Y.%Rao%NULL%2,        Julie L.%Self%NULL%2,        Farrell%Tobolowsky%NULL%1,        Samantha%Williams%NULL%1,        Meagan%Kay%NULL%2,        Naveena%Bobba%NULL%1,        Stephanie%Cohen%NULL%2,        Jonathan%Fuchs%NULL%1,        Trang%Nguyen%NULL%1,        Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,   Harrison%Keyes%xref no email%1,   Nora%Sporn%xref no email%1,   Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,        Elizabeth S%Davis%NULL%2,        Elizabeth S%Davis%NULL%0,        Stockton%Mayer%NULL%1,        Karrie-Ann%Toews%NULL%1,        Thomas D%Huggett%NULL%1,        Nyssa%Snow-Hill%NULL%1,        Omar%Perez%NULL%1,        Mary K%Hayden%NULL%1,        Seena%Tehrani%NULL%1,        A Justine%Landi%NULL%1,        Stephanie%Crane%NULL%1,        Elizabeth%Bell%NULL%1,        Joy-Marie%Hermes%NULL%1,        Kush%Desai%NULL%1,        Michelle%Godbee%NULL%1,        Naman%Jhaveri%NULL%1,        Brian%Borah%NULL%1,        Tracy%Cable%NULL%1,        Sofia%Sami%NULL%1,        Laura%Nozicka%NULL%1,        Yi-Shin%Chang%NULL%1,        Aditi%Jagadish%NULL%1,        Mark%Chee%NULL%1,        Brynna%Thigpen%NULL%1,        Christopher%Llerena%NULL%1,        Minh%Tran%NULL%1,        Divya Meher%Surabhi%NULL%1,        Emilia D%Smith%NULL%1,        Rosemary G%Remus%NULL%1,        Roweine%Staszcuk%NULL%1,        Evelyn%Figueroa%NULL%1,        Paul%Leo%NULL%1,        Wayne M%Detmer%NULL%1,        Evan%Lyon%NULL%1,        Sarah%Carreon%NULL%1,        Stacey%Hoferka%NULL%1,        Kathleen A%Ritger%NULL%1,        Wilnise%Jasmin%NULL%1,        Prathima%Nagireddy%NULL%1,        Jennifer Y%Seo%NULL%1,        Marielle J%Fricchione%NULL%1,        Janna L%Kerins%NULL%1,        Stephanie R%Black%NULL%1,        Lisa Morrison%Butler%NULL%1,        Kimberly%Howard%NULL%1,        Maura%McCauley%NULL%1,        Todd%Fraley%NULL%1,        M Allison%Arwady%NULL%1,        Stephanie%Gretsch%NULL%1,        Megan%Cunningham%NULL%1,        Massimo%Pacilli%NULL%1,        Peter S%Ruestow%NULL%2,        Peter S%Ruestow%NULL%0,        Emily%Mosites%NULL%3,        Elizabeth%Avery%NULL%1,        Joshua%Longcoy%NULL%1,        Elizabeth B%Lynch%NULL%1,        Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,   Elizabeth%Imbert%xref no email%1,   David V.%Glidden%xref no email%2,   Jan Bing%Del Rosario%xref no email%1,   Mary%Chong%xref no email%1,   Angelo%Clemenzi-Allen%xref no email%1,   Jon%Oskarsson%xref no email%1,   Elise D.%Riley%xref no email%1,   Monica%Gandhi%xref no email%2,   Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,        Melisa Mei Jin%Tan%NULL%1,        Eva%Turk%NULL%1,        Devi%Sridhar%NULL%1,        Gabriel M%Leung%NULL%1,        Kenji%Shibuya%NULL%1,        Nima%Asgari%NULL%1,        Juhwan%Oh%NULL%1,        Alberto L%García-Basteiro%NULL%1,        Johanna%Hanefeld%NULL%1,        Alex R%Cook%NULL%1,        Li Yang%Hsu%NULL%1,        Yik Ying%Teo%NULL%1,        David%Heymann%NULL%1,        Helen%Clark%NULL%1,        Martin%McKee%NULL%1,        Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,        Erin M.%Ashe%NULL%1,        Michael%Silverstein%NULL%1,        Melissa%Hofman%NULL%1,        Samantha J.%Lange%NULL%1,        Hilda%Razzaghi%NULL%1,        Rebecca G.%Mishuris%NULL%1,        Ravin%Davidoff%NULL%1,        Erin M.%Parker%NULL%0,        Ana%Penman-Aguilar%NULL%1,        Kristie E.N.%Clarke%NULL%1,        Anna%Goldman%NULL%1,        Thea L.%James%NULL%1,        Karen%Jacobson%NULL%1,        Karen E.%Lasser%NULL%1,        Ziming%Xuan%NULL%1,        Georgina%Peacock%NULL%0,        Nicole F.%Dowling%NULL%0,        Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,        Alexander%Winnett%NULL%2,        Alexander%Winnett%NULL%0,        Christopher J.%Graber%NULL%2,        Christopher J.%Graber%NULL%0,        John%Vallone%NULL%1,        David O.%Beenhouwer%NULL%1,        Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,        Holly%Murphy%NULL%1,        Ravi%Vadlamudi%NULL%2,        Ravi%Vadlamudi%NULL%0,        Ruth%Kraut%NULL%1,        Kate%Dalessio%NULL%1,        Anurag N.%Malani%NULL%1,        Meghan%Glabach%NULL%1,        Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,        Amy C.%Link%NULL%2,        Amy C.%Link%NULL%0,        Denise%McCulloch%NULL%1,        Elisabeth%Brandstetter%NULL%1,        Kira L.%Newman%NULL%2,        Kira L.%Newman%NULL%0,        Michael L.%Jackson%NULL%2,        Michael L.%Jackson%NULL%0,        James P.%Hughes%NULL%2,        James P.%Hughes%NULL%0,        Janet A.%Englund%NULL%2,        Janet A.%Englund%NULL%0,        Michael%Boeckh%NULL%2,        Michael%Boeckh%NULL%0,        Nancy%Sugg%NULL%2,        Misja%Ilcisin%NULL%1,        Thomas R.%Sibley%NULL%2,        Thomas R.%Sibley%NULL%0,        Kairsten%Fay%NULL%2,        Kairsten%Fay%NULL%0,        Jover%Lee%NULL%2,        Jover%Lee%NULL%0,        Peter%Han%NULL%2,        Peter%Han%NULL%0,        Melissa%Truong%NULL%1,        Matthew%Richardson%NULL%2,        Matthew%Richardson%NULL%0,        Deborah A.%Nickerson%NULL%2,        Deborah A.%Nickerson%NULL%0,        Lea M.%Starita%NULL%1,        Trevor%Bedford%NULL%2,        Trevor%Bedford%NULL%0,        Helen Y.%Chu%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,   Matthew D.%Hickey%xref no email%1,   David V.%Glidden%xref no email%0,   Janet Q.%Nguyen%xref no email%1,   Jon J.%Oskarsson%xref no email%1,   Diane%Havlir%xref no email%1,   Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,        Elizabeth J.%D'Amico%NULL%1,        Eric R.%Pedersen%NULL%1,        Rick%Garvey%NULL%1,        Anthony%Rodriguez%NULL%1,        David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,        Christian%Ramers%NULL%1,        Adam%Northrup%NULL%1,        Aaron%Tam%aaront@fhscd.org%1,        Jie%Liu%NULL%1,        Sarah%Rojas%NULL%1,        Stacey%Klaman%NULL%1,        Maureen%Khasira%NULL%1,        Jenan%Madbak%NULL%1,        Eva%Matthews%NULL%1,        Jeffrey%Norris%NULL%1,        Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,        Martha P%Montgomery%NULL%2,        Martha P%Montgomery%NULL%0,        Ann M%Buff%NULL%1,        Andrew T%Boyd%NULL%1,        Calla%Jamison%NULL%0,        Alfonso%Hernandez%NULL%1,        Kristine%Schmit%NULL%0,        Sarita%Shah%NULL%1,        Sophia%Ajoku%NULL%1,        David P%Holland%NULL%1,        Juliana%Prieto%NULL%1,        Sasha%Smith%NULL%1,        Mark A%Swancutt%NULL%1,        Kim%Turner%NULL%1,        Tom%Andrews%NULL%0,        Kevin%Flowers%NULL%1,        Alyssa%Wells%NULL%1,        Cathryn%Marchman%NULL%1,        Emaline%Laney%NULL%1,        Danae%Bixler%NULL%1,        Sean%Cavanaugh%NULL%1,        Nicole%Flowers%NULL%1,        Nicholas%Gaffga%NULL%1,        Jean Y%Ko%NULL%1,        Heather N%Paulin%NULL%1,        Mark K%Weng%NULL%1,        Emily%Mosites%NULL%0,        Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,        Patrick M%Kinley%NULL%1,        Ashley%Scarborough%NULL%0,        Caroline%Cawley%NULL%1,        Madeline%Sankaran%NULL%0,        Sarah N%Cox%NULL%1,        Margot%Kushel%NULL%1,        Juliet%Stoltey%NULL%1,        Stephanie%Cohen%NULL%0,        Jonathan D%Fuchs%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,        Elysia%Gonzales%NULL%0,        Julie L.%Self%NULL%0,        Carol Y.%Rao%NULL%0,        Ryan%Keating%NULL%0,        Grace E.%Marx%NULL%0,        Temet M.%McMichael%NULL%0,        Margaret D.%Lukoff%NULL%1,        Jeffrey S.%Duchin%NULL%1,        Karin%Huster%NULL%0,        Jody%Rauch%NULL%0,        Hedda%McLendon%NULL%1,        Matthew%Hanson%NULL%1,        Dave%Nichols%NULL%1,        Sargis%Pogosjans%NULL%1,        Meaghan%Fagalde%NULL%1,        Jennifer%Lenahan%NULL%1,        Emily%Maier%NULL%1,        Holly%Whitney%NULL%1,        Nancy%Sugg%NULL%0,        Helen%Chu%NULL%1,        Julia%Rogers%NULL%1,        Emily%Mosites%NULL%0,        Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,   Brian%Redline%xref no email%1,   Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,        Elizabeth%Samuels%NULL%1,        Rahul%Vanjani%NULL%1,        Catherine%Trimbur%NULL%1,        Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,   Melanie W.%Racine%xref no email%1,   Elizabeth%Lewis%xref no email%1,   Denise%De Las Nueces%xref no email%1,   James J.%O\u2019Connell%xref no email%1,   Barry%Bock%xref no email%1,   Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,        Josephine%Jacobs%NULL%2,        Josephine%Jacobs%NULL%0,        Maria%Yefimova%NULL%1,        Liberty%Greene%NULL%1,        Leonie%Heyworth%NULL%1,        Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,        Richard%Booth%NULL%1,        Jennifer%Rayner%NULL%1,        Kristin K.%Clemens%NULL%1,        Cheryl%Forchuk%NULL%1,        Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,         Huiting%Ma%null%1,         Kristy C.Y.%Yiu%null%1,         Andrew%Calzavara%null%1,         David%Landsman%null%1,         Linh%Luong%null%1,         Adrienne K.%Chan%null%1,         Rafal%Kustra%null%1,         Jeffrey C.%Kwong%null%1,         Marie-Claude%Boily%null%1,         Stephen%Hwang%null%1,         Sharon%Straus%null%1,         Stefan D.%Baral%null%1,         Sharmistha%Mishra%null%1,        Linwei%Wang%null%1,        Huiting%Ma%null%1,        Kristy C.Y.%Yiu%null%1,        Andrew%Calzavara%null%1,        David%Landsman%null%1,        Linh%Luong%null%1,        Adrienne K.%Chan%null%1,        Rafal%Kustra%null%1,        Jeffrey C.%Kwong%null%1,        Marie-Claude%Boily%null%1,        Stephen%Hwang%null%1,        Sharon%Straus%null%1,        Stefan D.%Baral%null%1,        Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,        Van Thuan%Hoang%NULL%2,        Ndiaw%Goumballa%NULL%2,        Meriem%Louni%NULL%2,        Naomie%Canard%NULL%2,        Thi Loi%Dao%NULL%2,        Hacene%Medkour%NULL%2,        Audrey%Borg%NULL%2,        Kevin%Bardy%NULL%2,        Véra%Esteves-Vieira%NULL%2,        Véronique%Filosa%NULL%2,        Bernard%Davoust%NULL%2,        Oleg%Mediannikov%NULL%2,        Pierre-Edouard%Fournier%NULL%2,        Didier%Raoult%NULL%2,        Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,        Bastien%Mollo%NULL%1,        Charline%Vincent%NULL%1,        Birgit%Nikolay%NULL%1,        Augusto E%Llosa%NULL%1,        Robin%Nesbitt%NULL%1,        Jessica%Vanhomwegen%NULL%1,        Thierry%Rose%NULL%1,        Sophie%Goyard%NULL%1,        François%Anna%NULL%1,        Corinne%Torre%NULL%1,        Emilie%Fourrey%NULL%1,        Erica%Simons%NULL%1,        William%Hennequin%NULL%1,        Clair%Mills%NULL%1,        Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,        Nhu Ngoc%Nguyen%NULL%1,        Van Thuan%Hoang%NULL%0,        Ndiaw%Goumballa%NULL%0,        Meriem%Louni%NULL%0,        Naomie%Canard%NULL%0,        Thi Loi%Dao%NULL%0,        Hacene%Medkour%NULL%0,        Audrey%Borg%NULL%0,        Kevin%Bardy%NULL%0,        Véra%Esteves-Vieira%NULL%0,        Véronique%Filosa%NULL%0,        Bernard%Davoust%NULL%0,        Oleg%Mediannikov%NULL%0,        Pierre-Edouard%Fournier%NULL%0,        Didier%Raoult%NULL%0,        Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,        Aldo%Morrone%NULL%1,        Andrea%Arcangeli%NULL%1,        Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,        Marc%Delforge%NULL%1,        Faustine%Lebout%NULL%1,        Thibaut%Vanbaelen%NULL%1,        Amaryl%Lecompte%NULL%1,        Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,        Pilar%Andrés%NULL%2,        Pilar%Andrés%NULL%0,        Alberto%Bullón%NULL%1,        José Luis%Villegas%NULL%2,        José Luis%Villegas%NULL%0,        Javier Ignacio%de la Iglesia-Larrad%NULL%1,        Berta%Bote%NULL%1,        Nieves%Prieto%NULL%1,        Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,         Erin M.%Parker%NULL%2,         Kristie E. N.%Clarke%NULL%1,         Jessie M.%Gaeta%NULL%1,         Travis P.%Baggett%NULL%1,         Elizabeth%Imbert%NULL%1,         Madeline%Sankaran%NULL%2,         Ashley%Scarborough%NULL%2,         Karin%Huster%NULL%2,         Matt%Hanson%NULL%1,         Elysia%Gonzales%NULL%2,         Jody%Rauch%NULL%2,         Libby%Page%NULL%1,         Temet M.%McMichael%NULL%2,         Ryan%Keating%NULL%2,         Grace E.%Marx%NULL%2,         Tom%Andrews%NULL%2,         Kristine%Schmit%NULL%2,         Sapna Bamrah%Morris%NULL%2,         Nicole F.%Dowling%NULL%2,         Georgina%Peacock%NULL%2,         NULL%NULL%NULL%5,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Ann%Buff%NULL%1,         Calla%Jamison%NULL%2,         Ruthanne%Marcus%NULL%1,         Carol Y.%Rao%NULL%2,         Julie L.%Self%NULL%2,         Farrell%Tobolowsky%NULL%1,         Samantha%Williams%NULL%1,         Meagan%Kay%NULL%2,         Naveena%Bobba%NULL%1,         Stephanie%Cohen%NULL%2,         Jonathan%Fuchs%NULL%1,         Trang%Nguyen%NULL%1,         Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,    Harrison%Keyes%xref no email%1,    Nora%Sporn%xref no email%1,    Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,         Elizabeth S%Davis%NULL%2,         Elizabeth S%Davis%NULL%0,         Stockton%Mayer%NULL%1,         Karrie-Ann%Toews%NULL%1,         Thomas D%Huggett%NULL%1,         Nyssa%Snow-Hill%NULL%1,         Omar%Perez%NULL%1,         Mary K%Hayden%NULL%1,         Seena%Tehrani%NULL%1,         A Justine%Landi%NULL%1,         Stephanie%Crane%NULL%1,         Elizabeth%Bell%NULL%1,         Joy-Marie%Hermes%NULL%1,         Kush%Desai%NULL%1,         Michelle%Godbee%NULL%1,         Naman%Jhaveri%NULL%1,         Brian%Borah%NULL%1,         Tracy%Cable%NULL%1,         Sofia%Sami%NULL%1,         Laura%Nozicka%NULL%1,         Yi-Shin%Chang%NULL%1,         Aditi%Jagadish%NULL%1,         Mark%Chee%NULL%1,         Brynna%Thigpen%NULL%1,         Christopher%Llerena%NULL%1,         Minh%Tran%NULL%1,         Divya Meher%Surabhi%NULL%1,         Emilia D%Smith%NULL%1,         Rosemary G%Remus%NULL%1,         Roweine%Staszcuk%NULL%1,         Evelyn%Figueroa%NULL%1,         Paul%Leo%NULL%1,         Wayne M%Detmer%NULL%1,         Evan%Lyon%NULL%1,         Sarah%Carreon%NULL%1,         Stacey%Hoferka%NULL%1,         Kathleen A%Ritger%NULL%1,         Wilnise%Jasmin%NULL%1,         Prathima%Nagireddy%NULL%1,         Jennifer Y%Seo%NULL%1,         Marielle J%Fricchione%NULL%1,         Janna L%Kerins%NULL%1,         Stephanie R%Black%NULL%1,         Lisa Morrison%Butler%NULL%1,         Kimberly%Howard%NULL%1,         Maura%McCauley%NULL%1,         Todd%Fraley%NULL%1,         M Allison%Arwady%NULL%1,         Stephanie%Gretsch%NULL%1,         Megan%Cunningham%NULL%1,         Massimo%Pacilli%NULL%1,         Peter S%Ruestow%NULL%2,         Peter S%Ruestow%NULL%0,         Emily%Mosites%NULL%3,         Elizabeth%Avery%NULL%1,         Joshua%Longcoy%NULL%1,         Elizabeth B%Lynch%NULL%1,         Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,    Elizabeth%Imbert%xref no email%1,    David V.%Glidden%xref no email%2,    Jan Bing%Del Rosario%xref no email%1,    Mary%Chong%xref no email%1,    Angelo%Clemenzi-Allen%xref no email%1,    Jon%Oskarsson%xref no email%1,    Elise D.%Riley%xref no email%1,    Monica%Gandhi%xref no email%2,    Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,         Melisa Mei Jin%Tan%NULL%1,         Eva%Turk%NULL%1,         Devi%Sridhar%NULL%1,         Gabriel M%Leung%NULL%1,         Kenji%Shibuya%NULL%1,         Nima%Asgari%NULL%1,         Juhwan%Oh%NULL%1,         Alberto L%García-Basteiro%NULL%1,         Johanna%Hanefeld%NULL%1,         Alex R%Cook%NULL%1,         Li Yang%Hsu%NULL%1,         Yik Ying%Teo%NULL%1,         David%Heymann%NULL%1,         Helen%Clark%NULL%1,         Martin%McKee%NULL%1,         Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,         Erin M.%Ashe%NULL%1,         Michael%Silverstein%NULL%1,         Melissa%Hofman%NULL%1,         Samantha J.%Lange%NULL%1,         Hilda%Razzaghi%NULL%1,         Rebecca G.%Mishuris%NULL%1,         Ravin%Davidoff%NULL%1,         Erin M.%Parker%NULL%0,         Ana%Penman-Aguilar%NULL%1,         Kristie E.N.%Clarke%NULL%1,         Anna%Goldman%NULL%1,         Thea L.%James%NULL%1,         Karen%Jacobson%NULL%1,         Karen E.%Lasser%NULL%1,         Ziming%Xuan%NULL%1,         Georgina%Peacock%NULL%0,         Nicole F.%Dowling%NULL%0,         Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,         Alexander%Winnett%NULL%2,         Alexander%Winnett%NULL%0,         Christopher J.%Graber%NULL%2,         Christopher J.%Graber%NULL%0,         John%Vallone%NULL%1,         David O.%Beenhouwer%NULL%1,         Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,         Holly%Murphy%NULL%1,         Ravi%Vadlamudi%NULL%2,         Ravi%Vadlamudi%NULL%0,         Ruth%Kraut%NULL%1,         Kate%Dalessio%NULL%1,         Anurag N.%Malani%NULL%1,         Meghan%Glabach%NULL%1,         Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,         Amy C.%Link%NULL%2,         Amy C.%Link%NULL%0,         Denise%McCulloch%NULL%1,         Elisabeth%Brandstetter%NULL%1,         Kira L.%Newman%NULL%2,         Kira L.%Newman%NULL%0,         Michael L.%Jackson%NULL%2,         Michael L.%Jackson%NULL%0,         James P.%Hughes%NULL%2,         James P.%Hughes%NULL%0,         Janet A.%Englund%NULL%2,         Janet A.%Englund%NULL%0,         Michael%Boeckh%NULL%2,         Michael%Boeckh%NULL%0,         Nancy%Sugg%NULL%2,         Misja%Ilcisin%NULL%1,         Thomas R.%Sibley%NULL%2,         Thomas R.%Sibley%NULL%0,         Kairsten%Fay%NULL%2,         Kairsten%Fay%NULL%0,         Jover%Lee%NULL%2,         Jover%Lee%NULL%0,         Peter%Han%NULL%2,         Peter%Han%NULL%0,         Melissa%Truong%NULL%1,         Matthew%Richardson%NULL%2,         Matthew%Richardson%NULL%0,         Deborah A.%Nickerson%NULL%2,         Deborah A.%Nickerson%NULL%0,         Lea M.%Starita%NULL%1,         Trevor%Bedford%NULL%2,         Trevor%Bedford%NULL%0,         Helen Y.%Chu%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,    Matthew D.%Hickey%xref no email%1,    David V.%Glidden%xref no email%0,    Janet Q.%Nguyen%xref no email%1,    Jon J.%Oskarsson%xref no email%1,    Diane%Havlir%xref no email%1,    Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,         Elizabeth J.%D'Amico%NULL%1,         Eric R.%Pedersen%NULL%1,         Rick%Garvey%NULL%1,         Anthony%Rodriguez%NULL%1,         David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,         Christian%Ramers%NULL%1,         Adam%Northrup%NULL%1,         Aaron%Tam%aaront@fhscd.org%1,         Jie%Liu%NULL%1,         Sarah%Rojas%NULL%1,         Stacey%Klaman%NULL%1,         Maureen%Khasira%NULL%1,         Jenan%Madbak%NULL%1,         Eva%Matthews%NULL%1,         Jeffrey%Norris%NULL%1,         Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,         Martha P%Montgomery%NULL%2,         Martha P%Montgomery%NULL%0,         Ann M%Buff%NULL%1,         Andrew T%Boyd%NULL%1,         Calla%Jamison%NULL%0,         Alfonso%Hernandez%NULL%1,         Kristine%Schmit%NULL%0,         Sarita%Shah%NULL%1,         Sophia%Ajoku%NULL%1,         David P%Holland%NULL%1,         Juliana%Prieto%NULL%1,         Sasha%Smith%NULL%1,         Mark A%Swancutt%NULL%1,         Kim%Turner%NULL%1,         Tom%Andrews%NULL%0,         Kevin%Flowers%NULL%1,         Alyssa%Wells%NULL%1,         Cathryn%Marchman%NULL%1,         Emaline%Laney%NULL%1,         Danae%Bixler%NULL%1,         Sean%Cavanaugh%NULL%1,         Nicole%Flowers%NULL%1,         Nicholas%Gaffga%NULL%1,         Jean Y%Ko%NULL%1,         Heather N%Paulin%NULL%1,         Mark K%Weng%NULL%1,         Emily%Mosites%NULL%0,         Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,         Patrick M%Kinley%NULL%1,         Ashley%Scarborough%NULL%0,         Caroline%Cawley%NULL%1,         Madeline%Sankaran%NULL%0,         Sarah N%Cox%NULL%1,         Margot%Kushel%NULL%1,         Juliet%Stoltey%NULL%1,         Stephanie%Cohen%NULL%0,         Jonathan D%Fuchs%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,         Elysia%Gonzales%NULL%0,         Julie L.%Self%NULL%0,         Carol Y.%Rao%NULL%0,         Ryan%Keating%NULL%0,         Grace E.%Marx%NULL%0,         Temet M.%McMichael%NULL%0,         Margaret D.%Lukoff%NULL%1,         Jeffrey S.%Duchin%NULL%1,         Karin%Huster%NULL%0,         Jody%Rauch%NULL%0,         Hedda%McLendon%NULL%1,         Matthew%Hanson%NULL%1,         Dave%Nichols%NULL%1,         Sargis%Pogosjans%NULL%1,         Meaghan%Fagalde%NULL%1,         Jennifer%Lenahan%NULL%1,         Emily%Maier%NULL%1,         Holly%Whitney%NULL%1,         Nancy%Sugg%NULL%0,         Helen%Chu%NULL%1,         Julia%Rogers%NULL%1,         Emily%Mosites%NULL%0,         Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,    Brian%Redline%xref no email%1,    Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,         Elizabeth%Samuels%NULL%1,         Rahul%Vanjani%NULL%1,         Catherine%Trimbur%NULL%1,         Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,    Melanie W.%Racine%xref no email%1,    Elizabeth%Lewis%xref no email%1,    Denise%De Las Nueces%xref no email%1,    James J.%O\u2019Connell%xref no email%1,    Barry%Bock%xref no email%1,    Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,         Josephine%Jacobs%NULL%2,         Josephine%Jacobs%NULL%0,         Maria%Yefimova%NULL%1,         Liberty%Greene%NULL%1,         Leonie%Heyworth%NULL%1,         Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,         Richard%Booth%NULL%1,         Jennifer%Rayner%NULL%1,         Kristin K.%Clemens%NULL%1,         Cheryl%Forchuk%NULL%1,         Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,          Huiting%Ma%null%1,          Kristy C.Y.%Yiu%null%1,          Andrew%Calzavara%null%1,          David%Landsman%null%1,          Linh%Luong%null%1,          Adrienne K.%Chan%null%1,          Rafal%Kustra%null%1,          Jeffrey C.%Kwong%null%1,          Marie-Claude%Boily%null%1,          Stephen%Hwang%null%1,          Sharon%Straus%null%1,          Stefan D.%Baral%null%1,          Sharmistha%Mishra%null%1,         Linwei%Wang%null%1,         Huiting%Ma%null%1,         Kristy C.Y.%Yiu%null%1,         Andrew%Calzavara%null%1,         David%Landsman%null%1,         Linh%Luong%null%1,         Adrienne K.%Chan%null%1,         Rafal%Kustra%null%1,         Jeffrey C.%Kwong%null%1,         Marie-Claude%Boily%null%1,         Stephen%Hwang%null%1,         Sharon%Straus%null%1,         Stefan D.%Baral%null%1,         Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,         Van Thuan%Hoang%NULL%2,         Ndiaw%Goumballa%NULL%2,         Meriem%Louni%NULL%2,         Naomie%Canard%NULL%2,         Thi Loi%Dao%NULL%2,         Hacene%Medkour%NULL%2,         Audrey%Borg%NULL%2,         Kevin%Bardy%NULL%2,         Véra%Esteves-Vieira%NULL%2,         Véronique%Filosa%NULL%2,         Bernard%Davoust%NULL%2,         Oleg%Mediannikov%NULL%2,         Pierre-Edouard%Fournier%NULL%2,         Didier%Raoult%NULL%2,         Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,         Bastien%Mollo%NULL%1,         Charline%Vincent%NULL%1,         Birgit%Nikolay%NULL%1,         Augusto E%Llosa%NULL%1,         Robin%Nesbitt%NULL%1,         Jessica%Vanhomwegen%NULL%1,         Thierry%Rose%NULL%1,         Sophie%Goyard%NULL%1,         François%Anna%NULL%1,         Corinne%Torre%NULL%1,         Emilie%Fourrey%NULL%1,         Erica%Simons%NULL%1,         William%Hennequin%NULL%1,         Clair%Mills%NULL%1,         Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,         Nhu Ngoc%Nguyen%NULL%1,         Van Thuan%Hoang%NULL%0,         Ndiaw%Goumballa%NULL%0,         Meriem%Louni%NULL%0,         Naomie%Canard%NULL%0,         Thi Loi%Dao%NULL%0,         Hacene%Medkour%NULL%0,         Audrey%Borg%NULL%0,         Kevin%Bardy%NULL%0,         Véra%Esteves-Vieira%NULL%0,         Véronique%Filosa%NULL%0,         Bernard%Davoust%NULL%0,         Oleg%Mediannikov%NULL%0,         Pierre-Edouard%Fournier%NULL%0,         Didier%Raoult%NULL%0,         Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,         Aldo%Morrone%NULL%1,         Andrea%Arcangeli%NULL%1,         Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,         Marc%Delforge%NULL%1,         Faustine%Lebout%NULL%1,         Thibaut%Vanbaelen%NULL%1,         Amaryl%Lecompte%NULL%1,         Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,         Pilar%Andrés%NULL%2,         Pilar%Andrés%NULL%0,         Alberto%Bullón%NULL%1,         José Luis%Villegas%NULL%2,         José Luis%Villegas%NULL%0,         Javier Ignacio%de la Iglesia-Larrad%NULL%1,         Berta%Bote%NULL%1,         Nieves%Prieto%NULL%1,         Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1674,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1541,7 +1703,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1570,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1599,7 +1761,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1628,7 +1790,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1657,7 +1819,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1686,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1715,7 +1877,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1744,7 +1906,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -1773,7 +1935,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -1802,7 +1964,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1831,7 +1993,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1860,7 +2022,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1889,7 +2051,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1918,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -1947,7 +2109,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1976,7 +2138,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2005,7 +2167,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2034,7 +2196,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2063,7 +2225,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2092,7 +2254,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2121,7 +2283,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2150,7 +2312,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2179,7 +2341,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2208,7 +2370,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2237,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2266,7 +2428,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="407">
   <si>
     <t>Doi</t>
   </si>
@@ -1258,6 +1258,168 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,         Pilar%Andrés%NULL%2,         Pilar%Andrés%NULL%0,         Alberto%Bullón%NULL%1,         José Luis%Villegas%NULL%2,         José Luis%Villegas%NULL%0,         Javier Ignacio%de la Iglesia-Larrad%NULL%1,         Berta%Bote%NULL%1,         Nieves%Prieto%NULL%1,         Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,          Erin M.%Parker%NULL%2,          Kristie E. N.%Clarke%NULL%1,          Jessie M.%Gaeta%NULL%1,          Travis P.%Baggett%NULL%1,          Elizabeth%Imbert%NULL%1,          Madeline%Sankaran%NULL%2,          Ashley%Scarborough%NULL%2,          Karin%Huster%NULL%2,          Matt%Hanson%NULL%1,          Elysia%Gonzales%NULL%2,          Jody%Rauch%NULL%2,          Libby%Page%NULL%1,          Temet M.%McMichael%NULL%2,          Ryan%Keating%NULL%2,          Grace E.%Marx%NULL%2,          Tom%Andrews%NULL%2,          Kristine%Schmit%NULL%2,          Sapna Bamrah%Morris%NULL%2,          Nicole F.%Dowling%NULL%2,          Georgina%Peacock%NULL%2,          NULL%NULL%NULL%5,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Ann%Buff%NULL%1,          Calla%Jamison%NULL%2,          Ruthanne%Marcus%NULL%1,          Carol Y.%Rao%NULL%2,          Julie L.%Self%NULL%2,          Farrell%Tobolowsky%NULL%1,          Samantha%Williams%NULL%1,          Meagan%Kay%NULL%2,          Naveena%Bobba%NULL%1,          Stephanie%Cohen%NULL%2,          Jonathan%Fuchs%NULL%1,          Trang%Nguyen%NULL%1,          Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,     Harrison%Keyes%xref no email%1,     Nora%Sporn%xref no email%1,     Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,          Elizabeth S%Davis%NULL%2,          Elizabeth S%Davis%NULL%0,          Stockton%Mayer%NULL%1,          Karrie-Ann%Toews%NULL%1,          Thomas D%Huggett%NULL%1,          Nyssa%Snow-Hill%NULL%1,          Omar%Perez%NULL%1,          Mary K%Hayden%NULL%1,          Seena%Tehrani%NULL%1,          A Justine%Landi%NULL%1,          Stephanie%Crane%NULL%1,          Elizabeth%Bell%NULL%1,          Joy-Marie%Hermes%NULL%1,          Kush%Desai%NULL%1,          Michelle%Godbee%NULL%1,          Naman%Jhaveri%NULL%1,          Brian%Borah%NULL%1,          Tracy%Cable%NULL%1,          Sofia%Sami%NULL%1,          Laura%Nozicka%NULL%1,          Yi-Shin%Chang%NULL%1,          Aditi%Jagadish%NULL%1,          Mark%Chee%NULL%1,          Brynna%Thigpen%NULL%1,          Christopher%Llerena%NULL%1,          Minh%Tran%NULL%1,          Divya Meher%Surabhi%NULL%1,          Emilia D%Smith%NULL%1,          Rosemary G%Remus%NULL%1,          Roweine%Staszcuk%NULL%1,          Evelyn%Figueroa%NULL%1,          Paul%Leo%NULL%1,          Wayne M%Detmer%NULL%1,          Evan%Lyon%NULL%1,          Sarah%Carreon%NULL%1,          Stacey%Hoferka%NULL%1,          Kathleen A%Ritger%NULL%1,          Wilnise%Jasmin%NULL%1,          Prathima%Nagireddy%NULL%1,          Jennifer Y%Seo%NULL%1,          Marielle J%Fricchione%NULL%1,          Janna L%Kerins%NULL%1,          Stephanie R%Black%NULL%1,          Lisa Morrison%Butler%NULL%1,          Kimberly%Howard%NULL%1,          Maura%McCauley%NULL%1,          Todd%Fraley%NULL%1,          M Allison%Arwady%NULL%1,          Stephanie%Gretsch%NULL%1,          Megan%Cunningham%NULL%1,          Massimo%Pacilli%NULL%1,          Peter S%Ruestow%NULL%2,          Peter S%Ruestow%NULL%0,          Emily%Mosites%NULL%3,          Elizabeth%Avery%NULL%1,          Joshua%Longcoy%NULL%1,          Elizabeth B%Lynch%NULL%1,          Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,     Elizabeth%Imbert%xref no email%1,     David V.%Glidden%xref no email%2,     Jan Bing%Del Rosario%xref no email%1,     Mary%Chong%xref no email%1,     Angelo%Clemenzi-Allen%xref no email%1,     Jon%Oskarsson%xref no email%1,     Elise D.%Riley%xref no email%1,     Monica%Gandhi%xref no email%2,     Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,          Melisa Mei Jin%Tan%NULL%1,          Eva%Turk%NULL%1,          Devi%Sridhar%NULL%1,          Gabriel M%Leung%NULL%1,          Kenji%Shibuya%NULL%1,          Nima%Asgari%NULL%1,          Juhwan%Oh%NULL%1,          Alberto L%García-Basteiro%NULL%1,          Johanna%Hanefeld%NULL%1,          Alex R%Cook%NULL%1,          Li Yang%Hsu%NULL%1,          Yik Ying%Teo%NULL%1,          David%Heymann%NULL%1,          Helen%Clark%NULL%1,          Martin%McKee%NULL%1,          Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,          Erin M.%Ashe%NULL%1,          Michael%Silverstein%NULL%1,          Melissa%Hofman%NULL%1,          Samantha J.%Lange%NULL%1,          Hilda%Razzaghi%NULL%1,          Rebecca G.%Mishuris%NULL%1,          Ravin%Davidoff%NULL%1,          Erin M.%Parker%NULL%0,          Ana%Penman-Aguilar%NULL%1,          Kristie E.N.%Clarke%NULL%1,          Anna%Goldman%NULL%1,          Thea L.%James%NULL%1,          Karen%Jacobson%NULL%1,          Karen E.%Lasser%NULL%1,          Ziming%Xuan%NULL%1,          Georgina%Peacock%NULL%0,          Nicole F.%Dowling%NULL%0,          Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,          Alexander%Winnett%NULL%2,          Alexander%Winnett%NULL%0,          Christopher J.%Graber%NULL%2,          Christopher J.%Graber%NULL%0,          John%Vallone%NULL%1,          David O.%Beenhouwer%NULL%1,          Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,          Holly%Murphy%NULL%1,          Ravi%Vadlamudi%NULL%2,          Ravi%Vadlamudi%NULL%0,          Ruth%Kraut%NULL%1,          Kate%Dalessio%NULL%1,          Anurag N.%Malani%NULL%1,          Meghan%Glabach%NULL%1,          Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,          Amy C.%Link%NULL%2,          Amy C.%Link%NULL%0,          Denise%McCulloch%NULL%1,          Elisabeth%Brandstetter%NULL%1,          Kira L.%Newman%NULL%2,          Kira L.%Newman%NULL%0,          Michael L.%Jackson%NULL%2,          Michael L.%Jackson%NULL%0,          James P.%Hughes%NULL%2,          James P.%Hughes%NULL%0,          Janet A.%Englund%NULL%2,          Janet A.%Englund%NULL%0,          Michael%Boeckh%NULL%2,          Michael%Boeckh%NULL%0,          Nancy%Sugg%NULL%2,          Misja%Ilcisin%NULL%1,          Thomas R.%Sibley%NULL%2,          Thomas R.%Sibley%NULL%0,          Kairsten%Fay%NULL%2,          Kairsten%Fay%NULL%0,          Jover%Lee%NULL%2,          Jover%Lee%NULL%0,          Peter%Han%NULL%2,          Peter%Han%NULL%0,          Melissa%Truong%NULL%1,          Matthew%Richardson%NULL%2,          Matthew%Richardson%NULL%0,          Deborah A.%Nickerson%NULL%2,          Deborah A.%Nickerson%NULL%0,          Lea M.%Starita%NULL%1,          Trevor%Bedford%NULL%2,          Trevor%Bedford%NULL%0,          Helen Y.%Chu%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,     Matthew D.%Hickey%xref no email%1,     David V.%Glidden%xref no email%0,     Janet Q.%Nguyen%xref no email%1,     Jon J.%Oskarsson%xref no email%1,     Diane%Havlir%xref no email%1,     Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,          Elizabeth J.%D'Amico%NULL%1,          Eric R.%Pedersen%NULL%1,          Rick%Garvey%NULL%1,          Anthony%Rodriguez%NULL%1,          David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,          Christian%Ramers%NULL%1,          Adam%Northrup%NULL%1,          Aaron%Tam%aaront@fhscd.org%1,          Jie%Liu%NULL%1,          Sarah%Rojas%NULL%1,          Stacey%Klaman%NULL%1,          Maureen%Khasira%NULL%1,          Jenan%Madbak%NULL%1,          Eva%Matthews%NULL%1,          Jeffrey%Norris%NULL%1,          Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,          Martha P%Montgomery%NULL%2,          Martha P%Montgomery%NULL%0,          Ann M%Buff%NULL%1,          Andrew T%Boyd%NULL%1,          Calla%Jamison%NULL%0,          Alfonso%Hernandez%NULL%1,          Kristine%Schmit%NULL%0,          Sarita%Shah%NULL%1,          Sophia%Ajoku%NULL%1,          David P%Holland%NULL%1,          Juliana%Prieto%NULL%1,          Sasha%Smith%NULL%1,          Mark A%Swancutt%NULL%1,          Kim%Turner%NULL%1,          Tom%Andrews%NULL%0,          Kevin%Flowers%NULL%1,          Alyssa%Wells%NULL%1,          Cathryn%Marchman%NULL%1,          Emaline%Laney%NULL%1,          Danae%Bixler%NULL%1,          Sean%Cavanaugh%NULL%1,          Nicole%Flowers%NULL%1,          Nicholas%Gaffga%NULL%1,          Jean Y%Ko%NULL%1,          Heather N%Paulin%NULL%1,          Mark K%Weng%NULL%1,          Emily%Mosites%NULL%0,          Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,          Patrick M%Kinley%NULL%1,          Ashley%Scarborough%NULL%0,          Caroline%Cawley%NULL%1,          Madeline%Sankaran%NULL%0,          Sarah N%Cox%NULL%1,          Margot%Kushel%NULL%1,          Juliet%Stoltey%NULL%1,          Stephanie%Cohen%NULL%0,          Jonathan D%Fuchs%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,          Elysia%Gonzales%NULL%0,          Julie L.%Self%NULL%0,          Carol Y.%Rao%NULL%0,          Ryan%Keating%NULL%0,          Grace E.%Marx%NULL%0,          Temet M.%McMichael%NULL%0,          Margaret D.%Lukoff%NULL%1,          Jeffrey S.%Duchin%NULL%1,          Karin%Huster%NULL%0,          Jody%Rauch%NULL%0,          Hedda%McLendon%NULL%1,          Matthew%Hanson%NULL%1,          Dave%Nichols%NULL%1,          Sargis%Pogosjans%NULL%1,          Meaghan%Fagalde%NULL%1,          Jennifer%Lenahan%NULL%1,          Emily%Maier%NULL%1,          Holly%Whitney%NULL%1,          Nancy%Sugg%NULL%0,          Helen%Chu%NULL%1,          Julia%Rogers%NULL%1,          Emily%Mosites%NULL%0,          Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,     Brian%Redline%xref no email%1,     Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,          Elizabeth%Samuels%NULL%1,          Rahul%Vanjani%NULL%1,          Catherine%Trimbur%NULL%1,          Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,     Melanie W.%Racine%xref no email%1,     Elizabeth%Lewis%xref no email%1,     Denise%De Las Nueces%xref no email%1,     James J.%O\u2019Connell%xref no email%1,     Barry%Bock%xref no email%1,     Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,          Josephine%Jacobs%NULL%2,          Josephine%Jacobs%NULL%0,          Maria%Yefimova%NULL%1,          Liberty%Greene%NULL%1,          Leonie%Heyworth%NULL%1,          Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,          Richard%Booth%NULL%1,          Jennifer%Rayner%NULL%1,          Kristin K.%Clemens%NULL%1,          Cheryl%Forchuk%NULL%1,          Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,           Huiting%Ma%null%1,           Kristy C.Y.%Yiu%null%1,           Andrew%Calzavara%null%1,           David%Landsman%null%1,           Linh%Luong%null%1,           Adrienne K.%Chan%null%1,           Rafal%Kustra%null%1,           Jeffrey C.%Kwong%null%1,           Marie-Claude%Boily%null%1,           Stephen%Hwang%null%1,           Sharon%Straus%null%1,           Stefan D.%Baral%null%1,           Sharmistha%Mishra%null%1,          Linwei%Wang%null%1,          Huiting%Ma%null%1,          Kristy C.Y.%Yiu%null%1,          Andrew%Calzavara%null%1,          David%Landsman%null%1,          Linh%Luong%null%1,          Adrienne K.%Chan%null%1,          Rafal%Kustra%null%1,          Jeffrey C.%Kwong%null%1,          Marie-Claude%Boily%null%1,          Stephen%Hwang%null%1,          Sharon%Straus%null%1,          Stefan D.%Baral%null%1,          Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,          Van Thuan%Hoang%NULL%2,          Ndiaw%Goumballa%NULL%2,          Meriem%Louni%NULL%2,          Naomie%Canard%NULL%2,          Thi Loi%Dao%NULL%2,          Hacene%Medkour%NULL%2,          Audrey%Borg%NULL%2,          Kevin%Bardy%NULL%2,          Véra%Esteves-Vieira%NULL%2,          Véronique%Filosa%NULL%2,          Bernard%Davoust%NULL%2,          Oleg%Mediannikov%NULL%2,          Pierre-Edouard%Fournier%NULL%2,          Didier%Raoult%NULL%2,          Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,          Bastien%Mollo%NULL%1,          Charline%Vincent%NULL%1,          Birgit%Nikolay%NULL%1,          Augusto E%Llosa%NULL%1,          Robin%Nesbitt%NULL%1,          Jessica%Vanhomwegen%NULL%1,          Thierry%Rose%NULL%1,          Sophie%Goyard%NULL%1,          François%Anna%NULL%1,          Corinne%Torre%NULL%1,          Emilie%Fourrey%NULL%1,          Erica%Simons%NULL%1,          William%Hennequin%NULL%1,          Clair%Mills%NULL%1,          Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,          Nhu Ngoc%Nguyen%NULL%1,          Van Thuan%Hoang%NULL%0,          Ndiaw%Goumballa%NULL%0,          Meriem%Louni%NULL%0,          Naomie%Canard%NULL%0,          Thi Loi%Dao%NULL%0,          Hacene%Medkour%NULL%0,          Audrey%Borg%NULL%0,          Kevin%Bardy%NULL%0,          Véra%Esteves-Vieira%NULL%0,          Véronique%Filosa%NULL%0,          Bernard%Davoust%NULL%0,          Oleg%Mediannikov%NULL%0,          Pierre-Edouard%Fournier%NULL%0,          Didier%Raoult%NULL%0,          Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,          Aldo%Morrone%NULL%1,          Andrea%Arcangeli%NULL%1,          Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,          Marc%Delforge%NULL%1,          Faustine%Lebout%NULL%1,          Thibaut%Vanbaelen%NULL%1,          Amaryl%Lecompte%NULL%1,          Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,          Pilar%Andrés%NULL%2,          Pilar%Andrés%NULL%0,          Alberto%Bullón%NULL%1,          José Luis%Villegas%NULL%2,          José Luis%Villegas%NULL%0,          Javier Ignacio%de la Iglesia-Larrad%NULL%1,          Berta%Bote%NULL%1,          Nieves%Prieto%NULL%1,          Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,           Erin M.%Parker%NULL%2,           Kristie E. N.%Clarke%NULL%1,           Jessie M.%Gaeta%NULL%1,           Travis P.%Baggett%NULL%1,           Elizabeth%Imbert%NULL%1,           Madeline%Sankaran%NULL%2,           Ashley%Scarborough%NULL%2,           Karin%Huster%NULL%2,           Matt%Hanson%NULL%1,           Elysia%Gonzales%NULL%2,           Jody%Rauch%NULL%2,           Libby%Page%NULL%1,           Temet M.%McMichael%NULL%2,           Ryan%Keating%NULL%2,           Grace E.%Marx%NULL%2,           Tom%Andrews%NULL%2,           Kristine%Schmit%NULL%2,           Sapna Bamrah%Morris%NULL%2,           Nicole F.%Dowling%NULL%2,           Georgina%Peacock%NULL%2,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Ann%Buff%NULL%1,           Calla%Jamison%NULL%2,           Ruthanne%Marcus%NULL%1,           Carol Y.%Rao%NULL%2,           Julie L.%Self%NULL%2,           Farrell%Tobolowsky%NULL%1,           Samantha%Williams%NULL%1,           Meagan%Kay%NULL%2,           Naveena%Bobba%NULL%1,           Stephanie%Cohen%NULL%2,           Jonathan%Fuchs%NULL%1,           Trang%Nguyen%NULL%1,           Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,      Harrison%Keyes%xref no email%1,      Nora%Sporn%xref no email%1,      Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,           Elizabeth S%Davis%NULL%2,           Elizabeth S%Davis%NULL%0,           Stockton%Mayer%NULL%1,           Karrie-Ann%Toews%NULL%1,           Thomas D%Huggett%NULL%1,           Nyssa%Snow-Hill%NULL%1,           Omar%Perez%NULL%1,           Mary K%Hayden%NULL%1,           Seena%Tehrani%NULL%1,           A Justine%Landi%NULL%1,           Stephanie%Crane%NULL%1,           Elizabeth%Bell%NULL%1,           Joy-Marie%Hermes%NULL%1,           Kush%Desai%NULL%1,           Michelle%Godbee%NULL%1,           Naman%Jhaveri%NULL%1,           Brian%Borah%NULL%1,           Tracy%Cable%NULL%1,           Sofia%Sami%NULL%1,           Laura%Nozicka%NULL%1,           Yi-Shin%Chang%NULL%1,           Aditi%Jagadish%NULL%1,           Mark%Chee%NULL%1,           Brynna%Thigpen%NULL%1,           Christopher%Llerena%NULL%1,           Minh%Tran%NULL%1,           Divya Meher%Surabhi%NULL%1,           Emilia D%Smith%NULL%1,           Rosemary G%Remus%NULL%1,           Roweine%Staszcuk%NULL%1,           Evelyn%Figueroa%NULL%1,           Paul%Leo%NULL%1,           Wayne M%Detmer%NULL%1,           Evan%Lyon%NULL%1,           Sarah%Carreon%NULL%1,           Stacey%Hoferka%NULL%1,           Kathleen A%Ritger%NULL%1,           Wilnise%Jasmin%NULL%1,           Prathima%Nagireddy%NULL%1,           Jennifer Y%Seo%NULL%1,           Marielle J%Fricchione%NULL%1,           Janna L%Kerins%NULL%1,           Stephanie R%Black%NULL%1,           Lisa Morrison%Butler%NULL%1,           Kimberly%Howard%NULL%1,           Maura%McCauley%NULL%1,           Todd%Fraley%NULL%1,           M Allison%Arwady%NULL%1,           Stephanie%Gretsch%NULL%1,           Megan%Cunningham%NULL%1,           Massimo%Pacilli%NULL%1,           Peter S%Ruestow%NULL%2,           Peter S%Ruestow%NULL%0,           Emily%Mosites%NULL%3,           Elizabeth%Avery%NULL%1,           Joshua%Longcoy%NULL%1,           Elizabeth B%Lynch%NULL%1,           Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,      Elizabeth%Imbert%xref no email%1,      David V.%Glidden%xref no email%2,      Jan Bing%Del Rosario%xref no email%1,      Mary%Chong%xref no email%1,      Angelo%Clemenzi-Allen%xref no email%1,      Jon%Oskarsson%xref no email%1,      Elise D.%Riley%xref no email%1,      Monica%Gandhi%xref no email%2,      Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,           Melisa Mei Jin%Tan%NULL%1,           Eva%Turk%NULL%1,           Devi%Sridhar%NULL%1,           Gabriel M%Leung%NULL%1,           Kenji%Shibuya%NULL%1,           Nima%Asgari%NULL%1,           Juhwan%Oh%NULL%1,           Alberto L%García-Basteiro%NULL%1,           Johanna%Hanefeld%NULL%1,           Alex R%Cook%NULL%1,           Li Yang%Hsu%NULL%1,           Yik Ying%Teo%NULL%1,           David%Heymann%NULL%1,           Helen%Clark%NULL%1,           Martin%McKee%NULL%1,           Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,           Erin M.%Ashe%NULL%1,           Michael%Silverstein%NULL%1,           Melissa%Hofman%NULL%1,           Samantha J.%Lange%NULL%1,           Hilda%Razzaghi%NULL%1,           Rebecca G.%Mishuris%NULL%1,           Ravin%Davidoff%NULL%1,           Erin M.%Parker%NULL%0,           Ana%Penman-Aguilar%NULL%1,           Kristie E.N.%Clarke%NULL%1,           Anna%Goldman%NULL%1,           Thea L.%James%NULL%1,           Karen%Jacobson%NULL%1,           Karen E.%Lasser%NULL%1,           Ziming%Xuan%NULL%1,           Georgina%Peacock%NULL%0,           Nicole F.%Dowling%NULL%0,           Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,           Alexander%Winnett%NULL%2,           Alexander%Winnett%NULL%0,           Christopher J.%Graber%NULL%2,           Christopher J.%Graber%NULL%0,           John%Vallone%NULL%1,           David O.%Beenhouwer%NULL%1,           Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,           Holly%Murphy%NULL%1,           Ravi%Vadlamudi%NULL%2,           Ravi%Vadlamudi%NULL%0,           Ruth%Kraut%NULL%1,           Kate%Dalessio%NULL%1,           Anurag N.%Malani%NULL%1,           Meghan%Glabach%NULL%1,           Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,           Amy C.%Link%NULL%2,           Amy C.%Link%NULL%0,           Denise%McCulloch%NULL%1,           Elisabeth%Brandstetter%NULL%1,           Kira L.%Newman%NULL%2,           Kira L.%Newman%NULL%0,           Michael L.%Jackson%NULL%2,           Michael L.%Jackson%NULL%0,           James P.%Hughes%NULL%2,           James P.%Hughes%NULL%0,           Janet A.%Englund%NULL%2,           Janet A.%Englund%NULL%0,           Michael%Boeckh%NULL%2,           Michael%Boeckh%NULL%0,           Nancy%Sugg%NULL%2,           Misja%Ilcisin%NULL%1,           Thomas R.%Sibley%NULL%2,           Thomas R.%Sibley%NULL%0,           Kairsten%Fay%NULL%2,           Kairsten%Fay%NULL%0,           Jover%Lee%NULL%2,           Jover%Lee%NULL%0,           Peter%Han%NULL%2,           Peter%Han%NULL%0,           Melissa%Truong%NULL%1,           Matthew%Richardson%NULL%2,           Matthew%Richardson%NULL%0,           Deborah A.%Nickerson%NULL%2,           Deborah A.%Nickerson%NULL%0,           Lea M.%Starita%NULL%1,           Trevor%Bedford%NULL%2,           Trevor%Bedford%NULL%0,           Helen Y.%Chu%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,      Matthew D.%Hickey%xref no email%1,      David V.%Glidden%xref no email%0,      Janet Q.%Nguyen%xref no email%1,      Jon J.%Oskarsson%xref no email%1,      Diane%Havlir%xref no email%1,      Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,           Elizabeth J.%D'Amico%NULL%1,           Eric R.%Pedersen%NULL%1,           Rick%Garvey%NULL%1,           Anthony%Rodriguez%NULL%1,           David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,           Christian%Ramers%NULL%1,           Adam%Northrup%NULL%1,           Aaron%Tam%aaront@fhscd.org%1,           Jie%Liu%NULL%1,           Sarah%Rojas%NULL%1,           Stacey%Klaman%NULL%1,           Maureen%Khasira%NULL%1,           Jenan%Madbak%NULL%1,           Eva%Matthews%NULL%1,           Jeffrey%Norris%NULL%1,           Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,           Martha P%Montgomery%NULL%2,           Martha P%Montgomery%NULL%0,           Ann M%Buff%NULL%1,           Andrew T%Boyd%NULL%1,           Calla%Jamison%NULL%0,           Alfonso%Hernandez%NULL%1,           Kristine%Schmit%NULL%0,           Sarita%Shah%NULL%1,           Sophia%Ajoku%NULL%1,           David P%Holland%NULL%1,           Juliana%Prieto%NULL%1,           Sasha%Smith%NULL%1,           Mark A%Swancutt%NULL%1,           Kim%Turner%NULL%1,           Tom%Andrews%NULL%0,           Kevin%Flowers%NULL%1,           Alyssa%Wells%NULL%1,           Cathryn%Marchman%NULL%1,           Emaline%Laney%NULL%1,           Danae%Bixler%NULL%1,           Sean%Cavanaugh%NULL%1,           Nicole%Flowers%NULL%1,           Nicholas%Gaffga%NULL%1,           Jean Y%Ko%NULL%1,           Heather N%Paulin%NULL%1,           Mark K%Weng%NULL%1,           Emily%Mosites%NULL%0,           Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,           Patrick M%Kinley%NULL%1,           Ashley%Scarborough%NULL%0,           Caroline%Cawley%NULL%1,           Madeline%Sankaran%NULL%0,           Sarah N%Cox%NULL%1,           Margot%Kushel%NULL%1,           Juliet%Stoltey%NULL%1,           Stephanie%Cohen%NULL%0,           Jonathan D%Fuchs%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,           Elysia%Gonzales%NULL%0,           Julie L.%Self%NULL%0,           Carol Y.%Rao%NULL%0,           Ryan%Keating%NULL%0,           Grace E.%Marx%NULL%0,           Temet M.%McMichael%NULL%0,           Margaret D.%Lukoff%NULL%1,           Jeffrey S.%Duchin%NULL%1,           Karin%Huster%NULL%0,           Jody%Rauch%NULL%0,           Hedda%McLendon%NULL%1,           Matthew%Hanson%NULL%1,           Dave%Nichols%NULL%1,           Sargis%Pogosjans%NULL%1,           Meaghan%Fagalde%NULL%1,           Jennifer%Lenahan%NULL%1,           Emily%Maier%NULL%1,           Holly%Whitney%NULL%1,           Nancy%Sugg%NULL%0,           Helen%Chu%NULL%1,           Julia%Rogers%NULL%1,           Emily%Mosites%NULL%0,           Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,      Brian%Redline%xref no email%1,      Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,           Elizabeth%Samuels%NULL%1,           Rahul%Vanjani%NULL%1,           Catherine%Trimbur%NULL%1,           Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,      Melanie W.%Racine%xref no email%1,      Elizabeth%Lewis%xref no email%1,      Denise%De Las Nueces%xref no email%1,      James J.%O\u2019Connell%xref no email%1,      Barry%Bock%xref no email%1,      Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,           Josephine%Jacobs%NULL%2,           Josephine%Jacobs%NULL%0,           Maria%Yefimova%NULL%1,           Liberty%Greene%NULL%1,           Leonie%Heyworth%NULL%1,           Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,           Richard%Booth%NULL%1,           Jennifer%Rayner%NULL%1,           Kristin K.%Clemens%NULL%1,           Cheryl%Forchuk%NULL%1,           Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,            Huiting%Ma%null%1,            Kristy C.Y.%Yiu%null%1,            Andrew%Calzavara%null%1,            David%Landsman%null%1,            Linh%Luong%null%1,            Adrienne K.%Chan%null%1,            Rafal%Kustra%null%1,            Jeffrey C.%Kwong%null%1,            Marie-Claude%Boily%null%1,            Stephen%Hwang%null%1,            Sharon%Straus%null%1,            Stefan D.%Baral%null%1,            Sharmistha%Mishra%null%1,           Linwei%Wang%null%1,           Huiting%Ma%null%1,           Kristy C.Y.%Yiu%null%1,           Andrew%Calzavara%null%1,           David%Landsman%null%1,           Linh%Luong%null%1,           Adrienne K.%Chan%null%1,           Rafal%Kustra%null%1,           Jeffrey C.%Kwong%null%1,           Marie-Claude%Boily%null%1,           Stephen%Hwang%null%1,           Sharon%Straus%null%1,           Stefan D.%Baral%null%1,           Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,           Van Thuan%Hoang%NULL%2,           Ndiaw%Goumballa%NULL%2,           Meriem%Louni%NULL%2,           Naomie%Canard%NULL%2,           Thi Loi%Dao%NULL%2,           Hacene%Medkour%NULL%2,           Audrey%Borg%NULL%2,           Kevin%Bardy%NULL%2,           Véra%Esteves-Vieira%NULL%2,           Véronique%Filosa%NULL%2,           Bernard%Davoust%NULL%2,           Oleg%Mediannikov%NULL%2,           Pierre-Edouard%Fournier%NULL%2,           Didier%Raoult%NULL%2,           Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,           Bastien%Mollo%NULL%1,           Charline%Vincent%NULL%1,           Birgit%Nikolay%NULL%1,           Augusto E%Llosa%NULL%1,           Robin%Nesbitt%NULL%1,           Jessica%Vanhomwegen%NULL%1,           Thierry%Rose%NULL%1,           Sophie%Goyard%NULL%1,           François%Anna%NULL%1,           Corinne%Torre%NULL%1,           Emilie%Fourrey%NULL%1,           Erica%Simons%NULL%1,           William%Hennequin%NULL%1,           Clair%Mills%NULL%1,           Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,           Nhu Ngoc%Nguyen%NULL%1,           Van Thuan%Hoang%NULL%0,           Ndiaw%Goumballa%NULL%0,           Meriem%Louni%NULL%0,           Naomie%Canard%NULL%0,           Thi Loi%Dao%NULL%0,           Hacene%Medkour%NULL%0,           Audrey%Borg%NULL%0,           Kevin%Bardy%NULL%0,           Véra%Esteves-Vieira%NULL%0,           Véronique%Filosa%NULL%0,           Bernard%Davoust%NULL%0,           Oleg%Mediannikov%NULL%0,           Pierre-Edouard%Fournier%NULL%0,           Didier%Raoult%NULL%0,           Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,           Aldo%Morrone%NULL%1,           Andrea%Arcangeli%NULL%1,           Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,           Marc%Delforge%NULL%1,           Faustine%Lebout%NULL%1,           Thibaut%Vanbaelen%NULL%1,           Amaryl%Lecompte%NULL%1,           Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,           Pilar%Andrés%NULL%2,           Pilar%Andrés%NULL%0,           Alberto%Bullón%NULL%1,           José Luis%Villegas%NULL%2,           José Luis%Villegas%NULL%0,           Javier Ignacio%de la Iglesia-Larrad%NULL%1,           Berta%Bote%NULL%1,           Nieves%Prieto%NULL%1,           Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1836,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1703,7 +1865,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1732,7 +1894,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1761,7 +1923,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1790,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1819,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1848,7 +2010,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1877,7 +2039,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1906,7 +2068,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -1935,7 +2097,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -1964,7 +2126,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1993,7 +2155,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2022,7 +2184,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2051,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2080,7 +2242,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2109,7 +2271,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2138,7 +2300,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2167,7 +2329,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2196,7 +2358,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2225,7 +2387,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2254,7 +2416,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2283,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2312,7 +2474,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2341,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2370,7 +2532,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2399,7 +2561,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2428,7 +2590,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="434">
   <si>
     <t>Doi</t>
   </si>
@@ -1420,6 +1420,87 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,           Pilar%Andrés%NULL%2,           Pilar%Andrés%NULL%0,           Alberto%Bullón%NULL%1,           José Luis%Villegas%NULL%2,           José Luis%Villegas%NULL%0,           Javier Ignacio%de la Iglesia-Larrad%NULL%1,           Berta%Bote%NULL%1,           Nieves%Prieto%NULL%1,           Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,            Erin M.%Parker%NULL%2,            Kristie E. N.%Clarke%NULL%1,            Jessie M.%Gaeta%NULL%1,            Travis P.%Baggett%NULL%1,            Elizabeth%Imbert%NULL%1,            Madeline%Sankaran%NULL%2,            Ashley%Scarborough%NULL%2,            Karin%Huster%NULL%2,            Matt%Hanson%NULL%1,            Elysia%Gonzales%NULL%2,            Jody%Rauch%NULL%2,            Libby%Page%NULL%1,            Temet M.%McMichael%NULL%2,            Ryan%Keating%NULL%2,            Grace E.%Marx%NULL%2,            Tom%Andrews%NULL%2,            Kristine%Schmit%NULL%2,            Sapna Bamrah%Morris%NULL%2,            Nicole F.%Dowling%NULL%2,            Georgina%Peacock%NULL%2,            NULL%NULL%NULL%5,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Ann%Buff%NULL%1,            Calla%Jamison%NULL%2,            Ruthanne%Marcus%NULL%1,            Carol Y.%Rao%NULL%2,            Julie L.%Self%NULL%2,            Farrell%Tobolowsky%NULL%1,            Samantha%Williams%NULL%1,            Meagan%Kay%NULL%2,            Naveena%Bobba%NULL%1,            Stephanie%Cohen%NULL%2,            Jonathan%Fuchs%NULL%1,            Trang%Nguyen%NULL%1,            Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,       Harrison%Keyes%xref no email%1,       Nora%Sporn%xref no email%1,       Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,            Elizabeth S%Davis%NULL%2,            Elizabeth S%Davis%NULL%0,            Stockton%Mayer%NULL%1,            Karrie-Ann%Toews%NULL%1,            Thomas D%Huggett%NULL%1,            Nyssa%Snow-Hill%NULL%1,            Omar%Perez%NULL%1,            Mary K%Hayden%NULL%1,            Seena%Tehrani%NULL%1,            A Justine%Landi%NULL%1,            Stephanie%Crane%NULL%1,            Elizabeth%Bell%NULL%1,            Joy-Marie%Hermes%NULL%1,            Kush%Desai%NULL%1,            Michelle%Godbee%NULL%1,            Naman%Jhaveri%NULL%1,            Brian%Borah%NULL%1,            Tracy%Cable%NULL%1,            Sofia%Sami%NULL%1,            Laura%Nozicka%NULL%1,            Yi-Shin%Chang%NULL%1,            Aditi%Jagadish%NULL%1,            Mark%Chee%NULL%1,            Brynna%Thigpen%NULL%1,            Christopher%Llerena%NULL%1,            Minh%Tran%NULL%1,            Divya Meher%Surabhi%NULL%1,            Emilia D%Smith%NULL%1,            Rosemary G%Remus%NULL%1,            Roweine%Staszcuk%NULL%1,            Evelyn%Figueroa%NULL%1,            Paul%Leo%NULL%1,            Wayne M%Detmer%NULL%1,            Evan%Lyon%NULL%1,            Sarah%Carreon%NULL%1,            Stacey%Hoferka%NULL%1,            Kathleen A%Ritger%NULL%1,            Wilnise%Jasmin%NULL%1,            Prathima%Nagireddy%NULL%1,            Jennifer Y%Seo%NULL%1,            Marielle J%Fricchione%NULL%1,            Janna L%Kerins%NULL%1,            Stephanie R%Black%NULL%1,            Lisa Morrison%Butler%NULL%1,            Kimberly%Howard%NULL%1,            Maura%McCauley%NULL%1,            Todd%Fraley%NULL%1,            M Allison%Arwady%NULL%1,            Stephanie%Gretsch%NULL%1,            Megan%Cunningham%NULL%1,            Massimo%Pacilli%NULL%1,            Peter S%Ruestow%NULL%2,            Peter S%Ruestow%NULL%0,            Emily%Mosites%NULL%3,            Elizabeth%Avery%NULL%1,            Joshua%Longcoy%NULL%1,            Elizabeth B%Lynch%NULL%1,            Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,       Elizabeth%Imbert%xref no email%1,       David V.%Glidden%xref no email%2,       Jan Bing%Del Rosario%xref no email%1,       Mary%Chong%xref no email%1,       Angelo%Clemenzi-Allen%xref no email%1,       Jon%Oskarsson%xref no email%1,       Elise D.%Riley%xref no email%1,       Monica%Gandhi%xref no email%2,       Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,            Melisa Mei Jin%Tan%NULL%1,            Eva%Turk%NULL%1,            Devi%Sridhar%NULL%1,            Gabriel M%Leung%NULL%1,            Kenji%Shibuya%NULL%1,            Nima%Asgari%NULL%1,            Juhwan%Oh%NULL%1,            Alberto L%García-Basteiro%NULL%1,            Johanna%Hanefeld%NULL%1,            Alex R%Cook%NULL%1,            Li Yang%Hsu%NULL%1,            Yik Ying%Teo%NULL%1,            David%Heymann%NULL%1,            Helen%Clark%NULL%1,            Martin%McKee%NULL%1,            Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,            Erin M.%Ashe%NULL%1,            Michael%Silverstein%NULL%1,            Melissa%Hofman%NULL%1,            Samantha J.%Lange%NULL%1,            Hilda%Razzaghi%NULL%1,            Rebecca G.%Mishuris%NULL%1,            Ravin%Davidoff%NULL%1,            Erin M.%Parker%NULL%0,            Ana%Penman-Aguilar%NULL%1,            Kristie E.N.%Clarke%NULL%1,            Anna%Goldman%NULL%1,            Thea L.%James%NULL%1,            Karen%Jacobson%NULL%1,            Karen E.%Lasser%NULL%1,            Ziming%Xuan%NULL%1,            Georgina%Peacock%NULL%0,            Nicole F.%Dowling%NULL%0,            Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,            Alexander%Winnett%NULL%2,            Alexander%Winnett%NULL%0,            Christopher J.%Graber%NULL%2,            Christopher J.%Graber%NULL%0,            John%Vallone%NULL%1,            David O.%Beenhouwer%NULL%1,            Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,            Holly%Murphy%NULL%1,            Ravi%Vadlamudi%NULL%2,            Ravi%Vadlamudi%NULL%0,            Ruth%Kraut%NULL%1,            Kate%Dalessio%NULL%1,            Anurag N.%Malani%NULL%1,            Meghan%Glabach%NULL%1,            Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,            Amy C.%Link%NULL%2,            Amy C.%Link%NULL%0,            Denise%McCulloch%NULL%1,            Elisabeth%Brandstetter%NULL%1,            Kira L.%Newman%NULL%2,            Kira L.%Newman%NULL%0,            Michael L.%Jackson%NULL%2,            Michael L.%Jackson%NULL%0,            James P.%Hughes%NULL%2,            James P.%Hughes%NULL%0,            Janet A.%Englund%NULL%2,            Janet A.%Englund%NULL%0,            Michael%Boeckh%NULL%2,            Michael%Boeckh%NULL%0,            Nancy%Sugg%NULL%2,            Misja%Ilcisin%NULL%1,            Thomas R.%Sibley%NULL%2,            Thomas R.%Sibley%NULL%0,            Kairsten%Fay%NULL%2,            Kairsten%Fay%NULL%0,            Jover%Lee%NULL%2,            Jover%Lee%NULL%0,            Peter%Han%NULL%2,            Peter%Han%NULL%0,            Melissa%Truong%NULL%1,            Matthew%Richardson%NULL%2,            Matthew%Richardson%NULL%0,            Deborah A.%Nickerson%NULL%2,            Deborah A.%Nickerson%NULL%0,            Lea M.%Starita%NULL%1,            Trevor%Bedford%NULL%2,            Trevor%Bedford%NULL%0,            Helen Y.%Chu%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,       Matthew D.%Hickey%xref no email%1,       David V.%Glidden%xref no email%0,       Janet Q.%Nguyen%xref no email%1,       Jon J.%Oskarsson%xref no email%1,       Diane%Havlir%xref no email%1,       Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,            Elizabeth J.%D'Amico%NULL%1,            Eric R.%Pedersen%NULL%1,            Rick%Garvey%NULL%1,            Anthony%Rodriguez%NULL%1,            David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,            Christian%Ramers%NULL%1,            Adam%Northrup%NULL%1,            Aaron%Tam%aaront@fhscd.org%1,            Jie%Liu%NULL%1,            Sarah%Rojas%NULL%1,            Stacey%Klaman%NULL%1,            Maureen%Khasira%NULL%1,            Jenan%Madbak%NULL%1,            Eva%Matthews%NULL%1,            Jeffrey%Norris%NULL%1,            Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,            Martha P%Montgomery%NULL%2,            Martha P%Montgomery%NULL%0,            Ann M%Buff%NULL%1,            Andrew T%Boyd%NULL%1,            Calla%Jamison%NULL%0,            Alfonso%Hernandez%NULL%1,            Kristine%Schmit%NULL%0,            Sarita%Shah%NULL%1,            Sophia%Ajoku%NULL%1,            David P%Holland%NULL%1,            Juliana%Prieto%NULL%1,            Sasha%Smith%NULL%1,            Mark A%Swancutt%NULL%1,            Kim%Turner%NULL%1,            Tom%Andrews%NULL%0,            Kevin%Flowers%NULL%1,            Alyssa%Wells%NULL%1,            Cathryn%Marchman%NULL%1,            Emaline%Laney%NULL%1,            Danae%Bixler%NULL%1,            Sean%Cavanaugh%NULL%1,            Nicole%Flowers%NULL%1,            Nicholas%Gaffga%NULL%1,            Jean Y%Ko%NULL%1,            Heather N%Paulin%NULL%1,            Mark K%Weng%NULL%1,            Emily%Mosites%NULL%0,            Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,            Patrick M%Kinley%NULL%1,            Ashley%Scarborough%NULL%0,            Caroline%Cawley%NULL%1,            Madeline%Sankaran%NULL%0,            Sarah N%Cox%NULL%1,            Margot%Kushel%NULL%1,            Juliet%Stoltey%NULL%1,            Stephanie%Cohen%NULL%0,            Jonathan D%Fuchs%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,            Elysia%Gonzales%NULL%0,            Julie L.%Self%NULL%0,            Carol Y.%Rao%NULL%0,            Ryan%Keating%NULL%0,            Grace E.%Marx%NULL%0,            Temet M.%McMichael%NULL%0,            Margaret D.%Lukoff%NULL%1,            Jeffrey S.%Duchin%NULL%1,            Karin%Huster%NULL%0,            Jody%Rauch%NULL%0,            Hedda%McLendon%NULL%1,            Matthew%Hanson%NULL%1,            Dave%Nichols%NULL%1,            Sargis%Pogosjans%NULL%1,            Meaghan%Fagalde%NULL%1,            Jennifer%Lenahan%NULL%1,            Emily%Maier%NULL%1,            Holly%Whitney%NULL%1,            Nancy%Sugg%NULL%0,            Helen%Chu%NULL%1,            Julia%Rogers%NULL%1,            Emily%Mosites%NULL%0,            Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,       Brian%Redline%xref no email%1,       Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,            Elizabeth%Samuels%NULL%1,            Rahul%Vanjani%NULL%1,            Catherine%Trimbur%NULL%1,            Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,       Melanie W.%Racine%xref no email%1,       Elizabeth%Lewis%xref no email%1,       Denise%De Las Nueces%xref no email%1,       James J.%O\u2019Connell%xref no email%1,       Barry%Bock%xref no email%1,       Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,            Josephine%Jacobs%NULL%2,            Josephine%Jacobs%NULL%0,            Maria%Yefimova%NULL%1,            Liberty%Greene%NULL%1,            Leonie%Heyworth%NULL%1,            Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,            Richard%Booth%NULL%1,            Jennifer%Rayner%NULL%1,            Kristin K.%Clemens%NULL%1,            Cheryl%Forchuk%NULL%1,            Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,             Huiting%Ma%null%1,             Kristy C.Y.%Yiu%null%1,             Andrew%Calzavara%null%1,             David%Landsman%null%1,             Linh%Luong%null%1,             Adrienne K.%Chan%null%1,             Rafal%Kustra%null%1,             Jeffrey C.%Kwong%null%1,             Marie-Claude%Boily%null%1,             Stephen%Hwang%null%1,             Sharon%Straus%null%1,             Stefan D.%Baral%null%1,             Sharmistha%Mishra%null%1,            Linwei%Wang%null%1,            Huiting%Ma%null%1,            Kristy C.Y.%Yiu%null%1,            Andrew%Calzavara%null%1,            David%Landsman%null%1,            Linh%Luong%null%1,            Adrienne K.%Chan%null%1,            Rafal%Kustra%null%1,            Jeffrey C.%Kwong%null%1,            Marie-Claude%Boily%null%1,            Stephen%Hwang%null%1,            Sharon%Straus%null%1,            Stefan D.%Baral%null%1,            Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,            Van Thuan%Hoang%NULL%2,            Ndiaw%Goumballa%NULL%2,            Meriem%Louni%NULL%2,            Naomie%Canard%NULL%2,            Thi Loi%Dao%NULL%2,            Hacene%Medkour%NULL%2,            Audrey%Borg%NULL%2,            Kevin%Bardy%NULL%2,            Véra%Esteves-Vieira%NULL%2,            Véronique%Filosa%NULL%2,            Bernard%Davoust%NULL%2,            Oleg%Mediannikov%NULL%2,            Pierre-Edouard%Fournier%NULL%2,            Didier%Raoult%NULL%2,            Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,            Bastien%Mollo%NULL%1,            Charline%Vincent%NULL%1,            Birgit%Nikolay%NULL%1,            Augusto E%Llosa%NULL%1,            Robin%Nesbitt%NULL%1,            Jessica%Vanhomwegen%NULL%1,            Thierry%Rose%NULL%1,            Sophie%Goyard%NULL%1,            François%Anna%NULL%1,            Corinne%Torre%NULL%1,            Emilie%Fourrey%NULL%1,            Erica%Simons%NULL%1,            William%Hennequin%NULL%1,            Clair%Mills%NULL%1,            Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,            Nhu Ngoc%Nguyen%NULL%1,            Van Thuan%Hoang%NULL%0,            Ndiaw%Goumballa%NULL%0,            Meriem%Louni%NULL%0,            Naomie%Canard%NULL%0,            Thi Loi%Dao%NULL%0,            Hacene%Medkour%NULL%0,            Audrey%Borg%NULL%0,            Kevin%Bardy%NULL%0,            Véra%Esteves-Vieira%NULL%0,            Véronique%Filosa%NULL%0,            Bernard%Davoust%NULL%0,            Oleg%Mediannikov%NULL%0,            Pierre-Edouard%Fournier%NULL%0,            Didier%Raoult%NULL%0,            Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,            Aldo%Morrone%NULL%1,            Andrea%Arcangeli%NULL%1,            Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,            Marc%Delforge%NULL%1,            Faustine%Lebout%NULL%1,            Thibaut%Vanbaelen%NULL%1,            Amaryl%Lecompte%NULL%1,            Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,            Pilar%Andrés%NULL%2,            Pilar%Andrés%NULL%0,            Alberto%Bullón%NULL%1,            José Luis%Villegas%NULL%2,            José Luis%Villegas%NULL%0,            Javier Ignacio%de la Iglesia-Larrad%NULL%1,            Berta%Bote%NULL%1,            Nieves%Prieto%NULL%1,            Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1917,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1865,7 +1946,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1894,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1923,7 +2004,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1952,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1981,7 +2062,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2010,7 +2091,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2039,7 +2120,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2068,7 +2149,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2097,7 +2178,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2126,7 +2207,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2155,7 +2236,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2184,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2213,7 +2294,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2242,7 +2323,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2271,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2300,7 +2381,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2329,7 +2410,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2358,7 +2439,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2387,7 +2468,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2416,7 +2497,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2445,7 +2526,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2474,7 +2555,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2503,7 +2584,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2532,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2561,7 +2642,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2590,7 +2671,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="461">
   <si>
     <t>Doi</t>
   </si>
@@ -1501,6 +1501,87 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,            Pilar%Andrés%NULL%2,            Pilar%Andrés%NULL%0,            Alberto%Bullón%NULL%1,            José Luis%Villegas%NULL%2,            José Luis%Villegas%NULL%0,            Javier Ignacio%de la Iglesia-Larrad%NULL%1,            Berta%Bote%NULL%1,            Nieves%Prieto%NULL%1,            Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,             Erin M.%Parker%NULL%2,             Kristie E. N.%Clarke%NULL%1,             Jessie M.%Gaeta%NULL%1,             Travis P.%Baggett%NULL%1,             Elizabeth%Imbert%NULL%1,             Madeline%Sankaran%NULL%2,             Ashley%Scarborough%NULL%2,             Karin%Huster%NULL%2,             Matt%Hanson%NULL%1,             Elysia%Gonzales%NULL%2,             Jody%Rauch%NULL%2,             Libby%Page%NULL%1,             Temet M.%McMichael%NULL%2,             Ryan%Keating%NULL%2,             Grace E.%Marx%NULL%2,             Tom%Andrews%NULL%2,             Kristine%Schmit%NULL%2,             Sapna Bamrah%Morris%NULL%2,             Nicole F.%Dowling%NULL%2,             Georgina%Peacock%NULL%2,             NULL%NULL%NULL%5,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Ann%Buff%NULL%1,             Calla%Jamison%NULL%2,             Ruthanne%Marcus%NULL%1,             Carol Y.%Rao%NULL%2,             Julie L.%Self%NULL%2,             Farrell%Tobolowsky%NULL%1,             Samantha%Williams%NULL%1,             Meagan%Kay%NULL%2,             Naveena%Bobba%NULL%1,             Stephanie%Cohen%NULL%2,             Jonathan%Fuchs%NULL%1,             Trang%Nguyen%NULL%1,             Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,        Harrison%Keyes%xref no email%1,        Nora%Sporn%xref no email%1,        Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,             Elizabeth S%Davis%NULL%2,             Elizabeth S%Davis%NULL%0,             Stockton%Mayer%NULL%1,             Karrie-Ann%Toews%NULL%1,             Thomas D%Huggett%NULL%1,             Nyssa%Snow-Hill%NULL%1,             Omar%Perez%NULL%1,             Mary K%Hayden%NULL%1,             Seena%Tehrani%NULL%1,             A Justine%Landi%NULL%1,             Stephanie%Crane%NULL%1,             Elizabeth%Bell%NULL%1,             Joy-Marie%Hermes%NULL%1,             Kush%Desai%NULL%1,             Michelle%Godbee%NULL%1,             Naman%Jhaveri%NULL%1,             Brian%Borah%NULL%1,             Tracy%Cable%NULL%1,             Sofia%Sami%NULL%1,             Laura%Nozicka%NULL%1,             Yi-Shin%Chang%NULL%1,             Aditi%Jagadish%NULL%1,             Mark%Chee%NULL%1,             Brynna%Thigpen%NULL%1,             Christopher%Llerena%NULL%1,             Minh%Tran%NULL%1,             Divya Meher%Surabhi%NULL%1,             Emilia D%Smith%NULL%1,             Rosemary G%Remus%NULL%1,             Roweine%Staszcuk%NULL%1,             Evelyn%Figueroa%NULL%1,             Paul%Leo%NULL%1,             Wayne M%Detmer%NULL%1,             Evan%Lyon%NULL%1,             Sarah%Carreon%NULL%1,             Stacey%Hoferka%NULL%1,             Kathleen A%Ritger%NULL%1,             Wilnise%Jasmin%NULL%1,             Prathima%Nagireddy%NULL%1,             Jennifer Y%Seo%NULL%1,             Marielle J%Fricchione%NULL%1,             Janna L%Kerins%NULL%1,             Stephanie R%Black%NULL%1,             Lisa Morrison%Butler%NULL%1,             Kimberly%Howard%NULL%1,             Maura%McCauley%NULL%1,             Todd%Fraley%NULL%1,             M Allison%Arwady%NULL%1,             Stephanie%Gretsch%NULL%1,             Megan%Cunningham%NULL%1,             Massimo%Pacilli%NULL%1,             Peter S%Ruestow%NULL%2,             Peter S%Ruestow%NULL%0,             Emily%Mosites%NULL%3,             Elizabeth%Avery%NULL%1,             Joshua%Longcoy%NULL%1,             Elizabeth B%Lynch%NULL%1,             Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,        Elizabeth%Imbert%xref no email%1,        David V.%Glidden%xref no email%2,        Jan Bing%Del Rosario%xref no email%1,        Mary%Chong%xref no email%1,        Angelo%Clemenzi-Allen%xref no email%1,        Jon%Oskarsson%xref no email%1,        Elise D.%Riley%xref no email%1,        Monica%Gandhi%xref no email%2,        Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,             Melisa Mei Jin%Tan%NULL%1,             Eva%Turk%NULL%1,             Devi%Sridhar%NULL%1,             Gabriel M%Leung%NULL%1,             Kenji%Shibuya%NULL%1,             Nima%Asgari%NULL%1,             Juhwan%Oh%NULL%1,             Alberto L%García-Basteiro%NULL%1,             Johanna%Hanefeld%NULL%1,             Alex R%Cook%NULL%1,             Li Yang%Hsu%NULL%1,             Yik Ying%Teo%NULL%1,             David%Heymann%NULL%1,             Helen%Clark%NULL%1,             Martin%McKee%NULL%1,             Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,             Erin M.%Ashe%NULL%1,             Michael%Silverstein%NULL%1,             Melissa%Hofman%NULL%1,             Samantha J.%Lange%NULL%1,             Hilda%Razzaghi%NULL%1,             Rebecca G.%Mishuris%NULL%1,             Ravin%Davidoff%NULL%1,             Erin M.%Parker%NULL%0,             Ana%Penman-Aguilar%NULL%1,             Kristie E.N.%Clarke%NULL%1,             Anna%Goldman%NULL%1,             Thea L.%James%NULL%1,             Karen%Jacobson%NULL%1,             Karen E.%Lasser%NULL%1,             Ziming%Xuan%NULL%1,             Georgina%Peacock%NULL%0,             Nicole F.%Dowling%NULL%0,             Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,             Alexander%Winnett%NULL%2,             Alexander%Winnett%NULL%0,             Christopher J.%Graber%NULL%2,             Christopher J.%Graber%NULL%0,             John%Vallone%NULL%1,             David O.%Beenhouwer%NULL%1,             Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,             Holly%Murphy%NULL%1,             Ravi%Vadlamudi%NULL%2,             Ravi%Vadlamudi%NULL%0,             Ruth%Kraut%NULL%1,             Kate%Dalessio%NULL%1,             Anurag N.%Malani%NULL%1,             Meghan%Glabach%NULL%1,             Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,             Amy C.%Link%NULL%2,             Amy C.%Link%NULL%0,             Denise%McCulloch%NULL%1,             Elisabeth%Brandstetter%NULL%1,             Kira L.%Newman%NULL%2,             Kira L.%Newman%NULL%0,             Michael L.%Jackson%NULL%2,             Michael L.%Jackson%NULL%0,             James P.%Hughes%NULL%2,             James P.%Hughes%NULL%0,             Janet A.%Englund%NULL%2,             Janet A.%Englund%NULL%0,             Michael%Boeckh%NULL%2,             Michael%Boeckh%NULL%0,             Nancy%Sugg%NULL%2,             Misja%Ilcisin%NULL%1,             Thomas R.%Sibley%NULL%2,             Thomas R.%Sibley%NULL%0,             Kairsten%Fay%NULL%2,             Kairsten%Fay%NULL%0,             Jover%Lee%NULL%2,             Jover%Lee%NULL%0,             Peter%Han%NULL%2,             Peter%Han%NULL%0,             Melissa%Truong%NULL%1,             Matthew%Richardson%NULL%2,             Matthew%Richardson%NULL%0,             Deborah A.%Nickerson%NULL%2,             Deborah A.%Nickerson%NULL%0,             Lea M.%Starita%NULL%1,             Trevor%Bedford%NULL%2,             Trevor%Bedford%NULL%0,             Helen Y.%Chu%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,        Matthew D.%Hickey%xref no email%1,        David V.%Glidden%xref no email%0,        Janet Q.%Nguyen%xref no email%1,        Jon J.%Oskarsson%xref no email%1,        Diane%Havlir%xref no email%1,        Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,             Elizabeth J.%D'Amico%NULL%1,             Eric R.%Pedersen%NULL%1,             Rick%Garvey%NULL%1,             Anthony%Rodriguez%NULL%1,             David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,             Christian%Ramers%NULL%1,             Adam%Northrup%NULL%1,             Aaron%Tam%aaront@fhscd.org%1,             Jie%Liu%NULL%1,             Sarah%Rojas%NULL%1,             Stacey%Klaman%NULL%1,             Maureen%Khasira%NULL%1,             Jenan%Madbak%NULL%1,             Eva%Matthews%NULL%1,             Jeffrey%Norris%NULL%1,             Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,             Martha P%Montgomery%NULL%2,             Martha P%Montgomery%NULL%0,             Ann M%Buff%NULL%1,             Andrew T%Boyd%NULL%1,             Calla%Jamison%NULL%0,             Alfonso%Hernandez%NULL%1,             Kristine%Schmit%NULL%0,             Sarita%Shah%NULL%1,             Sophia%Ajoku%NULL%1,             David P%Holland%NULL%1,             Juliana%Prieto%NULL%1,             Sasha%Smith%NULL%1,             Mark A%Swancutt%NULL%1,             Kim%Turner%NULL%1,             Tom%Andrews%NULL%0,             Kevin%Flowers%NULL%1,             Alyssa%Wells%NULL%1,             Cathryn%Marchman%NULL%1,             Emaline%Laney%NULL%1,             Danae%Bixler%NULL%1,             Sean%Cavanaugh%NULL%1,             Nicole%Flowers%NULL%1,             Nicholas%Gaffga%NULL%1,             Jean Y%Ko%NULL%1,             Heather N%Paulin%NULL%1,             Mark K%Weng%NULL%1,             Emily%Mosites%NULL%0,             Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,             Patrick M%Kinley%NULL%1,             Ashley%Scarborough%NULL%0,             Caroline%Cawley%NULL%1,             Madeline%Sankaran%NULL%0,             Sarah N%Cox%NULL%1,             Margot%Kushel%NULL%1,             Juliet%Stoltey%NULL%1,             Stephanie%Cohen%NULL%0,             Jonathan D%Fuchs%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,             Elysia%Gonzales%NULL%0,             Julie L.%Self%NULL%0,             Carol Y.%Rao%NULL%0,             Ryan%Keating%NULL%0,             Grace E.%Marx%NULL%0,             Temet M.%McMichael%NULL%0,             Margaret D.%Lukoff%NULL%1,             Jeffrey S.%Duchin%NULL%1,             Karin%Huster%NULL%0,             Jody%Rauch%NULL%0,             Hedda%McLendon%NULL%1,             Matthew%Hanson%NULL%1,             Dave%Nichols%NULL%1,             Sargis%Pogosjans%NULL%1,             Meaghan%Fagalde%NULL%1,             Jennifer%Lenahan%NULL%1,             Emily%Maier%NULL%1,             Holly%Whitney%NULL%1,             Nancy%Sugg%NULL%0,             Helen%Chu%NULL%1,             Julia%Rogers%NULL%1,             Emily%Mosites%NULL%0,             Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,        Brian%Redline%xref no email%1,        Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,             Elizabeth%Samuels%NULL%1,             Rahul%Vanjani%NULL%1,             Catherine%Trimbur%NULL%1,             Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,        Melanie W.%Racine%xref no email%1,        Elizabeth%Lewis%xref no email%1,        Denise%De Las Nueces%xref no email%1,        James J.%O\u2019Connell%xref no email%1,        Barry%Bock%xref no email%1,        Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,             Josephine%Jacobs%NULL%2,             Josephine%Jacobs%NULL%0,             Maria%Yefimova%NULL%1,             Liberty%Greene%NULL%1,             Leonie%Heyworth%NULL%1,             Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,             Richard%Booth%NULL%1,             Jennifer%Rayner%NULL%1,             Kristin K.%Clemens%NULL%1,             Cheryl%Forchuk%NULL%1,             Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,              Huiting%Ma%null%1,              Kristy C.Y.%Yiu%null%1,              Andrew%Calzavara%null%1,              David%Landsman%null%1,              Linh%Luong%null%1,              Adrienne K.%Chan%null%1,              Rafal%Kustra%null%1,              Jeffrey C.%Kwong%null%1,              Marie-Claude%Boily%null%1,              Stephen%Hwang%null%1,              Sharon%Straus%null%1,              Stefan D.%Baral%null%1,              Sharmistha%Mishra%null%1,             Linwei%Wang%null%1,             Huiting%Ma%null%1,             Kristy C.Y.%Yiu%null%1,             Andrew%Calzavara%null%1,             David%Landsman%null%1,             Linh%Luong%null%1,             Adrienne K.%Chan%null%1,             Rafal%Kustra%null%1,             Jeffrey C.%Kwong%null%1,             Marie-Claude%Boily%null%1,             Stephen%Hwang%null%1,             Sharon%Straus%null%1,             Stefan D.%Baral%null%1,             Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,             Van Thuan%Hoang%NULL%2,             Ndiaw%Goumballa%NULL%2,             Meriem%Louni%NULL%2,             Naomie%Canard%NULL%2,             Thi Loi%Dao%NULL%2,             Hacene%Medkour%NULL%2,             Audrey%Borg%NULL%2,             Kevin%Bardy%NULL%2,             Véra%Esteves-Vieira%NULL%2,             Véronique%Filosa%NULL%2,             Bernard%Davoust%NULL%2,             Oleg%Mediannikov%NULL%2,             Pierre-Edouard%Fournier%NULL%2,             Didier%Raoult%NULL%2,             Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,             Bastien%Mollo%NULL%1,             Charline%Vincent%NULL%1,             Birgit%Nikolay%NULL%1,             Augusto E%Llosa%NULL%1,             Robin%Nesbitt%NULL%1,             Jessica%Vanhomwegen%NULL%1,             Thierry%Rose%NULL%1,             Sophie%Goyard%NULL%1,             François%Anna%NULL%1,             Corinne%Torre%NULL%1,             Emilie%Fourrey%NULL%1,             Erica%Simons%NULL%1,             William%Hennequin%NULL%1,             Clair%Mills%NULL%1,             Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,             Nhu Ngoc%Nguyen%NULL%1,             Van Thuan%Hoang%NULL%0,             Ndiaw%Goumballa%NULL%0,             Meriem%Louni%NULL%0,             Naomie%Canard%NULL%0,             Thi Loi%Dao%NULL%0,             Hacene%Medkour%NULL%0,             Audrey%Borg%NULL%0,             Kevin%Bardy%NULL%0,             Véra%Esteves-Vieira%NULL%0,             Véronique%Filosa%NULL%0,             Bernard%Davoust%NULL%0,             Oleg%Mediannikov%NULL%0,             Pierre-Edouard%Fournier%NULL%0,             Didier%Raoult%NULL%0,             Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,             Aldo%Morrone%NULL%1,             Andrea%Arcangeli%NULL%1,             Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,             Marc%Delforge%NULL%1,             Faustine%Lebout%NULL%1,             Thibaut%Vanbaelen%NULL%1,             Amaryl%Lecompte%NULL%1,             Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,             Pilar%Andrés%NULL%2,             Pilar%Andrés%NULL%0,             Alberto%Bullón%NULL%1,             José Luis%Villegas%NULL%2,             José Luis%Villegas%NULL%0,             Javier Ignacio%de la Iglesia-Larrad%NULL%1,             Berta%Bote%NULL%1,             Nieves%Prieto%NULL%1,             Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1998,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1946,7 +2027,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1975,7 +2056,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2004,7 +2085,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2033,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2062,7 +2143,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2091,7 +2172,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2120,7 +2201,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2149,7 +2230,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2178,7 +2259,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2207,7 +2288,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2236,7 +2317,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2265,7 +2346,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2294,7 +2375,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2323,7 +2404,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2352,7 +2433,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2381,7 +2462,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2410,7 +2491,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2439,7 +2520,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2468,7 +2549,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2497,7 +2578,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2526,7 +2607,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2555,7 +2636,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2584,7 +2665,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2613,7 +2694,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2642,7 +2723,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2671,7 +2752,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="515">
   <si>
     <t>Doi</t>
   </si>
@@ -1582,6 +1582,168 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,             Pilar%Andrés%NULL%2,             Pilar%Andrés%NULL%0,             Alberto%Bullón%NULL%1,             José Luis%Villegas%NULL%2,             José Luis%Villegas%NULL%0,             Javier Ignacio%de la Iglesia-Larrad%NULL%1,             Berta%Bote%NULL%1,             Nieves%Prieto%NULL%1,             Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,              Erin M.%Parker%NULL%2,              Kristie E. N.%Clarke%NULL%1,              Jessie M.%Gaeta%NULL%1,              Travis P.%Baggett%NULL%1,              Elizabeth%Imbert%NULL%1,              Madeline%Sankaran%NULL%2,              Ashley%Scarborough%NULL%2,              Karin%Huster%NULL%2,              Matt%Hanson%NULL%1,              Elysia%Gonzales%NULL%2,              Jody%Rauch%NULL%2,              Libby%Page%NULL%1,              Temet M.%McMichael%NULL%2,              Ryan%Keating%NULL%2,              Grace E.%Marx%NULL%2,              Tom%Andrews%NULL%2,              Kristine%Schmit%NULL%2,              Sapna Bamrah%Morris%NULL%2,              Nicole F.%Dowling%NULL%2,              Georgina%Peacock%NULL%2,              NULL%NULL%NULL%5,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Ann%Buff%NULL%1,              Calla%Jamison%NULL%2,              Ruthanne%Marcus%NULL%1,              Carol Y.%Rao%NULL%2,              Julie L.%Self%NULL%2,              Farrell%Tobolowsky%NULL%1,              Samantha%Williams%NULL%1,              Meagan%Kay%NULL%2,              Naveena%Bobba%NULL%1,              Stephanie%Cohen%NULL%2,              Jonathan%Fuchs%NULL%1,              Trang%Nguyen%NULL%1,              Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,         Harrison%Keyes%xref no email%1,         Nora%Sporn%xref no email%1,         Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,              Elizabeth S%Davis%NULL%2,              Elizabeth S%Davis%NULL%0,              Stockton%Mayer%NULL%1,              Karrie-Ann%Toews%NULL%1,              Thomas D%Huggett%NULL%1,              Nyssa%Snow-Hill%NULL%1,              Omar%Perez%NULL%1,              Mary K%Hayden%NULL%1,              Seena%Tehrani%NULL%1,              A Justine%Landi%NULL%1,              Stephanie%Crane%NULL%1,              Elizabeth%Bell%NULL%1,              Joy-Marie%Hermes%NULL%1,              Kush%Desai%NULL%1,              Michelle%Godbee%NULL%1,              Naman%Jhaveri%NULL%1,              Brian%Borah%NULL%1,              Tracy%Cable%NULL%1,              Sofia%Sami%NULL%1,              Laura%Nozicka%NULL%1,              Yi-Shin%Chang%NULL%1,              Aditi%Jagadish%NULL%1,              Mark%Chee%NULL%1,              Brynna%Thigpen%NULL%1,              Christopher%Llerena%NULL%1,              Minh%Tran%NULL%1,              Divya Meher%Surabhi%NULL%1,              Emilia D%Smith%NULL%1,              Rosemary G%Remus%NULL%1,              Roweine%Staszcuk%NULL%1,              Evelyn%Figueroa%NULL%1,              Paul%Leo%NULL%1,              Wayne M%Detmer%NULL%1,              Evan%Lyon%NULL%1,              Sarah%Carreon%NULL%1,              Stacey%Hoferka%NULL%1,              Kathleen A%Ritger%NULL%1,              Wilnise%Jasmin%NULL%1,              Prathima%Nagireddy%NULL%1,              Jennifer Y%Seo%NULL%1,              Marielle J%Fricchione%NULL%1,              Janna L%Kerins%NULL%1,              Stephanie R%Black%NULL%1,              Lisa Morrison%Butler%NULL%1,              Kimberly%Howard%NULL%1,              Maura%McCauley%NULL%1,              Todd%Fraley%NULL%1,              M Allison%Arwady%NULL%1,              Stephanie%Gretsch%NULL%1,              Megan%Cunningham%NULL%1,              Massimo%Pacilli%NULL%1,              Peter S%Ruestow%NULL%2,              Peter S%Ruestow%NULL%0,              Emily%Mosites%NULL%3,              Elizabeth%Avery%NULL%1,              Joshua%Longcoy%NULL%1,              Elizabeth B%Lynch%NULL%1,              Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,         Elizabeth%Imbert%xref no email%1,         David V.%Glidden%xref no email%2,         Jan Bing%Del Rosario%xref no email%1,         Mary%Chong%xref no email%1,         Angelo%Clemenzi-Allen%xref no email%1,         Jon%Oskarsson%xref no email%1,         Elise D.%Riley%xref no email%1,         Monica%Gandhi%xref no email%2,         Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,              Melisa Mei Jin%Tan%NULL%1,              Eva%Turk%NULL%1,              Devi%Sridhar%NULL%1,              Gabriel M%Leung%NULL%1,              Kenji%Shibuya%NULL%1,              Nima%Asgari%NULL%1,              Juhwan%Oh%NULL%1,              Alberto L%García-Basteiro%NULL%1,              Johanna%Hanefeld%NULL%1,              Alex R%Cook%NULL%1,              Li Yang%Hsu%NULL%1,              Yik Ying%Teo%NULL%1,              David%Heymann%NULL%1,              Helen%Clark%NULL%1,              Martin%McKee%NULL%1,              Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,              Erin M.%Ashe%NULL%1,              Michael%Silverstein%NULL%1,              Melissa%Hofman%NULL%1,              Samantha J.%Lange%NULL%1,              Hilda%Razzaghi%NULL%1,              Rebecca G.%Mishuris%NULL%1,              Ravin%Davidoff%NULL%1,              Erin M.%Parker%NULL%0,              Ana%Penman-Aguilar%NULL%1,              Kristie E.N.%Clarke%NULL%1,              Anna%Goldman%NULL%1,              Thea L.%James%NULL%1,              Karen%Jacobson%NULL%1,              Karen E.%Lasser%NULL%1,              Ziming%Xuan%NULL%1,              Georgina%Peacock%NULL%0,              Nicole F.%Dowling%NULL%0,              Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,              Alexander%Winnett%NULL%2,              Alexander%Winnett%NULL%0,              Christopher J.%Graber%NULL%2,              Christopher J.%Graber%NULL%0,              John%Vallone%NULL%1,              David O.%Beenhouwer%NULL%1,              Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,              Holly%Murphy%NULL%1,              Ravi%Vadlamudi%NULL%2,              Ravi%Vadlamudi%NULL%0,              Ruth%Kraut%NULL%1,              Kate%Dalessio%NULL%1,              Anurag N.%Malani%NULL%1,              Meghan%Glabach%NULL%1,              Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,              Amy C.%Link%NULL%2,              Amy C.%Link%NULL%0,              Denise%McCulloch%NULL%1,              Elisabeth%Brandstetter%NULL%1,              Kira L.%Newman%NULL%2,              Kira L.%Newman%NULL%0,              Michael L.%Jackson%NULL%2,              Michael L.%Jackson%NULL%0,              James P.%Hughes%NULL%2,              James P.%Hughes%NULL%0,              Janet A.%Englund%NULL%2,              Janet A.%Englund%NULL%0,              Michael%Boeckh%NULL%2,              Michael%Boeckh%NULL%0,              Nancy%Sugg%NULL%2,              Misja%Ilcisin%NULL%1,              Thomas R.%Sibley%NULL%2,              Thomas R.%Sibley%NULL%0,              Kairsten%Fay%NULL%2,              Kairsten%Fay%NULL%0,              Jover%Lee%NULL%2,              Jover%Lee%NULL%0,              Peter%Han%NULL%2,              Peter%Han%NULL%0,              Melissa%Truong%NULL%1,              Matthew%Richardson%NULL%2,              Matthew%Richardson%NULL%0,              Deborah A.%Nickerson%NULL%2,              Deborah A.%Nickerson%NULL%0,              Lea M.%Starita%NULL%1,              Trevor%Bedford%NULL%2,              Trevor%Bedford%NULL%0,              Helen Y.%Chu%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,         Matthew D.%Hickey%xref no email%1,         David V.%Glidden%xref no email%0,         Janet Q.%Nguyen%xref no email%1,         Jon J.%Oskarsson%xref no email%1,         Diane%Havlir%xref no email%1,         Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,              Elizabeth J.%D'Amico%NULL%1,              Eric R.%Pedersen%NULL%1,              Rick%Garvey%NULL%1,              Anthony%Rodriguez%NULL%1,              David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,              Christian%Ramers%NULL%1,              Adam%Northrup%NULL%1,              Aaron%Tam%aaront@fhscd.org%1,              Jie%Liu%NULL%1,              Sarah%Rojas%NULL%1,              Stacey%Klaman%NULL%1,              Maureen%Khasira%NULL%1,              Jenan%Madbak%NULL%1,              Eva%Matthews%NULL%1,              Jeffrey%Norris%NULL%1,              Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,              Martha P%Montgomery%NULL%2,              Martha P%Montgomery%NULL%0,              Ann M%Buff%NULL%1,              Andrew T%Boyd%NULL%1,              Calla%Jamison%NULL%0,              Alfonso%Hernandez%NULL%1,              Kristine%Schmit%NULL%0,              Sarita%Shah%NULL%1,              Sophia%Ajoku%NULL%1,              David P%Holland%NULL%1,              Juliana%Prieto%NULL%1,              Sasha%Smith%NULL%1,              Mark A%Swancutt%NULL%1,              Kim%Turner%NULL%1,              Tom%Andrews%NULL%0,              Kevin%Flowers%NULL%1,              Alyssa%Wells%NULL%1,              Cathryn%Marchman%NULL%1,              Emaline%Laney%NULL%1,              Danae%Bixler%NULL%1,              Sean%Cavanaugh%NULL%1,              Nicole%Flowers%NULL%1,              Nicholas%Gaffga%NULL%1,              Jean Y%Ko%NULL%1,              Heather N%Paulin%NULL%1,              Mark K%Weng%NULL%1,              Emily%Mosites%NULL%0,              Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,              Patrick M%Kinley%NULL%1,              Ashley%Scarborough%NULL%0,              Caroline%Cawley%NULL%1,              Madeline%Sankaran%NULL%0,              Sarah N%Cox%NULL%1,              Margot%Kushel%NULL%1,              Juliet%Stoltey%NULL%1,              Stephanie%Cohen%NULL%0,              Jonathan D%Fuchs%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,              Elysia%Gonzales%NULL%0,              Julie L.%Self%NULL%0,              Carol Y.%Rao%NULL%0,              Ryan%Keating%NULL%0,              Grace E.%Marx%NULL%0,              Temet M.%McMichael%NULL%0,              Margaret D.%Lukoff%NULL%1,              Jeffrey S.%Duchin%NULL%1,              Karin%Huster%NULL%0,              Jody%Rauch%NULL%0,              Hedda%McLendon%NULL%1,              Matthew%Hanson%NULL%1,              Dave%Nichols%NULL%1,              Sargis%Pogosjans%NULL%1,              Meaghan%Fagalde%NULL%1,              Jennifer%Lenahan%NULL%1,              Emily%Maier%NULL%1,              Holly%Whitney%NULL%1,              Nancy%Sugg%NULL%0,              Helen%Chu%NULL%1,              Julia%Rogers%NULL%1,              Emily%Mosites%NULL%0,              Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,         Brian%Redline%xref no email%1,         Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,              Elizabeth%Samuels%NULL%1,              Rahul%Vanjani%NULL%1,              Catherine%Trimbur%NULL%1,              Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,         Melanie W.%Racine%xref no email%1,         Elizabeth%Lewis%xref no email%1,         Denise%De Las Nueces%xref no email%1,         James J.%O\u2019Connell%xref no email%1,         Barry%Bock%xref no email%1,         Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,              Josephine%Jacobs%NULL%2,              Josephine%Jacobs%NULL%0,              Maria%Yefimova%NULL%1,              Liberty%Greene%NULL%1,              Leonie%Heyworth%NULL%1,              Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,              Richard%Booth%NULL%1,              Jennifer%Rayner%NULL%1,              Kristin K.%Clemens%NULL%1,              Cheryl%Forchuk%NULL%1,              Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,               Huiting%Ma%null%1,               Kristy C.Y.%Yiu%null%1,               Andrew%Calzavara%null%1,               David%Landsman%null%1,               Linh%Luong%null%1,               Adrienne K.%Chan%null%1,               Rafal%Kustra%null%1,               Jeffrey C.%Kwong%null%1,               Marie-Claude%Boily%null%1,               Stephen%Hwang%null%1,               Sharon%Straus%null%1,               Stefan D.%Baral%null%1,               Sharmistha%Mishra%null%1,              Linwei%Wang%null%1,              Huiting%Ma%null%1,              Kristy C.Y.%Yiu%null%1,              Andrew%Calzavara%null%1,              David%Landsman%null%1,              Linh%Luong%null%1,              Adrienne K.%Chan%null%1,              Rafal%Kustra%null%1,              Jeffrey C.%Kwong%null%1,              Marie-Claude%Boily%null%1,              Stephen%Hwang%null%1,              Sharon%Straus%null%1,              Stefan D.%Baral%null%1,              Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,              Van Thuan%Hoang%NULL%2,              Ndiaw%Goumballa%NULL%2,              Meriem%Louni%NULL%2,              Naomie%Canard%NULL%2,              Thi Loi%Dao%NULL%2,              Hacene%Medkour%NULL%2,              Audrey%Borg%NULL%2,              Kevin%Bardy%NULL%2,              Véra%Esteves-Vieira%NULL%2,              Véronique%Filosa%NULL%2,              Bernard%Davoust%NULL%2,              Oleg%Mediannikov%NULL%2,              Pierre-Edouard%Fournier%NULL%2,              Didier%Raoult%NULL%2,              Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,              Bastien%Mollo%NULL%1,              Charline%Vincent%NULL%1,              Birgit%Nikolay%NULL%1,              Augusto E%Llosa%NULL%1,              Robin%Nesbitt%NULL%1,              Jessica%Vanhomwegen%NULL%1,              Thierry%Rose%NULL%1,              Sophie%Goyard%NULL%1,              François%Anna%NULL%1,              Corinne%Torre%NULL%1,              Emilie%Fourrey%NULL%1,              Erica%Simons%NULL%1,              William%Hennequin%NULL%1,              Clair%Mills%NULL%1,              Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,              Nhu Ngoc%Nguyen%NULL%1,              Van Thuan%Hoang%NULL%0,              Ndiaw%Goumballa%NULL%0,              Meriem%Louni%NULL%0,              Naomie%Canard%NULL%0,              Thi Loi%Dao%NULL%0,              Hacene%Medkour%NULL%0,              Audrey%Borg%NULL%0,              Kevin%Bardy%NULL%0,              Véra%Esteves-Vieira%NULL%0,              Véronique%Filosa%NULL%0,              Bernard%Davoust%NULL%0,              Oleg%Mediannikov%NULL%0,              Pierre-Edouard%Fournier%NULL%0,              Didier%Raoult%NULL%0,              Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,              Aldo%Morrone%NULL%1,              Andrea%Arcangeli%NULL%1,              Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,              Marc%Delforge%NULL%1,              Faustine%Lebout%NULL%1,              Thibaut%Vanbaelen%NULL%1,              Amaryl%Lecompte%NULL%1,              Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,              Pilar%Andrés%NULL%2,              Pilar%Andrés%NULL%0,              Alberto%Bullón%NULL%1,              José Luis%Villegas%NULL%2,              José Luis%Villegas%NULL%0,              Javier Ignacio%de la Iglesia-Larrad%NULL%1,              Berta%Bote%NULL%1,              Nieves%Prieto%NULL%1,              Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,               Erin M.%Parker%NULL%2,               Kristie E. N.%Clarke%NULL%1,               Jessie M.%Gaeta%NULL%1,               Travis P.%Baggett%NULL%1,               Elizabeth%Imbert%NULL%1,               Madeline%Sankaran%NULL%2,               Ashley%Scarborough%NULL%2,               Karin%Huster%NULL%2,               Matt%Hanson%NULL%1,               Elysia%Gonzales%NULL%2,               Jody%Rauch%NULL%2,               Libby%Page%NULL%1,               Temet M.%McMichael%NULL%2,               Ryan%Keating%NULL%2,               Grace E.%Marx%NULL%2,               Tom%Andrews%NULL%2,               Kristine%Schmit%NULL%2,               Sapna Bamrah%Morris%NULL%2,               Nicole F.%Dowling%NULL%2,               Georgina%Peacock%NULL%2,               NULL%NULL%NULL%5,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Ann%Buff%NULL%1,               Calla%Jamison%NULL%2,               Ruthanne%Marcus%NULL%1,               Carol Y.%Rao%NULL%2,               Julie L.%Self%NULL%2,               Farrell%Tobolowsky%NULL%1,               Samantha%Williams%NULL%1,               Meagan%Kay%NULL%2,               Naveena%Bobba%NULL%1,               Stephanie%Cohen%NULL%2,               Jonathan%Fuchs%NULL%1,               Trang%Nguyen%NULL%1,               Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,          Harrison%Keyes%xref no email%1,          Nora%Sporn%xref no email%1,          Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,               Elizabeth S%Davis%NULL%2,               Elizabeth S%Davis%NULL%0,               Stockton%Mayer%NULL%1,               Karrie-Ann%Toews%NULL%1,               Thomas D%Huggett%NULL%1,               Nyssa%Snow-Hill%NULL%1,               Omar%Perez%NULL%1,               Mary K%Hayden%NULL%1,               Seena%Tehrani%NULL%1,               A Justine%Landi%NULL%1,               Stephanie%Crane%NULL%1,               Elizabeth%Bell%NULL%1,               Joy-Marie%Hermes%NULL%1,               Kush%Desai%NULL%1,               Michelle%Godbee%NULL%1,               Naman%Jhaveri%NULL%1,               Brian%Borah%NULL%1,               Tracy%Cable%NULL%1,               Sofia%Sami%NULL%1,               Laura%Nozicka%NULL%1,               Yi-Shin%Chang%NULL%1,               Aditi%Jagadish%NULL%1,               Mark%Chee%NULL%1,               Brynna%Thigpen%NULL%1,               Christopher%Llerena%NULL%1,               Minh%Tran%NULL%1,               Divya Meher%Surabhi%NULL%1,               Emilia D%Smith%NULL%1,               Rosemary G%Remus%NULL%1,               Roweine%Staszcuk%NULL%1,               Evelyn%Figueroa%NULL%1,               Paul%Leo%NULL%1,               Wayne M%Detmer%NULL%1,               Evan%Lyon%NULL%1,               Sarah%Carreon%NULL%1,               Stacey%Hoferka%NULL%1,               Kathleen A%Ritger%NULL%1,               Wilnise%Jasmin%NULL%1,               Prathima%Nagireddy%NULL%1,               Jennifer Y%Seo%NULL%1,               Marielle J%Fricchione%NULL%1,               Janna L%Kerins%NULL%1,               Stephanie R%Black%NULL%1,               Lisa Morrison%Butler%NULL%1,               Kimberly%Howard%NULL%1,               Maura%McCauley%NULL%1,               Todd%Fraley%NULL%1,               M Allison%Arwady%NULL%1,               Stephanie%Gretsch%NULL%1,               Megan%Cunningham%NULL%1,               Massimo%Pacilli%NULL%1,               Peter S%Ruestow%NULL%2,               Peter S%Ruestow%NULL%0,               Emily%Mosites%NULL%3,               Elizabeth%Avery%NULL%1,               Joshua%Longcoy%NULL%1,               Elizabeth B%Lynch%NULL%1,               Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,          Elizabeth%Imbert%xref no email%1,          David V.%Glidden%xref no email%2,          Jan Bing%Del Rosario%xref no email%1,          Mary%Chong%xref no email%1,          Angelo%Clemenzi-Allen%xref no email%1,          Jon%Oskarsson%xref no email%1,          Elise D.%Riley%xref no email%1,          Monica%Gandhi%xref no email%2,          Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,               Melisa Mei Jin%Tan%NULL%1,               Eva%Turk%NULL%1,               Devi%Sridhar%NULL%1,               Gabriel M%Leung%NULL%1,               Kenji%Shibuya%NULL%1,               Nima%Asgari%NULL%1,               Juhwan%Oh%NULL%1,               Alberto L%García-Basteiro%NULL%1,               Johanna%Hanefeld%NULL%1,               Alex R%Cook%NULL%1,               Li Yang%Hsu%NULL%1,               Yik Ying%Teo%NULL%1,               David%Heymann%NULL%1,               Helen%Clark%NULL%1,               Martin%McKee%NULL%1,               Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,               Erin M.%Ashe%NULL%1,               Michael%Silverstein%NULL%1,               Melissa%Hofman%NULL%1,               Samantha J.%Lange%NULL%1,               Hilda%Razzaghi%NULL%1,               Rebecca G.%Mishuris%NULL%1,               Ravin%Davidoff%NULL%1,               Erin M.%Parker%NULL%0,               Ana%Penman-Aguilar%NULL%1,               Kristie E.N.%Clarke%NULL%1,               Anna%Goldman%NULL%1,               Thea L.%James%NULL%1,               Karen%Jacobson%NULL%1,               Karen E.%Lasser%NULL%1,               Ziming%Xuan%NULL%1,               Georgina%Peacock%NULL%0,               Nicole F.%Dowling%NULL%0,               Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,               Alexander%Winnett%NULL%2,               Alexander%Winnett%NULL%0,               Christopher J.%Graber%NULL%2,               Christopher J.%Graber%NULL%0,               John%Vallone%NULL%1,               David O.%Beenhouwer%NULL%1,               Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,               Holly%Murphy%NULL%1,               Ravi%Vadlamudi%NULL%2,               Ravi%Vadlamudi%NULL%0,               Ruth%Kraut%NULL%1,               Kate%Dalessio%NULL%1,               Anurag N.%Malani%NULL%1,               Meghan%Glabach%NULL%1,               Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,               Amy C.%Link%NULL%2,               Amy C.%Link%NULL%0,               Denise%McCulloch%NULL%1,               Elisabeth%Brandstetter%NULL%1,               Kira L.%Newman%NULL%2,               Kira L.%Newman%NULL%0,               Michael L.%Jackson%NULL%2,               Michael L.%Jackson%NULL%0,               James P.%Hughes%NULL%2,               James P.%Hughes%NULL%0,               Janet A.%Englund%NULL%2,               Janet A.%Englund%NULL%0,               Michael%Boeckh%NULL%2,               Michael%Boeckh%NULL%0,               Nancy%Sugg%NULL%2,               Misja%Ilcisin%NULL%1,               Thomas R.%Sibley%NULL%2,               Thomas R.%Sibley%NULL%0,               Kairsten%Fay%NULL%2,               Kairsten%Fay%NULL%0,               Jover%Lee%NULL%2,               Jover%Lee%NULL%0,               Peter%Han%NULL%2,               Peter%Han%NULL%0,               Melissa%Truong%NULL%1,               Matthew%Richardson%NULL%2,               Matthew%Richardson%NULL%0,               Deborah A.%Nickerson%NULL%2,               Deborah A.%Nickerson%NULL%0,               Lea M.%Starita%NULL%1,               Trevor%Bedford%NULL%2,               Trevor%Bedford%NULL%0,               Helen Y.%Chu%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,          Matthew D.%Hickey%xref no email%1,          David V.%Glidden%xref no email%0,          Janet Q.%Nguyen%xref no email%1,          Jon J.%Oskarsson%xref no email%1,          Diane%Havlir%xref no email%1,          Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,               Elizabeth J.%D'Amico%NULL%1,               Eric R.%Pedersen%NULL%1,               Rick%Garvey%NULL%1,               Anthony%Rodriguez%NULL%1,               David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,               Christian%Ramers%NULL%1,               Adam%Northrup%NULL%1,               Aaron%Tam%aaront@fhscd.org%1,               Jie%Liu%NULL%1,               Sarah%Rojas%NULL%1,               Stacey%Klaman%NULL%1,               Maureen%Khasira%NULL%1,               Jenan%Madbak%NULL%1,               Eva%Matthews%NULL%1,               Jeffrey%Norris%NULL%1,               Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,               Martha P%Montgomery%NULL%2,               Martha P%Montgomery%NULL%0,               Ann M%Buff%NULL%1,               Andrew T%Boyd%NULL%1,               Calla%Jamison%NULL%0,               Alfonso%Hernandez%NULL%1,               Kristine%Schmit%NULL%0,               Sarita%Shah%NULL%1,               Sophia%Ajoku%NULL%1,               David P%Holland%NULL%1,               Juliana%Prieto%NULL%1,               Sasha%Smith%NULL%1,               Mark A%Swancutt%NULL%1,               Kim%Turner%NULL%1,               Tom%Andrews%NULL%0,               Kevin%Flowers%NULL%1,               Alyssa%Wells%NULL%1,               Cathryn%Marchman%NULL%1,               Emaline%Laney%NULL%1,               Danae%Bixler%NULL%1,               Sean%Cavanaugh%NULL%1,               Nicole%Flowers%NULL%1,               Nicholas%Gaffga%NULL%1,               Jean Y%Ko%NULL%1,               Heather N%Paulin%NULL%1,               Mark K%Weng%NULL%1,               Emily%Mosites%NULL%0,               Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,               Patrick M%Kinley%NULL%1,               Ashley%Scarborough%NULL%0,               Caroline%Cawley%NULL%1,               Madeline%Sankaran%NULL%0,               Sarah N%Cox%NULL%1,               Margot%Kushel%NULL%1,               Juliet%Stoltey%NULL%1,               Stephanie%Cohen%NULL%0,               Jonathan D%Fuchs%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,               Elysia%Gonzales%NULL%0,               Julie L.%Self%NULL%0,               Carol Y.%Rao%NULL%0,               Ryan%Keating%NULL%0,               Grace E.%Marx%NULL%0,               Temet M.%McMichael%NULL%0,               Margaret D.%Lukoff%NULL%1,               Jeffrey S.%Duchin%NULL%1,               Karin%Huster%NULL%0,               Jody%Rauch%NULL%0,               Hedda%McLendon%NULL%1,               Matthew%Hanson%NULL%1,               Dave%Nichols%NULL%1,               Sargis%Pogosjans%NULL%1,               Meaghan%Fagalde%NULL%1,               Jennifer%Lenahan%NULL%1,               Emily%Maier%NULL%1,               Holly%Whitney%NULL%1,               Nancy%Sugg%NULL%0,               Helen%Chu%NULL%1,               Julia%Rogers%NULL%1,               Emily%Mosites%NULL%0,               Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,          Brian%Redline%xref no email%1,          Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,               Elizabeth%Samuels%NULL%1,               Rahul%Vanjani%NULL%1,               Catherine%Trimbur%NULL%1,               Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,          Melanie W.%Racine%xref no email%1,          Elizabeth%Lewis%xref no email%1,          Denise%De Las Nueces%xref no email%1,          James J.%O\u2019Connell%xref no email%1,          Barry%Bock%xref no email%1,          Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,               Josephine%Jacobs%NULL%2,               Josephine%Jacobs%NULL%0,               Maria%Yefimova%NULL%1,               Liberty%Greene%NULL%1,               Leonie%Heyworth%NULL%1,               Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,               Richard%Booth%NULL%1,               Jennifer%Rayner%NULL%1,               Kristin K.%Clemens%NULL%1,               Cheryl%Forchuk%NULL%1,               Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                Huiting%Ma%null%1,                Kristy C.Y.%Yiu%null%1,                Andrew%Calzavara%null%1,                David%Landsman%null%1,                Linh%Luong%null%1,                Adrienne K.%Chan%null%1,                Rafal%Kustra%null%1,                Jeffrey C.%Kwong%null%1,                Marie-Claude%Boily%null%1,                Stephen%Hwang%null%1,                Sharon%Straus%null%1,                Stefan D.%Baral%null%1,                Sharmistha%Mishra%null%1,               Linwei%Wang%null%1,               Huiting%Ma%null%1,               Kristy C.Y.%Yiu%null%1,               Andrew%Calzavara%null%1,               David%Landsman%null%1,               Linh%Luong%null%1,               Adrienne K.%Chan%null%1,               Rafal%Kustra%null%1,               Jeffrey C.%Kwong%null%1,               Marie-Claude%Boily%null%1,               Stephen%Hwang%null%1,               Sharon%Straus%null%1,               Stefan D.%Baral%null%1,               Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,               Van Thuan%Hoang%NULL%2,               Ndiaw%Goumballa%NULL%2,               Meriem%Louni%NULL%2,               Naomie%Canard%NULL%2,               Thi Loi%Dao%NULL%2,               Hacene%Medkour%NULL%2,               Audrey%Borg%NULL%2,               Kevin%Bardy%NULL%2,               Véra%Esteves-Vieira%NULL%2,               Véronique%Filosa%NULL%2,               Bernard%Davoust%NULL%2,               Oleg%Mediannikov%NULL%2,               Pierre-Edouard%Fournier%NULL%2,               Didier%Raoult%NULL%2,               Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,               Bastien%Mollo%NULL%1,               Charline%Vincent%NULL%1,               Birgit%Nikolay%NULL%1,               Augusto E%Llosa%NULL%1,               Robin%Nesbitt%NULL%1,               Jessica%Vanhomwegen%NULL%1,               Thierry%Rose%NULL%1,               Sophie%Goyard%NULL%1,               François%Anna%NULL%1,               Corinne%Torre%NULL%1,               Emilie%Fourrey%NULL%1,               Erica%Simons%NULL%1,               William%Hennequin%NULL%1,               Clair%Mills%NULL%1,               Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,               Nhu Ngoc%Nguyen%NULL%1,               Van Thuan%Hoang%NULL%0,               Ndiaw%Goumballa%NULL%0,               Meriem%Louni%NULL%0,               Naomie%Canard%NULL%0,               Thi Loi%Dao%NULL%0,               Hacene%Medkour%NULL%0,               Audrey%Borg%NULL%0,               Kevin%Bardy%NULL%0,               Véra%Esteves-Vieira%NULL%0,               Véronique%Filosa%NULL%0,               Bernard%Davoust%NULL%0,               Oleg%Mediannikov%NULL%0,               Pierre-Edouard%Fournier%NULL%0,               Didier%Raoult%NULL%0,               Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,               Aldo%Morrone%NULL%1,               Andrea%Arcangeli%NULL%1,               Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,               Marc%Delforge%NULL%1,               Faustine%Lebout%NULL%1,               Thibaut%Vanbaelen%NULL%1,               Amaryl%Lecompte%NULL%1,               Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,               Pilar%Andrés%NULL%2,               Pilar%Andrés%NULL%0,               Alberto%Bullón%NULL%1,               José Luis%Villegas%NULL%2,               José Luis%Villegas%NULL%0,               Javier Ignacio%de la Iglesia-Larrad%NULL%1,               Berta%Bote%NULL%1,               Nieves%Prieto%NULL%1,               Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2027,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2056,7 +2218,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2085,7 +2247,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2114,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2143,7 +2305,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2172,7 +2334,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2201,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2230,7 +2392,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2259,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2288,7 +2450,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2317,7 +2479,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2346,7 +2508,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2375,7 +2537,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2404,7 +2566,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2433,7 +2595,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2462,7 +2624,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2491,7 +2653,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2520,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2549,7 +2711,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2578,7 +2740,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2607,7 +2769,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2636,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2665,7 +2827,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2694,7 +2856,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2723,7 +2885,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2752,7 +2914,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="542">
   <si>
     <t>Doi</t>
   </si>
@@ -1744,6 +1744,87 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,               Pilar%Andrés%NULL%2,               Pilar%Andrés%NULL%0,               Alberto%Bullón%NULL%1,               José Luis%Villegas%NULL%2,               José Luis%Villegas%NULL%0,               Javier Ignacio%de la Iglesia-Larrad%NULL%1,               Berta%Bote%NULL%1,               Nieves%Prieto%NULL%1,               Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                Erin M.%Parker%NULL%2,                Kristie E. N.%Clarke%NULL%1,                Jessie M.%Gaeta%NULL%1,                Travis P.%Baggett%NULL%1,                Elizabeth%Imbert%NULL%1,                Madeline%Sankaran%NULL%2,                Ashley%Scarborough%NULL%2,                Karin%Huster%NULL%2,                Matt%Hanson%NULL%1,                Elysia%Gonzales%NULL%2,                Jody%Rauch%NULL%2,                Libby%Page%NULL%1,                Temet M.%McMichael%NULL%2,                Ryan%Keating%NULL%2,                Grace E.%Marx%NULL%2,                Tom%Andrews%NULL%2,                Kristine%Schmit%NULL%2,                Sapna Bamrah%Morris%NULL%2,                Nicole F.%Dowling%NULL%2,                Georgina%Peacock%NULL%2,                NULL%NULL%NULL%5,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                Ann%Buff%NULL%1,                Calla%Jamison%NULL%2,                Ruthanne%Marcus%NULL%1,                Carol Y.%Rao%NULL%2,                Julie L.%Self%NULL%2,                Farrell%Tobolowsky%NULL%1,                Samantha%Williams%NULL%1,                Meagan%Kay%NULL%2,                Naveena%Bobba%NULL%1,                Stephanie%Cohen%NULL%2,                Jonathan%Fuchs%NULL%1,                Trang%Nguyen%NULL%1,                Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,           Harrison%Keyes%xref no email%1,           Nora%Sporn%xref no email%1,           Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                Elizabeth S%Davis%NULL%2,                Elizabeth S%Davis%NULL%0,                Stockton%Mayer%NULL%1,                Karrie-Ann%Toews%NULL%1,                Thomas D%Huggett%NULL%1,                Nyssa%Snow-Hill%NULL%1,                Omar%Perez%NULL%1,                Mary K%Hayden%NULL%1,                Seena%Tehrani%NULL%1,                A Justine%Landi%NULL%1,                Stephanie%Crane%NULL%1,                Elizabeth%Bell%NULL%1,                Joy-Marie%Hermes%NULL%1,                Kush%Desai%NULL%1,                Michelle%Godbee%NULL%1,                Naman%Jhaveri%NULL%1,                Brian%Borah%NULL%1,                Tracy%Cable%NULL%1,                Sofia%Sami%NULL%1,                Laura%Nozicka%NULL%1,                Yi-Shin%Chang%NULL%1,                Aditi%Jagadish%NULL%1,                Mark%Chee%NULL%1,                Brynna%Thigpen%NULL%1,                Christopher%Llerena%NULL%1,                Minh%Tran%NULL%1,                Divya Meher%Surabhi%NULL%1,                Emilia D%Smith%NULL%1,                Rosemary G%Remus%NULL%1,                Roweine%Staszcuk%NULL%1,                Evelyn%Figueroa%NULL%1,                Paul%Leo%NULL%1,                Wayne M%Detmer%NULL%1,                Evan%Lyon%NULL%1,                Sarah%Carreon%NULL%1,                Stacey%Hoferka%NULL%1,                Kathleen A%Ritger%NULL%1,                Wilnise%Jasmin%NULL%1,                Prathima%Nagireddy%NULL%1,                Jennifer Y%Seo%NULL%1,                Marielle J%Fricchione%NULL%1,                Janna L%Kerins%NULL%1,                Stephanie R%Black%NULL%1,                Lisa Morrison%Butler%NULL%1,                Kimberly%Howard%NULL%1,                Maura%McCauley%NULL%1,                Todd%Fraley%NULL%1,                M Allison%Arwady%NULL%1,                Stephanie%Gretsch%NULL%1,                Megan%Cunningham%NULL%1,                Massimo%Pacilli%NULL%1,                Peter S%Ruestow%NULL%2,                Peter S%Ruestow%NULL%0,                Emily%Mosites%NULL%3,                Elizabeth%Avery%NULL%1,                Joshua%Longcoy%NULL%1,                Elizabeth B%Lynch%NULL%1,                Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,           Elizabeth%Imbert%xref no email%1,           David V.%Glidden%xref no email%2,           Jan Bing%Del Rosario%xref no email%1,           Mary%Chong%xref no email%1,           Angelo%Clemenzi-Allen%xref no email%1,           Jon%Oskarsson%xref no email%1,           Elise D.%Riley%xref no email%1,           Monica%Gandhi%xref no email%2,           Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                Melisa Mei Jin%Tan%NULL%1,                Eva%Turk%NULL%1,                Devi%Sridhar%NULL%1,                Gabriel M%Leung%NULL%1,                Kenji%Shibuya%NULL%1,                Nima%Asgari%NULL%1,                Juhwan%Oh%NULL%1,                Alberto L%García-Basteiro%NULL%1,                Johanna%Hanefeld%NULL%1,                Alex R%Cook%NULL%1,                Li Yang%Hsu%NULL%1,                Yik Ying%Teo%NULL%1,                David%Heymann%NULL%1,                Helen%Clark%NULL%1,                Martin%McKee%NULL%1,                Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                Erin M.%Ashe%NULL%1,                Michael%Silverstein%NULL%1,                Melissa%Hofman%NULL%1,                Samantha J.%Lange%NULL%1,                Hilda%Razzaghi%NULL%1,                Rebecca G.%Mishuris%NULL%1,                Ravin%Davidoff%NULL%1,                Erin M.%Parker%NULL%0,                Ana%Penman-Aguilar%NULL%1,                Kristie E.N.%Clarke%NULL%1,                Anna%Goldman%NULL%1,                Thea L.%James%NULL%1,                Karen%Jacobson%NULL%1,                Karen E.%Lasser%NULL%1,                Ziming%Xuan%NULL%1,                Georgina%Peacock%NULL%0,                Nicole F.%Dowling%NULL%0,                Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                Alexander%Winnett%NULL%2,                Alexander%Winnett%NULL%0,                Christopher J.%Graber%NULL%2,                Christopher J.%Graber%NULL%0,                John%Vallone%NULL%1,                David O.%Beenhouwer%NULL%1,                Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                Holly%Murphy%NULL%1,                Ravi%Vadlamudi%NULL%2,                Ravi%Vadlamudi%NULL%0,                Ruth%Kraut%NULL%1,                Kate%Dalessio%NULL%1,                Anurag N.%Malani%NULL%1,                Meghan%Glabach%NULL%1,                Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                Amy C.%Link%NULL%2,                Amy C.%Link%NULL%0,                Denise%McCulloch%NULL%1,                Elisabeth%Brandstetter%NULL%1,                Kira L.%Newman%NULL%2,                Kira L.%Newman%NULL%0,                Michael L.%Jackson%NULL%2,                Michael L.%Jackson%NULL%0,                James P.%Hughes%NULL%2,                James P.%Hughes%NULL%0,                Janet A.%Englund%NULL%2,                Janet A.%Englund%NULL%0,                Michael%Boeckh%NULL%2,                Michael%Boeckh%NULL%0,                Nancy%Sugg%NULL%2,                Misja%Ilcisin%NULL%1,                Thomas R.%Sibley%NULL%2,                Thomas R.%Sibley%NULL%0,                Kairsten%Fay%NULL%2,                Kairsten%Fay%NULL%0,                Jover%Lee%NULL%2,                Jover%Lee%NULL%0,                Peter%Han%NULL%2,                Peter%Han%NULL%0,                Melissa%Truong%NULL%1,                Matthew%Richardson%NULL%2,                Matthew%Richardson%NULL%0,                Deborah A.%Nickerson%NULL%2,                Deborah A.%Nickerson%NULL%0,                Lea M.%Starita%NULL%1,                Trevor%Bedford%NULL%2,                Trevor%Bedford%NULL%0,                Helen Y.%Chu%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,           Matthew D.%Hickey%xref no email%1,           David V.%Glidden%xref no email%0,           Janet Q.%Nguyen%xref no email%1,           Jon J.%Oskarsson%xref no email%1,           Diane%Havlir%xref no email%1,           Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                Elizabeth J.%D'Amico%NULL%1,                Eric R.%Pedersen%NULL%1,                Rick%Garvey%NULL%1,                Anthony%Rodriguez%NULL%1,                David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                Christian%Ramers%NULL%1,                Adam%Northrup%NULL%1,                Aaron%Tam%aaront@fhscd.org%1,                Jie%Liu%NULL%1,                Sarah%Rojas%NULL%1,                Stacey%Klaman%NULL%1,                Maureen%Khasira%NULL%1,                Jenan%Madbak%NULL%1,                Eva%Matthews%NULL%1,                Jeffrey%Norris%NULL%1,                Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                Martha P%Montgomery%NULL%2,                Martha P%Montgomery%NULL%0,                Ann M%Buff%NULL%1,                Andrew T%Boyd%NULL%1,                Calla%Jamison%NULL%0,                Alfonso%Hernandez%NULL%1,                Kristine%Schmit%NULL%0,                Sarita%Shah%NULL%1,                Sophia%Ajoku%NULL%1,                David P%Holland%NULL%1,                Juliana%Prieto%NULL%1,                Sasha%Smith%NULL%1,                Mark A%Swancutt%NULL%1,                Kim%Turner%NULL%1,                Tom%Andrews%NULL%0,                Kevin%Flowers%NULL%1,                Alyssa%Wells%NULL%1,                Cathryn%Marchman%NULL%1,                Emaline%Laney%NULL%1,                Danae%Bixler%NULL%1,                Sean%Cavanaugh%NULL%1,                Nicole%Flowers%NULL%1,                Nicholas%Gaffga%NULL%1,                Jean Y%Ko%NULL%1,                Heather N%Paulin%NULL%1,                Mark K%Weng%NULL%1,                Emily%Mosites%NULL%0,                Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                Patrick M%Kinley%NULL%1,                Ashley%Scarborough%NULL%0,                Caroline%Cawley%NULL%1,                Madeline%Sankaran%NULL%0,                Sarah N%Cox%NULL%1,                Margot%Kushel%NULL%1,                Juliet%Stoltey%NULL%1,                Stephanie%Cohen%NULL%0,                Jonathan D%Fuchs%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                Elysia%Gonzales%NULL%0,                Julie L.%Self%NULL%0,                Carol Y.%Rao%NULL%0,                Ryan%Keating%NULL%0,                Grace E.%Marx%NULL%0,                Temet M.%McMichael%NULL%0,                Margaret D.%Lukoff%NULL%1,                Jeffrey S.%Duchin%NULL%1,                Karin%Huster%NULL%0,                Jody%Rauch%NULL%0,                Hedda%McLendon%NULL%1,                Matthew%Hanson%NULL%1,                Dave%Nichols%NULL%1,                Sargis%Pogosjans%NULL%1,                Meaghan%Fagalde%NULL%1,                Jennifer%Lenahan%NULL%1,                Emily%Maier%NULL%1,                Holly%Whitney%NULL%1,                Nancy%Sugg%NULL%0,                Helen%Chu%NULL%1,                Julia%Rogers%NULL%1,                Emily%Mosites%NULL%0,                Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,           Brian%Redline%xref no email%1,           Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                Elizabeth%Samuels%NULL%1,                Rahul%Vanjani%NULL%1,                Catherine%Trimbur%NULL%1,                Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,           Melanie W.%Racine%xref no email%1,           Elizabeth%Lewis%xref no email%1,           Denise%De Las Nueces%xref no email%1,           James J.%O\u2019Connell%xref no email%1,           Barry%Bock%xref no email%1,           Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                Josephine%Jacobs%NULL%2,                Josephine%Jacobs%NULL%0,                Maria%Yefimova%NULL%1,                Liberty%Greene%NULL%1,                Leonie%Heyworth%NULL%1,                Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                Richard%Booth%NULL%1,                Jennifer%Rayner%NULL%1,                Kristin K.%Clemens%NULL%1,                Cheryl%Forchuk%NULL%1,                Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                 Huiting%Ma%null%1,                 Kristy C.Y.%Yiu%null%1,                 Andrew%Calzavara%null%1,                 David%Landsman%null%1,                 Linh%Luong%null%1,                 Adrienne K.%Chan%null%1,                 Rafal%Kustra%null%1,                 Jeffrey C.%Kwong%null%1,                 Marie-Claude%Boily%null%1,                 Stephen%Hwang%null%1,                 Sharon%Straus%null%1,                 Stefan D.%Baral%null%1,                 Sharmistha%Mishra%null%1,                Linwei%Wang%null%1,                Huiting%Ma%null%1,                Kristy C.Y.%Yiu%null%1,                Andrew%Calzavara%null%1,                David%Landsman%null%1,                Linh%Luong%null%1,                Adrienne K.%Chan%null%1,                Rafal%Kustra%null%1,                Jeffrey C.%Kwong%null%1,                Marie-Claude%Boily%null%1,                Stephen%Hwang%null%1,                Sharon%Straus%null%1,                Stefan D.%Baral%null%1,                Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                Van Thuan%Hoang%NULL%2,                Ndiaw%Goumballa%NULL%2,                Meriem%Louni%NULL%2,                Naomie%Canard%NULL%2,                Thi Loi%Dao%NULL%2,                Hacene%Medkour%NULL%2,                Audrey%Borg%NULL%2,                Kevin%Bardy%NULL%2,                Véra%Esteves-Vieira%NULL%2,                Véronique%Filosa%NULL%2,                Bernard%Davoust%NULL%2,                Oleg%Mediannikov%NULL%2,                Pierre-Edouard%Fournier%NULL%2,                Didier%Raoult%NULL%2,                Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                Bastien%Mollo%NULL%1,                Charline%Vincent%NULL%1,                Birgit%Nikolay%NULL%1,                Augusto E%Llosa%NULL%1,                Robin%Nesbitt%NULL%1,                Jessica%Vanhomwegen%NULL%1,                Thierry%Rose%NULL%1,                Sophie%Goyard%NULL%1,                François%Anna%NULL%1,                Corinne%Torre%NULL%1,                Emilie%Fourrey%NULL%1,                Erica%Simons%NULL%1,                William%Hennequin%NULL%1,                Clair%Mills%NULL%1,                Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                Nhu Ngoc%Nguyen%NULL%1,                Van Thuan%Hoang%NULL%0,                Ndiaw%Goumballa%NULL%0,                Meriem%Louni%NULL%0,                Naomie%Canard%NULL%0,                Thi Loi%Dao%NULL%0,                Hacene%Medkour%NULL%0,                Audrey%Borg%NULL%0,                Kevin%Bardy%NULL%0,                Véra%Esteves-Vieira%NULL%0,                Véronique%Filosa%NULL%0,                Bernard%Davoust%NULL%0,                Oleg%Mediannikov%NULL%0,                Pierre-Edouard%Fournier%NULL%0,                Didier%Raoult%NULL%0,                Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                Aldo%Morrone%NULL%1,                Andrea%Arcangeli%NULL%1,                Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                Marc%Delforge%NULL%1,                Faustine%Lebout%NULL%1,                Thibaut%Vanbaelen%NULL%1,                Amaryl%Lecompte%NULL%1,                Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                Pilar%Andrés%NULL%2,                Pilar%Andrés%NULL%0,                Alberto%Bullón%NULL%1,                José Luis%Villegas%NULL%2,                José Luis%Villegas%NULL%0,                Javier Ignacio%de la Iglesia-Larrad%NULL%1,                Berta%Bote%NULL%1,                Nieves%Prieto%NULL%1,                Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2189,7 +2270,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2218,7 +2299,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2247,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2276,7 +2357,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2305,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2334,7 +2415,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2363,7 +2444,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2392,7 +2473,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2421,7 +2502,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2450,7 +2531,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2479,7 +2560,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2508,7 +2589,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2537,7 +2618,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2566,7 +2647,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2595,7 +2676,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2624,7 +2705,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2653,7 +2734,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2682,7 +2763,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2711,7 +2792,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2740,7 +2821,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2769,7 +2850,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2798,7 +2879,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2827,7 +2908,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2856,7 +2937,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2885,7 +2966,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2914,7 +2995,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="573">
   <si>
     <t>Doi</t>
   </si>
@@ -1825,6 +1825,99 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,                Pilar%Andrés%NULL%2,                Pilar%Andrés%NULL%0,                Alberto%Bullón%NULL%1,                José Luis%Villegas%NULL%2,                José Luis%Villegas%NULL%0,                Javier Ignacio%de la Iglesia-Larrad%NULL%1,                Berta%Bote%NULL%1,                Nieves%Prieto%NULL%1,                Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                 Erin M.%Parker%NULL%2,                 Kristie E. N.%Clarke%NULL%1,                 Jessie M.%Gaeta%NULL%1,                 Travis P.%Baggett%NULL%1,                 Elizabeth%Imbert%NULL%1,                 Madeline%Sankaran%NULL%2,                 Ashley%Scarborough%NULL%2,                 Karin%Huster%NULL%2,                 Matt%Hanson%NULL%1,                 Elysia%Gonzales%NULL%2,                 Jody%Rauch%NULL%2,                 Libby%Page%NULL%1,                 Temet M.%McMichael%NULL%2,                 Ryan%Keating%NULL%2,                 Grace E.%Marx%NULL%2,                 Tom%Andrews%NULL%2,                 Kristine%Schmit%NULL%2,                 Sapna Bamrah%Morris%NULL%2,                 Nicole F.%Dowling%NULL%2,                 Georgina%Peacock%NULL%2,                 NULL%NULL%NULL%5,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 Ann%Buff%NULL%1,                 Calla%Jamison%NULL%2,                 Ruthanne%Marcus%NULL%1,                 Carol Y.%Rao%NULL%2,                 Julie L.%Self%NULL%2,                 Farrell%Tobolowsky%NULL%1,                 Samantha%Williams%NULL%1,                 Meagan%Kay%NULL%2,                 Naveena%Bobba%NULL%1,                 Stephanie%Cohen%NULL%2,                 Jonathan%Fuchs%NULL%1,                 Trang%Nguyen%NULL%1,                 Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,            Harrison%Keyes%xref no email%1,            Nora%Sporn%xref no email%1,            Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                 Elizabeth S%Davis%NULL%2,                 Elizabeth S%Davis%NULL%0,                 Stockton%Mayer%NULL%1,                 Karrie-Ann%Toews%NULL%1,                 Thomas D%Huggett%NULL%1,                 Nyssa%Snow-Hill%NULL%1,                 Omar%Perez%NULL%1,                 Mary K%Hayden%NULL%1,                 Seena%Tehrani%NULL%1,                 A Justine%Landi%NULL%1,                 Stephanie%Crane%NULL%1,                 Elizabeth%Bell%NULL%1,                 Joy-Marie%Hermes%NULL%1,                 Kush%Desai%NULL%1,                 Michelle%Godbee%NULL%1,                 Naman%Jhaveri%NULL%1,                 Brian%Borah%NULL%1,                 Tracy%Cable%NULL%1,                 Sofia%Sami%NULL%1,                 Laura%Nozicka%NULL%1,                 Yi-Shin%Chang%NULL%1,                 Aditi%Jagadish%NULL%1,                 Mark%Chee%NULL%1,                 Brynna%Thigpen%NULL%1,                 Christopher%Llerena%NULL%1,                 Minh%Tran%NULL%1,                 Divya Meher%Surabhi%NULL%1,                 Emilia D%Smith%NULL%1,                 Rosemary G%Remus%NULL%1,                 Roweine%Staszcuk%NULL%1,                 Evelyn%Figueroa%NULL%1,                 Paul%Leo%NULL%1,                 Wayne M%Detmer%NULL%1,                 Evan%Lyon%NULL%1,                 Sarah%Carreon%NULL%1,                 Stacey%Hoferka%NULL%1,                 Kathleen A%Ritger%NULL%1,                 Wilnise%Jasmin%NULL%1,                 Prathima%Nagireddy%NULL%1,                 Jennifer Y%Seo%NULL%1,                 Marielle J%Fricchione%NULL%1,                 Janna L%Kerins%NULL%1,                 Stephanie R%Black%NULL%1,                 Lisa Morrison%Butler%NULL%1,                 Kimberly%Howard%NULL%1,                 Maura%McCauley%NULL%1,                 Todd%Fraley%NULL%1,                 M Allison%Arwady%NULL%1,                 Stephanie%Gretsch%NULL%1,                 Megan%Cunningham%NULL%1,                 Massimo%Pacilli%NULL%1,                 Peter S%Ruestow%NULL%2,                 Peter S%Ruestow%NULL%0,                 Emily%Mosites%NULL%3,                 Elizabeth%Avery%NULL%1,                 Joshua%Longcoy%NULL%1,                 Elizabeth B%Lynch%NULL%1,                 Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,            Elizabeth%Imbert%xref no email%1,            David V.%Glidden%xref no email%2,            Jan Bing%Del Rosario%xref no email%1,            Mary%Chong%xref no email%1,            Angelo%Clemenzi-Allen%xref no email%1,            Jon%Oskarsson%xref no email%1,            Elise D.%Riley%xref no email%1,            Monica%Gandhi%xref no email%2,            Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                 Melisa Mei Jin%Tan%NULL%1,                 Eva%Turk%NULL%1,                 Devi%Sridhar%NULL%1,                 Gabriel M%Leung%NULL%1,                 Kenji%Shibuya%NULL%1,                 Nima%Asgari%NULL%1,                 Juhwan%Oh%NULL%1,                 Alberto L%García-Basteiro%NULL%1,                 Johanna%Hanefeld%NULL%1,                 Alex R%Cook%NULL%1,                 Li Yang%Hsu%NULL%1,                 Yik Ying%Teo%NULL%1,                 David%Heymann%NULL%1,                 Helen%Clark%NULL%1,                 Martin%McKee%NULL%1,                 Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                 Erin M.%Ashe%NULL%1,                 Michael%Silverstein%NULL%1,                 Melissa%Hofman%NULL%1,                 Samantha J.%Lange%NULL%1,                 Hilda%Razzaghi%NULL%1,                 Rebecca G.%Mishuris%NULL%1,                 Ravin%Davidoff%NULL%1,                 Erin M.%Parker%NULL%0,                 Ana%Penman-Aguilar%NULL%1,                 Kristie E.N.%Clarke%NULL%1,                 Anna%Goldman%NULL%1,                 Thea L.%James%NULL%1,                 Karen%Jacobson%NULL%1,                 Karen E.%Lasser%NULL%1,                 Ziming%Xuan%NULL%1,                 Georgina%Peacock%NULL%0,                 Nicole F.%Dowling%NULL%0,                 Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                 Alexander%Winnett%NULL%2,                 Alexander%Winnett%NULL%0,                 Christopher J.%Graber%NULL%2,                 Christopher J.%Graber%NULL%0,                 John%Vallone%NULL%1,                 David O.%Beenhouwer%NULL%1,                 Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                 Holly%Murphy%NULL%1,                 Ravi%Vadlamudi%NULL%2,                 Ravi%Vadlamudi%NULL%0,                 Ruth%Kraut%NULL%1,                 Kate%Dalessio%NULL%1,                 Anurag N.%Malani%NULL%1,                 Meghan%Glabach%NULL%1,                 Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                 Amy C.%Link%NULL%2,                 Amy C.%Link%NULL%0,                 Denise%McCulloch%NULL%1,                 Elisabeth%Brandstetter%NULL%1,                 Kira L.%Newman%NULL%2,                 Kira L.%Newman%NULL%0,                 Michael L.%Jackson%NULL%2,                 Michael L.%Jackson%NULL%0,                 James P.%Hughes%NULL%2,                 James P.%Hughes%NULL%0,                 Janet A.%Englund%NULL%2,                 Janet A.%Englund%NULL%0,                 Michael%Boeckh%NULL%2,                 Michael%Boeckh%NULL%0,                 Nancy%Sugg%NULL%2,                 Misja%Ilcisin%NULL%1,                 Thomas R.%Sibley%NULL%2,                 Thomas R.%Sibley%NULL%0,                 Kairsten%Fay%NULL%2,                 Kairsten%Fay%NULL%0,                 Jover%Lee%NULL%2,                 Jover%Lee%NULL%0,                 Peter%Han%NULL%2,                 Peter%Han%NULL%0,                 Melissa%Truong%NULL%1,                 Matthew%Richardson%NULL%2,                 Matthew%Richardson%NULL%0,                 Deborah A.%Nickerson%NULL%2,                 Deborah A.%Nickerson%NULL%0,                 Lea M.%Starita%NULL%1,                 Trevor%Bedford%NULL%2,                 Trevor%Bedford%NULL%0,                 Helen Y.%Chu%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,            Matthew D.%Hickey%xref no email%1,            David V.%Glidden%xref no email%0,            Janet Q.%Nguyen%xref no email%1,            Jon J.%Oskarsson%xref no email%1,            Diane%Havlir%xref no email%1,            Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                 Elizabeth J.%D'Amico%NULL%1,                 Eric R.%Pedersen%NULL%1,                 Rick%Garvey%NULL%1,                 Anthony%Rodriguez%NULL%1,                 David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                 Christian%Ramers%NULL%1,                 Adam%Northrup%NULL%1,                 Aaron%Tam%aaront@fhscd.org%1,                 Jie%Liu%NULL%1,                 Sarah%Rojas%NULL%1,                 Stacey%Klaman%NULL%1,                 Maureen%Khasira%NULL%1,                 Jenan%Madbak%NULL%1,                 Eva%Matthews%NULL%1,                 Jeffrey%Norris%NULL%1,                 Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                 Martha P%Montgomery%NULL%2,                 Martha P%Montgomery%NULL%0,                 Ann M%Buff%NULL%1,                 Andrew T%Boyd%NULL%1,                 Calla%Jamison%NULL%0,                 Alfonso%Hernandez%NULL%1,                 Kristine%Schmit%NULL%0,                 Sarita%Shah%NULL%1,                 Sophia%Ajoku%NULL%1,                 David P%Holland%NULL%1,                 Juliana%Prieto%NULL%1,                 Sasha%Smith%NULL%1,                 Mark A%Swancutt%NULL%1,                 Kim%Turner%NULL%1,                 Tom%Andrews%NULL%0,                 Kevin%Flowers%NULL%1,                 Alyssa%Wells%NULL%1,                 Cathryn%Marchman%NULL%1,                 Emaline%Laney%NULL%1,                 Danae%Bixler%NULL%1,                 Sean%Cavanaugh%NULL%1,                 Nicole%Flowers%NULL%1,                 Nicholas%Gaffga%NULL%1,                 Jean Y%Ko%NULL%1,                 Heather N%Paulin%NULL%1,                 Mark K%Weng%NULL%1,                 Emily%Mosites%NULL%0,                 Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                 Patrick M%Kinley%NULL%1,                 Ashley%Scarborough%NULL%0,                 Caroline%Cawley%NULL%1,                 Madeline%Sankaran%NULL%0,                 Sarah N%Cox%NULL%1,                 Margot%Kushel%NULL%1,                 Juliet%Stoltey%NULL%1,                 Stephanie%Cohen%NULL%0,                 Jonathan D%Fuchs%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                 Elysia%Gonzales%NULL%0,                 Julie L.%Self%NULL%0,                 Carol Y.%Rao%NULL%0,                 Ryan%Keating%NULL%0,                 Grace E.%Marx%NULL%0,                 Temet M.%McMichael%NULL%0,                 Margaret D.%Lukoff%NULL%1,                 Jeffrey S.%Duchin%NULL%1,                 Karin%Huster%NULL%0,                 Jody%Rauch%NULL%0,                 Hedda%McLendon%NULL%1,                 Matthew%Hanson%NULL%1,                 Dave%Nichols%NULL%1,                 Sargis%Pogosjans%NULL%1,                 Meaghan%Fagalde%NULL%1,                 Jennifer%Lenahan%NULL%1,                 Emily%Maier%NULL%1,                 Holly%Whitney%NULL%1,                 Nancy%Sugg%NULL%0,                 Helen%Chu%NULL%1,                 Julia%Rogers%NULL%1,                 Emily%Mosites%NULL%0,                 Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,            Brian%Redline%xref no email%1,            Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                 Elizabeth%Samuels%NULL%1,                 Rahul%Vanjani%NULL%1,                 Catherine%Trimbur%NULL%1,                 Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,            Melanie W.%Racine%xref no email%1,            Elizabeth%Lewis%xref no email%1,            Denise%De Las Nueces%xref no email%1,            James J.%O\u2019Connell%xref no email%1,            Barry%Bock%xref no email%1,            Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                 Josephine%Jacobs%NULL%2,                 Josephine%Jacobs%NULL%0,                 Maria%Yefimova%NULL%1,                 Liberty%Greene%NULL%1,                 Leonie%Heyworth%NULL%1,                 Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                 Richard%Booth%NULL%1,                 Jennifer%Rayner%NULL%1,                 Kristin K.%Clemens%NULL%1,                 Cheryl%Forchuk%NULL%1,                 Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                  Huiting%Ma%null%1,                  Kristy C.Y.%Yiu%null%1,                  Andrew%Calzavara%null%1,                  David%Landsman%null%1,                  Linh%Luong%null%1,                  Adrienne K.%Chan%null%1,                  Rafal%Kustra%null%1,                  Jeffrey C.%Kwong%null%1,                  Marie-Claude%Boily%null%1,                  Stephen%Hwang%null%1,                  Sharon%Straus%null%1,                  Stefan D.%Baral%null%1,                  Sharmistha%Mishra%null%1,                 Linwei%Wang%null%1,                 Huiting%Ma%null%1,                 Kristy C.Y.%Yiu%null%1,                 Andrew%Calzavara%null%1,                 David%Landsman%null%1,                 Linh%Luong%null%1,                 Adrienne K.%Chan%null%1,                 Rafal%Kustra%null%1,                 Jeffrey C.%Kwong%null%1,                 Marie-Claude%Boily%null%1,                 Stephen%Hwang%null%1,                 Sharon%Straus%null%1,                 Stefan D.%Baral%null%1,                 Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                 Van Thuan%Hoang%NULL%2,                 Ndiaw%Goumballa%NULL%2,                 Meriem%Louni%NULL%2,                 Naomie%Canard%NULL%2,                 Thi Loi%Dao%NULL%2,                 Hacene%Medkour%NULL%2,                 Audrey%Borg%NULL%2,                 Kevin%Bardy%NULL%2,                 Véra%Esteves-Vieira%NULL%2,                 Véronique%Filosa%NULL%2,                 Bernard%Davoust%NULL%2,                 Oleg%Mediannikov%NULL%2,                 Pierre-Edouard%Fournier%NULL%2,                 Didier%Raoult%NULL%2,                 Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>_Springer_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                 Bastien%Mollo%NULL%1,                 Charline%Vincent%NULL%1,                 Birgit%Nikolay%NULL%1,                 Augusto E%Llosa%NULL%1,                 Robin%Nesbitt%NULL%1,                 Jessica%Vanhomwegen%NULL%1,                 Thierry%Rose%NULL%1,                 Sophie%Goyard%NULL%1,                 François%Anna%NULL%1,                 Corinne%Torre%NULL%1,                 Emilie%Fourrey%NULL%1,                 Erica%Simons%NULL%1,                 William%Hennequin%NULL%1,                 Clair%Mills%NULL%1,                 Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                 Nhu Ngoc%Nguyen%NULL%1,                 Van Thuan%Hoang%NULL%0,                 Ndiaw%Goumballa%NULL%0,                 Meriem%Louni%NULL%0,                 Naomie%Canard%NULL%0,                 Thi Loi%Dao%NULL%0,                 Hacene%Medkour%NULL%0,                 Audrey%Borg%NULL%0,                 Kevin%Bardy%NULL%0,                 Véra%Esteves-Vieira%NULL%0,                 Véronique%Filosa%NULL%0,                 Bernard%Davoust%NULL%0,                 Oleg%Mediannikov%NULL%0,                 Pierre-Edouard%Fournier%NULL%0,                 Didier%Raoult%NULL%0,                 Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                 Aldo%Morrone%NULL%1,                 Andrea%Arcangeli%NULL%1,                 Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                 Marc%Delforge%NULL%1,                 Faustine%Lebout%NULL%1,                 Thibaut%Vanbaelen%NULL%1,                 Amaryl%Lecompte%NULL%1,                 Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                 Pilar%Andrés%NULL%2,                 Pilar%Andrés%NULL%0,                 Alberto%Bullón%NULL%1,                 José Luis%Villegas%NULL%2,                 José Luis%Villegas%NULL%0,                 Javier Ignacio%de la Iglesia-Larrad%NULL%1,                 Berta%Bote%NULL%1,                 Nieves%Prieto%NULL%1,                 Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2253,7 +2346,7 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2270,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2282,7 +2375,7 @@
         <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2299,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2311,7 +2404,7 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2328,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2340,7 +2433,7 @@
         <v>241</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2357,7 +2450,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2369,7 +2462,7 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2386,7 +2479,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2398,7 +2491,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2415,7 +2508,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2427,7 +2520,7 @@
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2444,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2456,7 +2549,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2473,7 +2566,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2485,7 +2578,7 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2502,7 +2595,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2514,7 +2607,7 @@
         <v>249</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2531,7 +2624,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2543,7 +2636,7 @@
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2560,7 +2653,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2572,7 +2665,7 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2589,7 +2682,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2601,7 +2694,7 @@
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2618,7 +2711,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2630,7 +2723,7 @@
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2647,7 +2740,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2659,7 +2752,7 @@
         <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2676,7 +2769,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2688,7 +2781,7 @@
         <v>257</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2705,7 +2798,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2717,7 +2810,7 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2734,7 +2827,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2746,7 +2839,7 @@
         <v>262</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2763,7 +2856,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2775,7 +2868,7 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2792,7 +2885,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2804,7 +2897,7 @@
         <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2821,7 +2914,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2833,7 +2926,7 @@
         <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2850,7 +2943,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2862,7 +2955,7 @@
         <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2879,7 +2972,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2891,7 +2984,7 @@
         <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2908,7 +3001,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -2920,7 +3013,7 @@
         <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2937,7 +3030,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2949,7 +3042,7 @@
         <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +3059,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -2978,7 +3071,7 @@
         <v>137</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2995,7 +3088,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>
@@ -3007,7 +3100,7 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="600">
   <si>
     <t>Doi</t>
   </si>
@@ -1918,6 +1918,87 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,                 Pilar%Andrés%NULL%2,                 Pilar%Andrés%NULL%0,                 Alberto%Bullón%NULL%1,                 José Luis%Villegas%NULL%2,                 José Luis%Villegas%NULL%0,                 Javier Ignacio%de la Iglesia-Larrad%NULL%1,                 Berta%Bote%NULL%1,                 Nieves%Prieto%NULL%1,                 Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                  Erin M.%Parker%NULL%2,                  Kristie E. N.%Clarke%NULL%1,                  Jessie M.%Gaeta%NULL%1,                  Travis P.%Baggett%NULL%1,                  Elizabeth%Imbert%NULL%1,                  Madeline%Sankaran%NULL%2,                  Ashley%Scarborough%NULL%2,                  Karin%Huster%NULL%2,                  Matt%Hanson%NULL%1,                  Elysia%Gonzales%NULL%2,                  Jody%Rauch%NULL%2,                  Libby%Page%NULL%1,                  Temet M.%McMichael%NULL%2,                  Ryan%Keating%NULL%2,                  Grace E.%Marx%NULL%2,                  Tom%Andrews%NULL%2,                  Kristine%Schmit%NULL%2,                  Sapna Bamrah%Morris%NULL%2,                  Nicole F.%Dowling%NULL%2,                  Georgina%Peacock%NULL%2,                  NULL%NULL%NULL%5,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  Ann%Buff%NULL%1,                  Calla%Jamison%NULL%2,                  Ruthanne%Marcus%NULL%1,                  Carol Y.%Rao%NULL%2,                  Julie L.%Self%NULL%2,                  Farrell%Tobolowsky%NULL%1,                  Samantha%Williams%NULL%1,                  Meagan%Kay%NULL%2,                  Naveena%Bobba%NULL%1,                  Stephanie%Cohen%NULL%2,                  Jonathan%Fuchs%NULL%1,                  Trang%Nguyen%NULL%1,                  Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%2,             Harrison%Keyes%xref no email%1,             Nora%Sporn%xref no email%1,             Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                  Elizabeth S%Davis%NULL%2,                  Elizabeth S%Davis%NULL%0,                  Stockton%Mayer%NULL%1,                  Karrie-Ann%Toews%NULL%1,                  Thomas D%Huggett%NULL%1,                  Nyssa%Snow-Hill%NULL%1,                  Omar%Perez%NULL%1,                  Mary K%Hayden%NULL%1,                  Seena%Tehrani%NULL%1,                  A Justine%Landi%NULL%1,                  Stephanie%Crane%NULL%1,                  Elizabeth%Bell%NULL%1,                  Joy-Marie%Hermes%NULL%1,                  Kush%Desai%NULL%1,                  Michelle%Godbee%NULL%1,                  Naman%Jhaveri%NULL%1,                  Brian%Borah%NULL%1,                  Tracy%Cable%NULL%1,                  Sofia%Sami%NULL%1,                  Laura%Nozicka%NULL%1,                  Yi-Shin%Chang%NULL%1,                  Aditi%Jagadish%NULL%1,                  Mark%Chee%NULL%1,                  Brynna%Thigpen%NULL%1,                  Christopher%Llerena%NULL%1,                  Minh%Tran%NULL%1,                  Divya Meher%Surabhi%NULL%1,                  Emilia D%Smith%NULL%1,                  Rosemary G%Remus%NULL%1,                  Roweine%Staszcuk%NULL%1,                  Evelyn%Figueroa%NULL%1,                  Paul%Leo%NULL%1,                  Wayne M%Detmer%NULL%1,                  Evan%Lyon%NULL%1,                  Sarah%Carreon%NULL%1,                  Stacey%Hoferka%NULL%1,                  Kathleen A%Ritger%NULL%1,                  Wilnise%Jasmin%NULL%1,                  Prathima%Nagireddy%NULL%1,                  Jennifer Y%Seo%NULL%1,                  Marielle J%Fricchione%NULL%1,                  Janna L%Kerins%NULL%1,                  Stephanie R%Black%NULL%1,                  Lisa Morrison%Butler%NULL%1,                  Kimberly%Howard%NULL%1,                  Maura%McCauley%NULL%1,                  Todd%Fraley%NULL%1,                  M Allison%Arwady%NULL%1,                  Stephanie%Gretsch%NULL%1,                  Megan%Cunningham%NULL%1,                  Massimo%Pacilli%NULL%1,                  Peter S%Ruestow%NULL%2,                  Peter S%Ruestow%NULL%0,                  Emily%Mosites%NULL%3,                  Elizabeth%Avery%NULL%1,                  Joshua%Longcoy%NULL%1,                  Elizabeth B%Lynch%NULL%1,                  Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%1,             Elizabeth%Imbert%xref no email%1,             David V.%Glidden%xref no email%2,             Jan Bing%Del Rosario%xref no email%1,             Mary%Chong%xref no email%1,             Angelo%Clemenzi-Allen%xref no email%1,             Jon%Oskarsson%xref no email%1,             Elise D.%Riley%xref no email%1,             Monica%Gandhi%xref no email%2,             Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                  Melisa Mei Jin%Tan%NULL%1,                  Eva%Turk%NULL%1,                  Devi%Sridhar%NULL%1,                  Gabriel M%Leung%NULL%1,                  Kenji%Shibuya%NULL%1,                  Nima%Asgari%NULL%1,                  Juhwan%Oh%NULL%1,                  Alberto L%García-Basteiro%NULL%1,                  Johanna%Hanefeld%NULL%1,                  Alex R%Cook%NULL%1,                  Li Yang%Hsu%NULL%1,                  Yik Ying%Teo%NULL%1,                  David%Heymann%NULL%1,                  Helen%Clark%NULL%1,                  Martin%McKee%NULL%1,                  Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                  Erin M.%Ashe%NULL%1,                  Michael%Silverstein%NULL%1,                  Melissa%Hofman%NULL%1,                  Samantha J.%Lange%NULL%1,                  Hilda%Razzaghi%NULL%1,                  Rebecca G.%Mishuris%NULL%1,                  Ravin%Davidoff%NULL%1,                  Erin M.%Parker%NULL%0,                  Ana%Penman-Aguilar%NULL%1,                  Kristie E.N.%Clarke%NULL%1,                  Anna%Goldman%NULL%1,                  Thea L.%James%NULL%1,                  Karen%Jacobson%NULL%1,                  Karen E.%Lasser%NULL%1,                  Ziming%Xuan%NULL%1,                  Georgina%Peacock%NULL%0,                  Nicole F.%Dowling%NULL%0,                  Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                  Alexander%Winnett%NULL%2,                  Alexander%Winnett%NULL%0,                  Christopher J.%Graber%NULL%2,                  Christopher J.%Graber%NULL%0,                  John%Vallone%NULL%1,                  David O.%Beenhouwer%NULL%1,                  Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                  Holly%Murphy%NULL%1,                  Ravi%Vadlamudi%NULL%2,                  Ravi%Vadlamudi%NULL%0,                  Ruth%Kraut%NULL%1,                  Kate%Dalessio%NULL%1,                  Anurag N.%Malani%NULL%1,                  Meghan%Glabach%NULL%1,                  Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                  Amy C.%Link%NULL%2,                  Amy C.%Link%NULL%0,                  Denise%McCulloch%NULL%1,                  Elisabeth%Brandstetter%NULL%1,                  Kira L.%Newman%NULL%2,                  Kira L.%Newman%NULL%0,                  Michael L.%Jackson%NULL%2,                  Michael L.%Jackson%NULL%0,                  James P.%Hughes%NULL%2,                  James P.%Hughes%NULL%0,                  Janet A.%Englund%NULL%2,                  Janet A.%Englund%NULL%0,                  Michael%Boeckh%NULL%2,                  Michael%Boeckh%NULL%0,                  Nancy%Sugg%NULL%2,                  Misja%Ilcisin%NULL%1,                  Thomas R.%Sibley%NULL%2,                  Thomas R.%Sibley%NULL%0,                  Kairsten%Fay%NULL%2,                  Kairsten%Fay%NULL%0,                  Jover%Lee%NULL%2,                  Jover%Lee%NULL%0,                  Peter%Han%NULL%2,                  Peter%Han%NULL%0,                  Melissa%Truong%NULL%1,                  Matthew%Richardson%NULL%2,                  Matthew%Richardson%NULL%0,                  Deborah A.%Nickerson%NULL%2,                  Deborah A.%Nickerson%NULL%0,                  Lea M.%Starita%NULL%1,                  Trevor%Bedford%NULL%2,                  Trevor%Bedford%NULL%0,                  Helen Y.%Chu%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%1,             Matthew D.%Hickey%xref no email%1,             David V.%Glidden%xref no email%0,             Janet Q.%Nguyen%xref no email%1,             Jon J.%Oskarsson%xref no email%1,             Diane%Havlir%xref no email%1,             Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                  Elizabeth J.%D'Amico%NULL%1,                  Eric R.%Pedersen%NULL%1,                  Rick%Garvey%NULL%1,                  Anthony%Rodriguez%NULL%1,                  David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                  Christian%Ramers%NULL%1,                  Adam%Northrup%NULL%1,                  Aaron%Tam%aaront@fhscd.org%1,                  Jie%Liu%NULL%1,                  Sarah%Rojas%NULL%1,                  Stacey%Klaman%NULL%1,                  Maureen%Khasira%NULL%1,                  Jenan%Madbak%NULL%1,                  Eva%Matthews%NULL%1,                  Jeffrey%Norris%NULL%1,                  Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                  Martha P%Montgomery%NULL%2,                  Martha P%Montgomery%NULL%0,                  Ann M%Buff%NULL%1,                  Andrew T%Boyd%NULL%1,                  Calla%Jamison%NULL%0,                  Alfonso%Hernandez%NULL%1,                  Kristine%Schmit%NULL%0,                  Sarita%Shah%NULL%1,                  Sophia%Ajoku%NULL%1,                  David P%Holland%NULL%1,                  Juliana%Prieto%NULL%1,                  Sasha%Smith%NULL%1,                  Mark A%Swancutt%NULL%1,                  Kim%Turner%NULL%1,                  Tom%Andrews%NULL%0,                  Kevin%Flowers%NULL%1,                  Alyssa%Wells%NULL%1,                  Cathryn%Marchman%NULL%1,                  Emaline%Laney%NULL%1,                  Danae%Bixler%NULL%1,                  Sean%Cavanaugh%NULL%1,                  Nicole%Flowers%NULL%1,                  Nicholas%Gaffga%NULL%1,                  Jean Y%Ko%NULL%1,                  Heather N%Paulin%NULL%1,                  Mark K%Weng%NULL%1,                  Emily%Mosites%NULL%0,                  Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                  Patrick M%Kinley%NULL%1,                  Ashley%Scarborough%NULL%0,                  Caroline%Cawley%NULL%1,                  Madeline%Sankaran%NULL%0,                  Sarah N%Cox%NULL%1,                  Margot%Kushel%NULL%1,                  Juliet%Stoltey%NULL%1,                  Stephanie%Cohen%NULL%0,                  Jonathan D%Fuchs%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                  Elysia%Gonzales%NULL%0,                  Julie L.%Self%NULL%0,                  Carol Y.%Rao%NULL%0,                  Ryan%Keating%NULL%0,                  Grace E.%Marx%NULL%0,                  Temet M.%McMichael%NULL%0,                  Margaret D.%Lukoff%NULL%1,                  Jeffrey S.%Duchin%NULL%1,                  Karin%Huster%NULL%0,                  Jody%Rauch%NULL%0,                  Hedda%McLendon%NULL%1,                  Matthew%Hanson%NULL%1,                  Dave%Nichols%NULL%1,                  Sargis%Pogosjans%NULL%1,                  Meaghan%Fagalde%NULL%1,                  Jennifer%Lenahan%NULL%1,                  Emily%Maier%NULL%1,                  Holly%Whitney%NULL%1,                  Nancy%Sugg%NULL%0,                  Helen%Chu%NULL%1,                  Julia%Rogers%NULL%1,                  Emily%Mosites%NULL%0,                  Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%1,             Brian%Redline%xref no email%1,             Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                  Elizabeth%Samuels%NULL%1,                  Rahul%Vanjani%NULL%1,                  Catherine%Trimbur%NULL%1,                  Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0,             Melanie W.%Racine%xref no email%1,             Elizabeth%Lewis%xref no email%1,             Denise%De Las Nueces%xref no email%1,             James J.%O\u2019Connell%xref no email%1,             Barry%Bock%xref no email%1,             Jessie M.%Gaeta%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                  Josephine%Jacobs%NULL%2,                  Josephine%Jacobs%NULL%0,                  Maria%Yefimova%NULL%1,                  Liberty%Greene%NULL%1,                  Leonie%Heyworth%NULL%1,                  Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                  Richard%Booth%NULL%1,                  Jennifer%Rayner%NULL%1,                  Kristin K.%Clemens%NULL%1,                  Cheryl%Forchuk%NULL%1,                  Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                   Huiting%Ma%null%1,                   Kristy C.Y.%Yiu%null%1,                   Andrew%Calzavara%null%1,                   David%Landsman%null%1,                   Linh%Luong%null%1,                   Adrienne K.%Chan%null%1,                   Rafal%Kustra%null%1,                   Jeffrey C.%Kwong%null%1,                   Marie-Claude%Boily%null%1,                   Stephen%Hwang%null%1,                   Sharon%Straus%null%1,                   Stefan D.%Baral%null%1,                   Sharmistha%Mishra%null%1,                  Linwei%Wang%null%1,                  Huiting%Ma%null%1,                  Kristy C.Y.%Yiu%null%1,                  Andrew%Calzavara%null%1,                  David%Landsman%null%1,                  Linh%Luong%null%1,                  Adrienne K.%Chan%null%1,                  Rafal%Kustra%null%1,                  Jeffrey C.%Kwong%null%1,                  Marie-Claude%Boily%null%1,                  Stephen%Hwang%null%1,                  Sharon%Straus%null%1,                  Stefan D.%Baral%null%1,                  Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                  Van Thuan%Hoang%NULL%2,                  Ndiaw%Goumballa%NULL%2,                  Meriem%Louni%NULL%2,                  Naomie%Canard%NULL%2,                  Thi Loi%Dao%NULL%2,                  Hacene%Medkour%NULL%2,                  Audrey%Borg%NULL%2,                  Kevin%Bardy%NULL%2,                  Véra%Esteves-Vieira%NULL%2,                  Véronique%Filosa%NULL%2,                  Bernard%Davoust%NULL%2,                  Oleg%Mediannikov%NULL%2,                  Pierre-Edouard%Fournier%NULL%2,                  Didier%Raoult%NULL%2,                  Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                  Bastien%Mollo%NULL%1,                  Charline%Vincent%NULL%1,                  Birgit%Nikolay%NULL%1,                  Augusto E%Llosa%NULL%1,                  Robin%Nesbitt%NULL%1,                  Jessica%Vanhomwegen%NULL%1,                  Thierry%Rose%NULL%1,                  Sophie%Goyard%NULL%1,                  François%Anna%NULL%1,                  Corinne%Torre%NULL%1,                  Emilie%Fourrey%NULL%1,                  Erica%Simons%NULL%1,                  William%Hennequin%NULL%1,                  Clair%Mills%NULL%1,                  Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                  Nhu Ngoc%Nguyen%NULL%1,                  Van Thuan%Hoang%NULL%0,                  Ndiaw%Goumballa%NULL%0,                  Meriem%Louni%NULL%0,                  Naomie%Canard%NULL%0,                  Thi Loi%Dao%NULL%0,                  Hacene%Medkour%NULL%0,                  Audrey%Borg%NULL%0,                  Kevin%Bardy%NULL%0,                  Véra%Esteves-Vieira%NULL%0,                  Véronique%Filosa%NULL%0,                  Bernard%Davoust%NULL%0,                  Oleg%Mediannikov%NULL%0,                  Pierre-Edouard%Fournier%NULL%0,                  Didier%Raoult%NULL%0,                  Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                  Aldo%Morrone%NULL%1,                  Andrea%Arcangeli%NULL%1,                  Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                  Marc%Delforge%NULL%1,                  Faustine%Lebout%NULL%1,                  Thibaut%Vanbaelen%NULL%1,                  Amaryl%Lecompte%NULL%1,                  Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                  Pilar%Andrés%NULL%2,                  Pilar%Andrés%NULL%0,                  Alberto%Bullón%NULL%1,                  José Luis%Villegas%NULL%2,                  José Luis%Villegas%NULL%0,                  Javier Ignacio%de la Iglesia-Larrad%NULL%1,                  Berta%Bote%NULL%1,                  Nieves%Prieto%NULL%1,                  Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2415,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2363,7 +2444,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2392,7 +2473,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2421,7 +2502,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2450,7 +2531,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2479,7 +2560,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2508,7 +2589,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2537,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2566,7 +2647,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2595,7 +2676,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2624,7 +2705,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2653,7 +2734,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2682,7 +2763,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2711,7 +2792,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2740,7 +2821,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2769,7 +2850,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2798,7 +2879,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2827,7 +2908,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2856,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2885,7 +2966,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2914,7 +2995,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -2943,7 +3024,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2972,7 +3053,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3001,7 +3082,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -3030,7 +3111,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -3059,7 +3140,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -3088,7 +3169,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="721">
   <si>
     <t>Doi</t>
   </si>
@@ -1999,6 +1999,369 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,                  Pilar%Andrés%NULL%2,                  Pilar%Andrés%NULL%0,                  Alberto%Bullón%NULL%1,                  José Luis%Villegas%NULL%2,                  José Luis%Villegas%NULL%0,                  Javier Ignacio%de la Iglesia-Larrad%NULL%1,                  Berta%Bote%NULL%1,                  Nieves%Prieto%NULL%1,                  Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                   Erin M.%Parker%NULL%2,                   Kristie E. N.%Clarke%NULL%1,                   Jessie M.%Gaeta%NULL%1,                   Travis P.%Baggett%NULL%1,                   Elizabeth%Imbert%NULL%1,                   Madeline%Sankaran%NULL%2,                   Ashley%Scarborough%NULL%2,                   Karin%Huster%NULL%2,                   Matt%Hanson%NULL%1,                   Elysia%Gonzales%NULL%2,                   Jody%Rauch%NULL%2,                   Libby%Page%NULL%1,                   Temet M.%McMichael%NULL%2,                   Ryan%Keating%NULL%2,                   Grace E.%Marx%NULL%2,                   Tom%Andrews%NULL%2,                   Kristine%Schmit%NULL%2,                   Sapna Bamrah%Morris%NULL%2,                   Nicole F.%Dowling%NULL%2,                   Georgina%Peacock%NULL%2,                   NULL%NULL%NULL%5,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   Ann%Buff%NULL%1,                   Calla%Jamison%NULL%2,                   Ruthanne%Marcus%NULL%1,                   Carol Y.%Rao%NULL%2,                   Julie L.%Self%NULL%2,                   Farrell%Tobolowsky%NULL%1,                   Samantha%Williams%NULL%1,                   Meagan%Kay%NULL%2,                   Naveena%Bobba%NULL%1,                   Stephanie%Cohen%NULL%2,                   Jonathan%Fuchs%NULL%1,                   Trang%Nguyen%NULL%1,                   Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis P.%Baggett%xref no email%0, Harrison%Keyes%xref no email%1, Nora%Sporn%xref no email%1, Jessie M.%Gaeta%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                   Elizabeth S%Davis%NULL%2,                   Elizabeth S%Davis%NULL%0,                   Stockton%Mayer%NULL%1,                   Karrie-Ann%Toews%NULL%1,                   Thomas D%Huggett%NULL%1,                   Nyssa%Snow-Hill%NULL%1,                   Omar%Perez%NULL%1,                   Mary K%Hayden%NULL%1,                   Seena%Tehrani%NULL%1,                   A Justine%Landi%NULL%1,                   Stephanie%Crane%NULL%1,                   Elizabeth%Bell%NULL%1,                   Joy-Marie%Hermes%NULL%1,                   Kush%Desai%NULL%1,                   Michelle%Godbee%NULL%1,                   Naman%Jhaveri%NULL%1,                   Brian%Borah%NULL%1,                   Tracy%Cable%NULL%1,                   Sofia%Sami%NULL%1,                   Laura%Nozicka%NULL%1,                   Yi-Shin%Chang%NULL%1,                   Aditi%Jagadish%NULL%1,                   Mark%Chee%NULL%1,                   Brynna%Thigpen%NULL%1,                   Christopher%Llerena%NULL%1,                   Minh%Tran%NULL%1,                   Divya Meher%Surabhi%NULL%1,                   Emilia D%Smith%NULL%1,                   Rosemary G%Remus%NULL%1,                   Roweine%Staszcuk%NULL%1,                   Evelyn%Figueroa%NULL%1,                   Paul%Leo%NULL%1,                   Wayne M%Detmer%NULL%1,                   Evan%Lyon%NULL%1,                   Sarah%Carreon%NULL%1,                   Stacey%Hoferka%NULL%1,                   Kathleen A%Ritger%NULL%1,                   Wilnise%Jasmin%NULL%1,                   Prathima%Nagireddy%NULL%1,                   Jennifer Y%Seo%NULL%1,                   Marielle J%Fricchione%NULL%1,                   Janna L%Kerins%NULL%1,                   Stephanie R%Black%NULL%1,                   Lisa Morrison%Butler%NULL%1,                   Kimberly%Howard%NULL%1,                   Maura%McCauley%NULL%1,                   Todd%Fraley%NULL%1,                   M Allison%Arwady%NULL%1,                   Stephanie%Gretsch%NULL%1,                   Megan%Cunningham%NULL%1,                   Massimo%Pacilli%NULL%1,                   Peter S%Ruestow%NULL%2,                   Peter S%Ruestow%NULL%0,                   Emily%Mosites%NULL%3,                   Elizabeth%Avery%NULL%1,                   Joshua%Longcoy%NULL%1,                   Elizabeth B%Lynch%NULL%1,                   Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew D.%Hickey%xref no email%0, Elizabeth%Imbert%xref no email%0, David V.%Glidden%xref no email%2, Jan Bing%Del Rosario%xref no email%1, Mary%Chong%xref no email%1, Angelo%Clemenzi-Allen%xref no email%1, Jon%Oskarsson%xref no email%1, Elise D.%Riley%xref no email%1, Monica%Gandhi%xref no email%2, Diane V.%Havlir%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                   Melisa Mei Jin%Tan%NULL%1,                   Eva%Turk%NULL%1,                   Devi%Sridhar%NULL%1,                   Gabriel M%Leung%NULL%1,                   Kenji%Shibuya%NULL%1,                   Nima%Asgari%NULL%1,                   Juhwan%Oh%NULL%1,                   Alberto L%García-Basteiro%NULL%1,                   Johanna%Hanefeld%NULL%1,                   Alex R%Cook%NULL%1,                   Li Yang%Hsu%NULL%1,                   Yik Ying%Teo%NULL%1,                   David%Heymann%NULL%1,                   Helen%Clark%NULL%1,                   Martin%McKee%NULL%1,                   Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                   Erin M.%Ashe%NULL%1,                   Michael%Silverstein%NULL%1,                   Melissa%Hofman%NULL%1,                   Samantha J.%Lange%NULL%1,                   Hilda%Razzaghi%NULL%1,                   Rebecca G.%Mishuris%NULL%1,                   Ravin%Davidoff%NULL%1,                   Erin M.%Parker%NULL%0,                   Ana%Penman-Aguilar%NULL%1,                   Kristie E.N.%Clarke%NULL%1,                   Anna%Goldman%NULL%1,                   Thea L.%James%NULL%1,                   Karen%Jacobson%NULL%1,                   Karen E.%Lasser%NULL%1,                   Ziming%Xuan%NULL%1,                   Georgina%Peacock%NULL%0,                   Nicole F.%Dowling%NULL%0,                   Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                   Alexander%Winnett%NULL%2,                   Alexander%Winnett%NULL%0,                   Christopher J.%Graber%NULL%2,                   Christopher J.%Graber%NULL%0,                   John%Vallone%NULL%1,                   David O.%Beenhouwer%NULL%1,                   Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                   Holly%Murphy%NULL%1,                   Ravi%Vadlamudi%NULL%2,                   Ravi%Vadlamudi%NULL%0,                   Ruth%Kraut%NULL%1,                   Kate%Dalessio%NULL%1,                   Anurag N.%Malani%NULL%1,                   Meghan%Glabach%NULL%1,                   Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                   Amy C.%Link%NULL%2,                   Amy C.%Link%NULL%0,                   Denise%McCulloch%NULL%1,                   Elisabeth%Brandstetter%NULL%1,                   Kira L.%Newman%NULL%2,                   Kira L.%Newman%NULL%0,                   Michael L.%Jackson%NULL%2,                   Michael L.%Jackson%NULL%0,                   James P.%Hughes%NULL%2,                   James P.%Hughes%NULL%0,                   Janet A.%Englund%NULL%2,                   Janet A.%Englund%NULL%0,                   Michael%Boeckh%NULL%2,                   Michael%Boeckh%NULL%0,                   Nancy%Sugg%NULL%2,                   Misja%Ilcisin%NULL%1,                   Thomas R.%Sibley%NULL%2,                   Thomas R.%Sibley%NULL%0,                   Kairsten%Fay%NULL%2,                   Kairsten%Fay%NULL%0,                   Jover%Lee%NULL%2,                   Jover%Lee%NULL%0,                   Peter%Han%NULL%2,                   Peter%Han%NULL%0,                   Melissa%Truong%NULL%1,                   Matthew%Richardson%NULL%2,                   Matthew%Richardson%NULL%0,                   Deborah A.%Nickerson%NULL%2,                   Deborah A.%Nickerson%NULL%0,                   Lea M.%Starita%NULL%1,                   Trevor%Bedford%NULL%2,                   Trevor%Bedford%NULL%0,                   Helen Y.%Chu%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew A.%Spinelli%xref no email%0, Matthew D.%Hickey%xref no email%0, David V.%Glidden%xref no email%0, Janet Q.%Nguyen%xref no email%1, Jon J.%Oskarsson%xref no email%1, Diane%Havlir%xref no email%1, Monica%Gandhi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                   Elizabeth J.%D'Amico%NULL%1,                   Eric R.%Pedersen%NULL%1,                   Rick%Garvey%NULL%1,                   Anthony%Rodriguez%NULL%1,                   David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                   Christian%Ramers%NULL%1,                   Adam%Northrup%NULL%1,                   Aaron%Tam%aaront@fhscd.org%1,                   Jie%Liu%NULL%1,                   Sarah%Rojas%NULL%1,                   Stacey%Klaman%NULL%1,                   Maureen%Khasira%NULL%1,                   Jenan%Madbak%NULL%1,                   Eva%Matthews%NULL%1,                   Jeffrey%Norris%NULL%1,                   Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                   Martha P%Montgomery%NULL%2,                   Martha P%Montgomery%NULL%0,                   Ann M%Buff%NULL%1,                   Andrew T%Boyd%NULL%1,                   Calla%Jamison%NULL%0,                   Alfonso%Hernandez%NULL%1,                   Kristine%Schmit%NULL%0,                   Sarita%Shah%NULL%1,                   Sophia%Ajoku%NULL%1,                   David P%Holland%NULL%1,                   Juliana%Prieto%NULL%1,                   Sasha%Smith%NULL%1,                   Mark A%Swancutt%NULL%1,                   Kim%Turner%NULL%1,                   Tom%Andrews%NULL%0,                   Kevin%Flowers%NULL%1,                   Alyssa%Wells%NULL%1,                   Cathryn%Marchman%NULL%1,                   Emaline%Laney%NULL%1,                   Danae%Bixler%NULL%1,                   Sean%Cavanaugh%NULL%1,                   Nicole%Flowers%NULL%1,                   Nicholas%Gaffga%NULL%1,                   Jean Y%Ko%NULL%1,                   Heather N%Paulin%NULL%1,                   Mark K%Weng%NULL%1,                   Emily%Mosites%NULL%0,                   Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%2,                   Patrick M%Kinley%NULL%1,                   Ashley%Scarborough%NULL%0,                   Caroline%Cawley%NULL%1,                   Madeline%Sankaran%NULL%0,                   Sarah N%Cox%NULL%1,                   Margot%Kushel%NULL%1,                   Juliet%Stoltey%NULL%1,                   Stephanie%Cohen%NULL%0,                   Jonathan D%Fuchs%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                   Elysia%Gonzales%NULL%0,                   Julie L.%Self%NULL%0,                   Carol Y.%Rao%NULL%0,                   Ryan%Keating%NULL%0,                   Grace E.%Marx%NULL%0,                   Temet M.%McMichael%NULL%0,                   Margaret D.%Lukoff%NULL%1,                   Jeffrey S.%Duchin%NULL%1,                   Karin%Huster%NULL%0,                   Jody%Rauch%NULL%0,                   Hedda%McLendon%NULL%1,                   Matthew%Hanson%NULL%1,                   Dave%Nichols%NULL%1,                   Sargis%Pogosjans%NULL%1,                   Meaghan%Fagalde%NULL%1,                   Jennifer%Lenahan%NULL%1,                   Emily%Maier%NULL%1,                   Holly%Whitney%NULL%1,                   Nancy%Sugg%NULL%0,                   Helen%Chu%NULL%1,                   Julia%Rogers%NULL%1,                   Emily%Mosites%NULL%0,                   Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Henwood%xref no email%0, Brian%Redline%xref no email%1, Jack%Lahey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Project MUSE</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                   Elizabeth%Samuels%NULL%1,                   Rahul%Vanjani%NULL%1,                   Catherine%Trimbur%NULL%1,                   Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                   Josephine%Jacobs%NULL%2,                   Josephine%Jacobs%NULL%0,                   Maria%Yefimova%NULL%1,                   Liberty%Greene%NULL%1,                   Leonie%Heyworth%NULL%1,                   Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                   Richard%Booth%NULL%1,                   Jennifer%Rayner%NULL%1,                   Kristin K.%Clemens%NULL%1,                   Cheryl%Forchuk%NULL%1,                   Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                    Huiting%Ma%null%1,                    Kristy C.Y.%Yiu%null%1,                    Andrew%Calzavara%null%1,                    David%Landsman%null%1,                    Linh%Luong%null%1,                    Adrienne K.%Chan%null%1,                    Rafal%Kustra%null%1,                    Jeffrey C.%Kwong%null%1,                    Marie-Claude%Boily%null%1,                    Stephen%Hwang%null%1,                    Sharon%Straus%null%1,                    Stefan D.%Baral%null%1,                    Sharmistha%Mishra%null%1,                   Linwei%Wang%null%1,                   Huiting%Ma%null%1,                   Kristy C.Y.%Yiu%null%1,                   Andrew%Calzavara%null%1,                   David%Landsman%null%1,                   Linh%Luong%null%1,                   Adrienne K.%Chan%null%1,                   Rafal%Kustra%null%1,                   Jeffrey C.%Kwong%null%1,                   Marie-Claude%Boily%null%1,                   Stephen%Hwang%null%1,                   Sharon%Straus%null%1,                   Stefan D.%Baral%null%1,                   Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                   Van Thuan%Hoang%NULL%2,                   Ndiaw%Goumballa%NULL%2,                   Meriem%Louni%NULL%2,                   Naomie%Canard%NULL%2,                   Thi Loi%Dao%NULL%2,                   Hacene%Medkour%NULL%2,                   Audrey%Borg%NULL%2,                   Kevin%Bardy%NULL%2,                   Véra%Esteves-Vieira%NULL%2,                   Véronique%Filosa%NULL%2,                   Bernard%Davoust%NULL%2,                   Oleg%Mediannikov%NULL%2,                   Pierre-Edouard%Fournier%NULL%2,                   Didier%Raoult%NULL%2,                   Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                   Bastien%Mollo%NULL%1,                   Charline%Vincent%NULL%1,                   Birgit%Nikolay%NULL%1,                   Augusto E%Llosa%NULL%1,                   Robin%Nesbitt%NULL%1,                   Jessica%Vanhomwegen%NULL%1,                   Thierry%Rose%NULL%1,                   Sophie%Goyard%NULL%1,                   François%Anna%NULL%1,                   Corinne%Torre%NULL%1,                   Emilie%Fourrey%NULL%1,                   Erica%Simons%NULL%1,                   William%Hennequin%NULL%1,                   Clair%Mills%NULL%1,                   Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                   Nhu Ngoc%Nguyen%NULL%1,                   Van Thuan%Hoang%NULL%0,                   Ndiaw%Goumballa%NULL%0,                   Meriem%Louni%NULL%0,                   Naomie%Canard%NULL%0,                   Thi Loi%Dao%NULL%0,                   Hacene%Medkour%NULL%0,                   Audrey%Borg%NULL%0,                   Kevin%Bardy%NULL%0,                   Véra%Esteves-Vieira%NULL%0,                   Véronique%Filosa%NULL%0,                   Bernard%Davoust%NULL%0,                   Oleg%Mediannikov%NULL%0,                   Pierre-Edouard%Fournier%NULL%0,                   Didier%Raoult%NULL%0,                   Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                   Aldo%Morrone%NULL%1,                   Andrea%Arcangeli%NULL%1,                   Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                   Marc%Delforge%NULL%1,                   Faustine%Lebout%NULL%1,                   Thibaut%Vanbaelen%NULL%1,                   Amaryl%Lecompte%NULL%1,                   Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                   Pilar%Andrés%NULL%2,                   Pilar%Andrés%NULL%0,                   Alberto%Bullón%NULL%1,                   José Luis%Villegas%NULL%2,                   José Luis%Villegas%NULL%0,                   Javier Ignacio%de la Iglesia-Larrad%NULL%1,                   Berta%Bote%NULL%1,                   Nieves%Prieto%NULL%1,                   Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                    Erin M.%Parker%NULL%2,                    Kristie E. N.%Clarke%NULL%1,                    Jessie M.%Gaeta%NULL%1,                    Travis P.%Baggett%NULL%1,                    Elizabeth%Imbert%NULL%1,                    Madeline%Sankaran%NULL%2,                    Ashley%Scarborough%NULL%2,                    Karin%Huster%NULL%2,                    Matt%Hanson%NULL%1,                    Elysia%Gonzales%NULL%2,                    Jody%Rauch%NULL%2,                    Libby%Page%NULL%1,                    Temet M.%McMichael%NULL%2,                    Ryan%Keating%NULL%2,                    Grace E.%Marx%NULL%2,                    Tom%Andrews%NULL%2,                    Kristine%Schmit%NULL%2,                    Sapna Bamrah%Morris%NULL%2,                    Nicole F.%Dowling%NULL%2,                    Georgina%Peacock%NULL%2,                    NULL%NULL%NULL%5,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    Ann%Buff%NULL%1,                    Calla%Jamison%NULL%2,                    Ruthanne%Marcus%NULL%1,                    Carol Y.%Rao%NULL%2,                    Julie L.%Self%NULL%2,                    Farrell%Tobolowsky%NULL%1,                    Samantha%Williams%NULL%1,                    Meagan%Kay%NULL%2,                    Naveena%Bobba%NULL%1,                    Stephanie%Cohen%NULL%2,                    Jonathan%Fuchs%NULL%1,                    Trang%Nguyen%NULL%1,                    Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                    Elizabeth S%Davis%NULL%2,                    Elizabeth S%Davis%NULL%0,                    Stockton%Mayer%NULL%1,                    Karrie-Ann%Toews%NULL%1,                    Thomas D%Huggett%NULL%1,                    Nyssa%Snow-Hill%NULL%1,                    Omar%Perez%NULL%1,                    Mary K%Hayden%NULL%1,                    Seena%Tehrani%NULL%1,                    A Justine%Landi%NULL%1,                    Stephanie%Crane%NULL%1,                    Elizabeth%Bell%NULL%1,                    Joy-Marie%Hermes%NULL%1,                    Kush%Desai%NULL%1,                    Michelle%Godbee%NULL%1,                    Naman%Jhaveri%NULL%1,                    Brian%Borah%NULL%1,                    Tracy%Cable%NULL%1,                    Sofia%Sami%NULL%1,                    Laura%Nozicka%NULL%1,                    Yi-Shin%Chang%NULL%1,                    Aditi%Jagadish%NULL%1,                    Mark%Chee%NULL%1,                    Brynna%Thigpen%NULL%1,                    Christopher%Llerena%NULL%1,                    Minh%Tran%NULL%1,                    Divya Meher%Surabhi%NULL%1,                    Emilia D%Smith%NULL%1,                    Rosemary G%Remus%NULL%1,                    Roweine%Staszcuk%NULL%1,                    Evelyn%Figueroa%NULL%1,                    Paul%Leo%NULL%1,                    Wayne M%Detmer%NULL%1,                    Evan%Lyon%NULL%1,                    Sarah%Carreon%NULL%1,                    Stacey%Hoferka%NULL%1,                    Kathleen A%Ritger%NULL%1,                    Wilnise%Jasmin%NULL%1,                    Prathima%Nagireddy%NULL%1,                    Jennifer Y%Seo%NULL%1,                    Marielle J%Fricchione%NULL%1,                    Janna L%Kerins%NULL%1,                    Stephanie R%Black%NULL%1,                    Lisa Morrison%Butler%NULL%1,                    Kimberly%Howard%NULL%1,                    Maura%McCauley%NULL%1,                    Todd%Fraley%NULL%1,                    M Allison%Arwady%NULL%1,                    Stephanie%Gretsch%NULL%1,                    Megan%Cunningham%NULL%1,                    Massimo%Pacilli%NULL%1,                    Peter S%Ruestow%NULL%2,                    Peter S%Ruestow%NULL%0,                    Emily%Mosites%NULL%3,                    Elizabeth%Avery%NULL%1,                    Joshua%Longcoy%NULL%1,                    Elizabeth B%Lynch%NULL%1,                    Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                    Melisa Mei Jin%Tan%NULL%1,                    Eva%Turk%NULL%1,                    Devi%Sridhar%NULL%1,                    Gabriel M%Leung%NULL%1,                    Kenji%Shibuya%NULL%1,                    Nima%Asgari%NULL%1,                    Juhwan%Oh%NULL%1,                    Alberto L%García-Basteiro%NULL%1,                    Johanna%Hanefeld%NULL%1,                    Alex R%Cook%NULL%1,                    Li Yang%Hsu%NULL%1,                    Yik Ying%Teo%NULL%1,                    David%Heymann%NULL%1,                    Helen%Clark%NULL%1,                    Martin%McKee%NULL%1,                    Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                    Erin M.%Ashe%NULL%1,                    Michael%Silverstein%NULL%1,                    Melissa%Hofman%NULL%1,                    Samantha J.%Lange%NULL%1,                    Hilda%Razzaghi%NULL%1,                    Rebecca G.%Mishuris%NULL%1,                    Ravin%Davidoff%NULL%1,                    Erin M.%Parker%NULL%0,                    Ana%Penman-Aguilar%NULL%1,                    Kristie E.N.%Clarke%NULL%1,                    Anna%Goldman%NULL%1,                    Thea L.%James%NULL%1,                    Karen%Jacobson%NULL%1,                    Karen E.%Lasser%NULL%1,                    Ziming%Xuan%NULL%1,                    Georgina%Peacock%NULL%0,                    Nicole F.%Dowling%NULL%0,                    Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                    Alexander%Winnett%NULL%2,                    Alexander%Winnett%NULL%0,                    Christopher J.%Graber%NULL%2,                    Christopher J.%Graber%NULL%0,                    John%Vallone%NULL%1,                    David O.%Beenhouwer%NULL%1,                    Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                    Holly%Murphy%NULL%1,                    Ravi%Vadlamudi%NULL%2,                    Ravi%Vadlamudi%NULL%0,                    Ruth%Kraut%NULL%1,                    Kate%Dalessio%NULL%1,                    Anurag N.%Malani%NULL%1,                    Meghan%Glabach%NULL%1,                    Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                    Amy C.%Link%NULL%2,                    Amy C.%Link%NULL%0,                    Denise%McCulloch%NULL%1,                    Elisabeth%Brandstetter%NULL%1,                    Kira L.%Newman%NULL%2,                    Kira L.%Newman%NULL%0,                    Michael L.%Jackson%NULL%2,                    Michael L.%Jackson%NULL%0,                    James P.%Hughes%NULL%2,                    James P.%Hughes%NULL%0,                    Janet A.%Englund%NULL%2,                    Janet A.%Englund%NULL%0,                    Michael%Boeckh%NULL%2,                    Michael%Boeckh%NULL%0,                    Nancy%Sugg%NULL%2,                    Misja%Ilcisin%NULL%1,                    Thomas R.%Sibley%NULL%2,                    Thomas R.%Sibley%NULL%0,                    Kairsten%Fay%NULL%2,                    Kairsten%Fay%NULL%0,                    Jover%Lee%NULL%2,                    Jover%Lee%NULL%0,                    Peter%Han%NULL%2,                    Peter%Han%NULL%0,                    Melissa%Truong%NULL%1,                    Matthew%Richardson%NULL%2,                    Matthew%Richardson%NULL%0,                    Deborah A.%Nickerson%NULL%2,                    Deborah A.%Nickerson%NULL%0,                    Lea M.%Starita%NULL%1,                    Trevor%Bedford%NULL%2,                    Trevor%Bedford%NULL%0,                    Helen Y.%Chu%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                    Elizabeth J.%D'Amico%NULL%1,                    Eric R.%Pedersen%NULL%1,                    Rick%Garvey%NULL%1,                    Anthony%Rodriguez%NULL%1,                    David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                    Christian%Ramers%NULL%1,                    Adam%Northrup%NULL%1,                    Aaron%Tam%aaront@fhscd.org%1,                    Jie%Liu%NULL%1,                    Sarah%Rojas%NULL%1,                    Stacey%Klaman%NULL%1,                    Maureen%Khasira%NULL%1,                    Jenan%Madbak%NULL%1,                    Eva%Matthews%NULL%1,                    Jeffrey%Norris%NULL%1,                    Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                    Martha P%Montgomery%NULL%2,                    Martha P%Montgomery%NULL%0,                    Ann M%Buff%NULL%1,                    Andrew T%Boyd%NULL%1,                    Calla%Jamison%NULL%0,                    Alfonso%Hernandez%NULL%1,                    Kristine%Schmit%NULL%0,                    Sarita%Shah%NULL%1,                    Sophia%Ajoku%NULL%1,                    David P%Holland%NULL%1,                    Juliana%Prieto%NULL%1,                    Sasha%Smith%NULL%1,                    Mark A%Swancutt%NULL%1,                    Kim%Turner%NULL%1,                    Tom%Andrews%NULL%0,                    Kevin%Flowers%NULL%1,                    Alyssa%Wells%NULL%1,                    Cathryn%Marchman%NULL%1,                    Emaline%Laney%NULL%1,                    Danae%Bixler%NULL%1,                    Sean%Cavanaugh%NULL%1,                    Nicole%Flowers%NULL%1,                    Nicholas%Gaffga%NULL%1,                    Jean Y%Ko%NULL%1,                    Heather N%Paulin%NULL%1,                    Mark K%Weng%NULL%1,                    Emily%Mosites%NULL%0,                    Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                    Patrick M%Kinley%NULL%1,                    Ashley%Scarborough%NULL%0,                    Caroline%Cawley%NULL%1,                    Madeline%Sankaran%NULL%0,                    Sarah N%Cox%NULL%1,                    Margot%Kushel%NULL%1,                    Juliet%Stoltey%NULL%1,                    Stephanie%Cohen%NULL%0,                    Jonathan D%Fuchs%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                    Elysia%Gonzales%NULL%0,                    Julie L.%Self%NULL%0,                    Carol Y.%Rao%NULL%0,                    Ryan%Keating%NULL%0,                    Grace E.%Marx%NULL%0,                    Temet M.%McMichael%NULL%0,                    Margaret D.%Lukoff%NULL%1,                    Jeffrey S.%Duchin%NULL%1,                    Karin%Huster%NULL%0,                    Jody%Rauch%NULL%0,                    Hedda%McLendon%NULL%1,                    Matthew%Hanson%NULL%1,                    Dave%Nichols%NULL%1,                    Sargis%Pogosjans%NULL%1,                    Meaghan%Fagalde%NULL%1,                    Jennifer%Lenahan%NULL%1,                    Emily%Maier%NULL%1,                    Holly%Whitney%NULL%1,                    Nancy%Sugg%NULL%0,                    Helen%Chu%NULL%1,                    Julia%Rogers%NULL%1,                    Emily%Mosites%NULL%0,                    Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                    Elizabeth%Samuels%NULL%1,                    Rahul%Vanjani%NULL%1,                    Catherine%Trimbur%NULL%1,                    Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                    Josephine%Jacobs%NULL%2,                    Josephine%Jacobs%NULL%0,                    Maria%Yefimova%NULL%1,                    Liberty%Greene%NULL%1,                    Leonie%Heyworth%NULL%1,                    Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                    Richard%Booth%NULL%1,                    Jennifer%Rayner%NULL%1,                    Kristin K.%Clemens%NULL%1,                    Cheryl%Forchuk%NULL%1,                    Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                     Huiting%Ma%null%1,                     Kristy C.Y.%Yiu%null%1,                     Andrew%Calzavara%null%1,                     David%Landsman%null%1,                     Linh%Luong%null%1,                     Adrienne K.%Chan%null%1,                     Rafal%Kustra%null%1,                     Jeffrey C.%Kwong%null%1,                     Marie-Claude%Boily%null%1,                     Stephen%Hwang%null%1,                     Sharon%Straus%null%1,                     Stefan D.%Baral%null%1,                     Sharmistha%Mishra%null%1,                    Linwei%Wang%null%1,                    Huiting%Ma%null%1,                    Kristy C.Y.%Yiu%null%1,                    Andrew%Calzavara%null%1,                    David%Landsman%null%1,                    Linh%Luong%null%1,                    Adrienne K.%Chan%null%1,                    Rafal%Kustra%null%1,                    Jeffrey C.%Kwong%null%1,                    Marie-Claude%Boily%null%1,                    Stephen%Hwang%null%1,                    Sharon%Straus%null%1,                    Stefan D.%Baral%null%1,                    Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                    Van Thuan%Hoang%NULL%2,                    Ndiaw%Goumballa%NULL%2,                    Meriem%Louni%NULL%2,                    Naomie%Canard%NULL%2,                    Thi Loi%Dao%NULL%2,                    Hacene%Medkour%NULL%2,                    Audrey%Borg%NULL%2,                    Kevin%Bardy%NULL%2,                    Véra%Esteves-Vieira%NULL%2,                    Véronique%Filosa%NULL%2,                    Bernard%Davoust%NULL%2,                    Oleg%Mediannikov%NULL%2,                    Pierre-Edouard%Fournier%NULL%2,                    Didier%Raoult%NULL%2,                    Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                    Bastien%Mollo%NULL%1,                    Charline%Vincent%NULL%1,                    Birgit%Nikolay%NULL%1,                    Augusto E%Llosa%NULL%1,                    Robin%Nesbitt%NULL%1,                    Jessica%Vanhomwegen%NULL%1,                    Thierry%Rose%NULL%1,                    Sophie%Goyard%NULL%1,                    François%Anna%NULL%1,                    Corinne%Torre%NULL%1,                    Emilie%Fourrey%NULL%1,                    Erica%Simons%NULL%1,                    William%Hennequin%NULL%1,                    Clair%Mills%NULL%1,                    Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                    Nhu Ngoc%Nguyen%NULL%1,                    Van Thuan%Hoang%NULL%0,                    Ndiaw%Goumballa%NULL%0,                    Meriem%Louni%NULL%0,                    Naomie%Canard%NULL%0,                    Thi Loi%Dao%NULL%0,                    Hacene%Medkour%NULL%0,                    Audrey%Borg%NULL%0,                    Kevin%Bardy%NULL%0,                    Véra%Esteves-Vieira%NULL%0,                    Véronique%Filosa%NULL%0,                    Bernard%Davoust%NULL%0,                    Oleg%Mediannikov%NULL%0,                    Pierre-Edouard%Fournier%NULL%0,                    Didier%Raoult%NULL%0,                    Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                    Aldo%Morrone%NULL%1,                    Andrea%Arcangeli%NULL%1,                    Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                    Marc%Delforge%NULL%1,                    Faustine%Lebout%NULL%1,                    Thibaut%Vanbaelen%NULL%1,                    Amaryl%Lecompte%NULL%1,                    Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                    Pilar%Andrés%NULL%2,                    Pilar%Andrés%NULL%0,                    Alberto%Bullón%NULL%1,                    José Luis%Villegas%NULL%2,                    José Luis%Villegas%NULL%0,                    Javier Ignacio%de la Iglesia-Larrad%NULL%1,                    Berta%Bote%NULL%1,                    Nieves%Prieto%NULL%1,                    Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                     Erin M.%Parker%NULL%2,                     Kristie E. N.%Clarke%NULL%1,                     Jessie M.%Gaeta%NULL%1,                     Travis P.%Baggett%NULL%1,                     Elizabeth%Imbert%NULL%1,                     Madeline%Sankaran%NULL%2,                     Ashley%Scarborough%NULL%2,                     Karin%Huster%NULL%2,                     Matt%Hanson%NULL%1,                     Elysia%Gonzales%NULL%2,                     Jody%Rauch%NULL%2,                     Libby%Page%NULL%1,                     Temet M.%McMichael%NULL%2,                     Ryan%Keating%NULL%2,                     Grace E.%Marx%NULL%2,                     Tom%Andrews%NULL%2,                     Kristine%Schmit%NULL%2,                     Sapna Bamrah%Morris%NULL%2,                     Nicole F.%Dowling%NULL%2,                     Georgina%Peacock%NULL%2,                     NULL%NULL%NULL%5,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     Ann%Buff%NULL%1,                     Calla%Jamison%NULL%2,                     Ruthanne%Marcus%NULL%1,                     Carol Y.%Rao%NULL%2,                     Julie L.%Self%NULL%2,                     Farrell%Tobolowsky%NULL%1,                     Samantha%Williams%NULL%1,                     Meagan%Kay%NULL%2,                     Naveena%Bobba%NULL%1,                     Stephanie%Cohen%NULL%2,                     Jonathan%Fuchs%NULL%1,                     Trang%Nguyen%NULL%1,                     Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                     Elizabeth S%Davis%NULL%2,                     Elizabeth S%Davis%NULL%0,                     Stockton%Mayer%NULL%1,                     Karrie-Ann%Toews%NULL%1,                     Thomas D%Huggett%NULL%1,                     Nyssa%Snow-Hill%NULL%1,                     Omar%Perez%NULL%1,                     Mary K%Hayden%NULL%1,                     Seena%Tehrani%NULL%1,                     A Justine%Landi%NULL%1,                     Stephanie%Crane%NULL%1,                     Elizabeth%Bell%NULL%1,                     Joy-Marie%Hermes%NULL%1,                     Kush%Desai%NULL%1,                     Michelle%Godbee%NULL%1,                     Naman%Jhaveri%NULL%1,                     Brian%Borah%NULL%1,                     Tracy%Cable%NULL%1,                     Sofia%Sami%NULL%1,                     Laura%Nozicka%NULL%1,                     Yi-Shin%Chang%NULL%1,                     Aditi%Jagadish%NULL%1,                     Mark%Chee%NULL%1,                     Brynna%Thigpen%NULL%1,                     Christopher%Llerena%NULL%1,                     Minh%Tran%NULL%1,                     Divya Meher%Surabhi%NULL%1,                     Emilia D%Smith%NULL%1,                     Rosemary G%Remus%NULL%1,                     Roweine%Staszcuk%NULL%1,                     Evelyn%Figueroa%NULL%1,                     Paul%Leo%NULL%1,                     Wayne M%Detmer%NULL%1,                     Evan%Lyon%NULL%1,                     Sarah%Carreon%NULL%1,                     Stacey%Hoferka%NULL%1,                     Kathleen A%Ritger%NULL%1,                     Wilnise%Jasmin%NULL%1,                     Prathima%Nagireddy%NULL%1,                     Jennifer Y%Seo%NULL%1,                     Marielle J%Fricchione%NULL%1,                     Janna L%Kerins%NULL%1,                     Stephanie R%Black%NULL%1,                     Lisa Morrison%Butler%NULL%1,                     Kimberly%Howard%NULL%1,                     Maura%McCauley%NULL%1,                     Todd%Fraley%NULL%1,                     M Allison%Arwady%NULL%1,                     Stephanie%Gretsch%NULL%1,                     Megan%Cunningham%NULL%1,                     Massimo%Pacilli%NULL%1,                     Peter S%Ruestow%NULL%2,                     Peter S%Ruestow%NULL%0,                     Emily%Mosites%NULL%3,                     Elizabeth%Avery%NULL%1,                     Joshua%Longcoy%NULL%1,                     Elizabeth B%Lynch%NULL%1,                     Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                     Melisa Mei Jin%Tan%NULL%1,                     Eva%Turk%NULL%1,                     Devi%Sridhar%NULL%1,                     Gabriel M%Leung%NULL%1,                     Kenji%Shibuya%NULL%1,                     Nima%Asgari%NULL%1,                     Juhwan%Oh%NULL%1,                     Alberto L%García-Basteiro%NULL%1,                     Johanna%Hanefeld%NULL%1,                     Alex R%Cook%NULL%1,                     Li Yang%Hsu%NULL%1,                     Yik Ying%Teo%NULL%1,                     David%Heymann%NULL%1,                     Helen%Clark%NULL%1,                     Martin%McKee%NULL%1,                     Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                     Erin M.%Ashe%NULL%1,                     Michael%Silverstein%NULL%1,                     Melissa%Hofman%NULL%1,                     Samantha J.%Lange%NULL%1,                     Hilda%Razzaghi%NULL%1,                     Rebecca G.%Mishuris%NULL%1,                     Ravin%Davidoff%NULL%1,                     Erin M.%Parker%NULL%0,                     Ana%Penman-Aguilar%NULL%1,                     Kristie E.N.%Clarke%NULL%1,                     Anna%Goldman%NULL%1,                     Thea L.%James%NULL%1,                     Karen%Jacobson%NULL%1,                     Karen E.%Lasser%NULL%1,                     Ziming%Xuan%NULL%1,                     Georgina%Peacock%NULL%0,                     Nicole F.%Dowling%NULL%0,                     Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                     Alexander%Winnett%NULL%2,                     Alexander%Winnett%NULL%0,                     Christopher J.%Graber%NULL%2,                     Christopher J.%Graber%NULL%0,                     John%Vallone%NULL%1,                     David O.%Beenhouwer%NULL%1,                     Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                     Holly%Murphy%NULL%1,                     Ravi%Vadlamudi%NULL%2,                     Ravi%Vadlamudi%NULL%0,                     Ruth%Kraut%NULL%1,                     Kate%Dalessio%NULL%1,                     Anurag N.%Malani%NULL%1,                     Meghan%Glabach%NULL%1,                     Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                     Amy C.%Link%NULL%2,                     Amy C.%Link%NULL%0,                     Denise%McCulloch%NULL%1,                     Elisabeth%Brandstetter%NULL%1,                     Kira L.%Newman%NULL%2,                     Kira L.%Newman%NULL%0,                     Michael L.%Jackson%NULL%2,                     Michael L.%Jackson%NULL%0,                     James P.%Hughes%NULL%2,                     James P.%Hughes%NULL%0,                     Janet A.%Englund%NULL%2,                     Janet A.%Englund%NULL%0,                     Michael%Boeckh%NULL%2,                     Michael%Boeckh%NULL%0,                     Nancy%Sugg%NULL%2,                     Misja%Ilcisin%NULL%1,                     Thomas R.%Sibley%NULL%2,                     Thomas R.%Sibley%NULL%0,                     Kairsten%Fay%NULL%2,                     Kairsten%Fay%NULL%0,                     Jover%Lee%NULL%2,                     Jover%Lee%NULL%0,                     Peter%Han%NULL%2,                     Peter%Han%NULL%0,                     Melissa%Truong%NULL%1,                     Matthew%Richardson%NULL%2,                     Matthew%Richardson%NULL%0,                     Deborah A.%Nickerson%NULL%2,                     Deborah A.%Nickerson%NULL%0,                     Lea M.%Starita%NULL%1,                     Trevor%Bedford%NULL%2,                     Trevor%Bedford%NULL%0,                     Helen Y.%Chu%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                     Elizabeth J.%D'Amico%NULL%1,                     Eric R.%Pedersen%NULL%1,                     Rick%Garvey%NULL%1,                     Anthony%Rodriguez%NULL%1,                     David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                     Christian%Ramers%NULL%1,                     Adam%Northrup%NULL%1,                     Aaron%Tam%aaront@fhscd.org%1,                     Jie%Liu%NULL%1,                     Sarah%Rojas%NULL%1,                     Stacey%Klaman%NULL%1,                     Maureen%Khasira%NULL%1,                     Jenan%Madbak%NULL%1,                     Eva%Matthews%NULL%1,                     Jeffrey%Norris%NULL%1,                     Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                     Martha P%Montgomery%NULL%2,                     Martha P%Montgomery%NULL%0,                     Ann M%Buff%NULL%1,                     Andrew T%Boyd%NULL%1,                     Calla%Jamison%NULL%0,                     Alfonso%Hernandez%NULL%1,                     Kristine%Schmit%NULL%0,                     Sarita%Shah%NULL%1,                     Sophia%Ajoku%NULL%1,                     David P%Holland%NULL%1,                     Juliana%Prieto%NULL%1,                     Sasha%Smith%NULL%1,                     Mark A%Swancutt%NULL%1,                     Kim%Turner%NULL%1,                     Tom%Andrews%NULL%0,                     Kevin%Flowers%NULL%1,                     Alyssa%Wells%NULL%1,                     Cathryn%Marchman%NULL%1,                     Emaline%Laney%NULL%1,                     Danae%Bixler%NULL%1,                     Sean%Cavanaugh%NULL%1,                     Nicole%Flowers%NULL%1,                     Nicholas%Gaffga%NULL%1,                     Jean Y%Ko%NULL%1,                     Heather N%Paulin%NULL%1,                     Mark K%Weng%NULL%1,                     Emily%Mosites%NULL%0,                     Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                     Patrick M%Kinley%NULL%1,                     Ashley%Scarborough%NULL%0,                     Caroline%Cawley%NULL%1,                     Madeline%Sankaran%NULL%0,                     Sarah N%Cox%NULL%1,                     Margot%Kushel%NULL%1,                     Juliet%Stoltey%NULL%1,                     Stephanie%Cohen%NULL%0,                     Jonathan D%Fuchs%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                     Elysia%Gonzales%NULL%0,                     Julie L.%Self%NULL%0,                     Carol Y.%Rao%NULL%0,                     Ryan%Keating%NULL%0,                     Grace E.%Marx%NULL%0,                     Temet M.%McMichael%NULL%0,                     Margaret D.%Lukoff%NULL%1,                     Jeffrey S.%Duchin%NULL%1,                     Karin%Huster%NULL%0,                     Jody%Rauch%NULL%0,                     Hedda%McLendon%NULL%1,                     Matthew%Hanson%NULL%1,                     Dave%Nichols%NULL%1,                     Sargis%Pogosjans%NULL%1,                     Meaghan%Fagalde%NULL%1,                     Jennifer%Lenahan%NULL%1,                     Emily%Maier%NULL%1,                     Holly%Whitney%NULL%1,                     Nancy%Sugg%NULL%0,                     Helen%Chu%NULL%1,                     Julia%Rogers%NULL%1,                     Emily%Mosites%NULL%0,                     Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                     Elizabeth%Samuels%NULL%1,                     Rahul%Vanjani%NULL%1,                     Catherine%Trimbur%NULL%1,                     Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                     Josephine%Jacobs%NULL%2,                     Josephine%Jacobs%NULL%0,                     Maria%Yefimova%NULL%1,                     Liberty%Greene%NULL%1,                     Leonie%Heyworth%NULL%1,                     Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                     Richard%Booth%NULL%1,                     Jennifer%Rayner%NULL%1,                     Kristin K.%Clemens%NULL%1,                     Cheryl%Forchuk%NULL%1,                     Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                      Huiting%Ma%null%1,                      Kristy C.Y.%Yiu%null%1,                      Andrew%Calzavara%null%1,                      David%Landsman%null%1,                      Linh%Luong%null%1,                      Adrienne K.%Chan%null%1,                      Rafal%Kustra%null%1,                      Jeffrey C.%Kwong%null%1,                      Marie-Claude%Boily%null%1,                      Stephen%Hwang%null%1,                      Sharon%Straus%null%1,                      Stefan D.%Baral%null%1,                      Sharmistha%Mishra%null%1,                     Linwei%Wang%null%1,                     Huiting%Ma%null%1,                     Kristy C.Y.%Yiu%null%1,                     Andrew%Calzavara%null%1,                     David%Landsman%null%1,                     Linh%Luong%null%1,                     Adrienne K.%Chan%null%1,                     Rafal%Kustra%null%1,                     Jeffrey C.%Kwong%null%1,                     Marie-Claude%Boily%null%1,                     Stephen%Hwang%null%1,                     Sharon%Straus%null%1,                     Stefan D.%Baral%null%1,                     Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                     Van Thuan%Hoang%NULL%2,                     Ndiaw%Goumballa%NULL%2,                     Meriem%Louni%NULL%2,                     Naomie%Canard%NULL%2,                     Thi Loi%Dao%NULL%2,                     Hacene%Medkour%NULL%2,                     Audrey%Borg%NULL%2,                     Kevin%Bardy%NULL%2,                     Véra%Esteves-Vieira%NULL%2,                     Véronique%Filosa%NULL%2,                     Bernard%Davoust%NULL%2,                     Oleg%Mediannikov%NULL%2,                     Pierre-Edouard%Fournier%NULL%2,                     Didier%Raoult%NULL%2,                     Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                     Bastien%Mollo%NULL%1,                     Charline%Vincent%NULL%1,                     Birgit%Nikolay%NULL%1,                     Augusto E%Llosa%NULL%1,                     Robin%Nesbitt%NULL%1,                     Jessica%Vanhomwegen%NULL%1,                     Thierry%Rose%NULL%1,                     Sophie%Goyard%NULL%1,                     François%Anna%NULL%1,                     Corinne%Torre%NULL%1,                     Emilie%Fourrey%NULL%1,                     Erica%Simons%NULL%1,                     William%Hennequin%NULL%1,                     Clair%Mills%NULL%1,                     Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                     Nhu Ngoc%Nguyen%NULL%1,                     Van Thuan%Hoang%NULL%0,                     Ndiaw%Goumballa%NULL%0,                     Meriem%Louni%NULL%0,                     Naomie%Canard%NULL%0,                     Thi Loi%Dao%NULL%0,                     Hacene%Medkour%NULL%0,                     Audrey%Borg%NULL%0,                     Kevin%Bardy%NULL%0,                     Véra%Esteves-Vieira%NULL%0,                     Véronique%Filosa%NULL%0,                     Bernard%Davoust%NULL%0,                     Oleg%Mediannikov%NULL%0,                     Pierre-Edouard%Fournier%NULL%0,                     Didier%Raoult%NULL%0,                     Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                     Aldo%Morrone%NULL%1,                     Andrea%Arcangeli%NULL%1,                     Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                     Marc%Delforge%NULL%1,                     Faustine%Lebout%NULL%1,                     Thibaut%Vanbaelen%NULL%1,                     Amaryl%Lecompte%NULL%1,                     Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                     Pilar%Andrés%NULL%2,                     Pilar%Andrés%NULL%0,                     Alberto%Bullón%NULL%1,                     José Luis%Villegas%NULL%2,                     José Luis%Villegas%NULL%0,                     Javier Ignacio%de la Iglesia-Larrad%NULL%1,                     Berta%Bote%NULL%1,                     Nieves%Prieto%NULL%1,                     Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                      Erin M.%Parker%NULL%2,                      Kristie E. N.%Clarke%NULL%1,                      Jessie M.%Gaeta%NULL%1,                      Travis P.%Baggett%NULL%1,                      Elizabeth%Imbert%NULL%1,                      Madeline%Sankaran%NULL%2,                      Ashley%Scarborough%NULL%2,                      Karin%Huster%NULL%2,                      Matt%Hanson%NULL%1,                      Elysia%Gonzales%NULL%2,                      Jody%Rauch%NULL%2,                      Libby%Page%NULL%1,                      Temet M.%McMichael%NULL%2,                      Ryan%Keating%NULL%2,                      Grace E.%Marx%NULL%2,                      Tom%Andrews%NULL%2,                      Kristine%Schmit%NULL%2,                      Sapna Bamrah%Morris%NULL%2,                      Nicole F.%Dowling%NULL%2,                      Georgina%Peacock%NULL%2,                      NULL%NULL%NULL%5,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      Ann%Buff%NULL%1,                      Calla%Jamison%NULL%2,                      Ruthanne%Marcus%NULL%1,                      Carol Y.%Rao%NULL%2,                      Julie L.%Self%NULL%2,                      Farrell%Tobolowsky%NULL%1,                      Samantha%Williams%NULL%1,                      Meagan%Kay%NULL%2,                      Naveena%Bobba%NULL%1,                      Stephanie%Cohen%NULL%2,                      Jonathan%Fuchs%NULL%1,                      Trang%Nguyen%NULL%1,                      Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                      Elizabeth S%Davis%NULL%2,                      Elizabeth S%Davis%NULL%0,                      Stockton%Mayer%NULL%1,                      Karrie-Ann%Toews%NULL%1,                      Thomas D%Huggett%NULL%1,                      Nyssa%Snow-Hill%NULL%1,                      Omar%Perez%NULL%1,                      Mary K%Hayden%NULL%1,                      Seena%Tehrani%NULL%1,                      A Justine%Landi%NULL%1,                      Stephanie%Crane%NULL%1,                      Elizabeth%Bell%NULL%1,                      Joy-Marie%Hermes%NULL%1,                      Kush%Desai%NULL%1,                      Michelle%Godbee%NULL%1,                      Naman%Jhaveri%NULL%1,                      Brian%Borah%NULL%1,                      Tracy%Cable%NULL%1,                      Sofia%Sami%NULL%1,                      Laura%Nozicka%NULL%1,                      Yi-Shin%Chang%NULL%1,                      Aditi%Jagadish%NULL%1,                      Mark%Chee%NULL%1,                      Brynna%Thigpen%NULL%1,                      Christopher%Llerena%NULL%1,                      Minh%Tran%NULL%1,                      Divya Meher%Surabhi%NULL%1,                      Emilia D%Smith%NULL%1,                      Rosemary G%Remus%NULL%1,                      Roweine%Staszcuk%NULL%1,                      Evelyn%Figueroa%NULL%1,                      Paul%Leo%NULL%1,                      Wayne M%Detmer%NULL%1,                      Evan%Lyon%NULL%1,                      Sarah%Carreon%NULL%1,                      Stacey%Hoferka%NULL%1,                      Kathleen A%Ritger%NULL%1,                      Wilnise%Jasmin%NULL%1,                      Prathima%Nagireddy%NULL%1,                      Jennifer Y%Seo%NULL%1,                      Marielle J%Fricchione%NULL%1,                      Janna L%Kerins%NULL%1,                      Stephanie R%Black%NULL%1,                      Lisa Morrison%Butler%NULL%1,                      Kimberly%Howard%NULL%1,                      Maura%McCauley%NULL%1,                      Todd%Fraley%NULL%1,                      M Allison%Arwady%NULL%1,                      Stephanie%Gretsch%NULL%1,                      Megan%Cunningham%NULL%1,                      Massimo%Pacilli%NULL%1,                      Peter S%Ruestow%NULL%2,                      Peter S%Ruestow%NULL%0,                      Emily%Mosites%NULL%3,                      Elizabeth%Avery%NULL%1,                      Joshua%Longcoy%NULL%1,                      Elizabeth B%Lynch%NULL%1,                      Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                      Melisa Mei Jin%Tan%NULL%1,                      Eva%Turk%NULL%1,                      Devi%Sridhar%NULL%1,                      Gabriel M%Leung%NULL%1,                      Kenji%Shibuya%NULL%1,                      Nima%Asgari%NULL%1,                      Juhwan%Oh%NULL%1,                      Alberto L%García-Basteiro%NULL%1,                      Johanna%Hanefeld%NULL%1,                      Alex R%Cook%NULL%1,                      Li Yang%Hsu%NULL%1,                      Yik Ying%Teo%NULL%1,                      David%Heymann%NULL%1,                      Helen%Clark%NULL%1,                      Martin%McKee%NULL%1,                      Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                      Erin M.%Ashe%NULL%1,                      Michael%Silverstein%NULL%1,                      Melissa%Hofman%NULL%1,                      Samantha J.%Lange%NULL%1,                      Hilda%Razzaghi%NULL%1,                      Rebecca G.%Mishuris%NULL%1,                      Ravin%Davidoff%NULL%1,                      Erin M.%Parker%NULL%0,                      Ana%Penman-Aguilar%NULL%1,                      Kristie E.N.%Clarke%NULL%1,                      Anna%Goldman%NULL%1,                      Thea L.%James%NULL%1,                      Karen%Jacobson%NULL%1,                      Karen E.%Lasser%NULL%1,                      Ziming%Xuan%NULL%1,                      Georgina%Peacock%NULL%0,                      Nicole F.%Dowling%NULL%0,                      Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                      Alexander%Winnett%NULL%2,                      Alexander%Winnett%NULL%0,                      Christopher J.%Graber%NULL%2,                      Christopher J.%Graber%NULL%0,                      John%Vallone%NULL%1,                      David O.%Beenhouwer%NULL%1,                      Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                      Holly%Murphy%NULL%1,                      Ravi%Vadlamudi%NULL%2,                      Ravi%Vadlamudi%NULL%0,                      Ruth%Kraut%NULL%1,                      Kate%Dalessio%NULL%1,                      Anurag N.%Malani%NULL%1,                      Meghan%Glabach%NULL%1,                      Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                      Amy C.%Link%NULL%2,                      Amy C.%Link%NULL%0,                      Denise%McCulloch%NULL%1,                      Elisabeth%Brandstetter%NULL%1,                      Kira L.%Newman%NULL%2,                      Kira L.%Newman%NULL%0,                      Michael L.%Jackson%NULL%2,                      Michael L.%Jackson%NULL%0,                      James P.%Hughes%NULL%2,                      James P.%Hughes%NULL%0,                      Janet A.%Englund%NULL%2,                      Janet A.%Englund%NULL%0,                      Michael%Boeckh%NULL%2,                      Michael%Boeckh%NULL%0,                      Nancy%Sugg%NULL%2,                      Misja%Ilcisin%NULL%1,                      Thomas R.%Sibley%NULL%2,                      Thomas R.%Sibley%NULL%0,                      Kairsten%Fay%NULL%2,                      Kairsten%Fay%NULL%0,                      Jover%Lee%NULL%2,                      Jover%Lee%NULL%0,                      Peter%Han%NULL%2,                      Peter%Han%NULL%0,                      Melissa%Truong%NULL%1,                      Matthew%Richardson%NULL%2,                      Matthew%Richardson%NULL%0,                      Deborah A.%Nickerson%NULL%2,                      Deborah A.%Nickerson%NULL%0,                      Lea M.%Starita%NULL%1,                      Trevor%Bedford%NULL%2,                      Trevor%Bedford%NULL%0,                      Helen Y.%Chu%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                      Elizabeth J.%D'Amico%NULL%1,                      Eric R.%Pedersen%NULL%1,                      Rick%Garvey%NULL%1,                      Anthony%Rodriguez%NULL%1,                      David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                      Christian%Ramers%NULL%1,                      Adam%Northrup%NULL%1,                      Aaron%Tam%aaront@fhscd.org%1,                      Jie%Liu%NULL%1,                      Sarah%Rojas%NULL%1,                      Stacey%Klaman%NULL%1,                      Maureen%Khasira%NULL%1,                      Jenan%Madbak%NULL%1,                      Eva%Matthews%NULL%1,                      Jeffrey%Norris%NULL%1,                      Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                      Martha P%Montgomery%NULL%2,                      Martha P%Montgomery%NULL%0,                      Ann M%Buff%NULL%1,                      Andrew T%Boyd%NULL%1,                      Calla%Jamison%NULL%0,                      Alfonso%Hernandez%NULL%1,                      Kristine%Schmit%NULL%0,                      Sarita%Shah%NULL%1,                      Sophia%Ajoku%NULL%1,                      David P%Holland%NULL%1,                      Juliana%Prieto%NULL%1,                      Sasha%Smith%NULL%1,                      Mark A%Swancutt%NULL%1,                      Kim%Turner%NULL%1,                      Tom%Andrews%NULL%0,                      Kevin%Flowers%NULL%1,                      Alyssa%Wells%NULL%1,                      Cathryn%Marchman%NULL%1,                      Emaline%Laney%NULL%1,                      Danae%Bixler%NULL%1,                      Sean%Cavanaugh%NULL%1,                      Nicole%Flowers%NULL%1,                      Nicholas%Gaffga%NULL%1,                      Jean Y%Ko%NULL%1,                      Heather N%Paulin%NULL%1,                      Mark K%Weng%NULL%1,                      Emily%Mosites%NULL%0,                      Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                      Patrick M%Kinley%NULL%1,                      Ashley%Scarborough%NULL%0,                      Caroline%Cawley%NULL%1,                      Madeline%Sankaran%NULL%0,                      Sarah N%Cox%NULL%1,                      Margot%Kushel%NULL%1,                      Juliet%Stoltey%NULL%1,                      Stephanie%Cohen%NULL%0,                      Jonathan D%Fuchs%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                      Elysia%Gonzales%NULL%0,                      Julie L.%Self%NULL%0,                      Carol Y.%Rao%NULL%0,                      Ryan%Keating%NULL%0,                      Grace E.%Marx%NULL%0,                      Temet M.%McMichael%NULL%0,                      Margaret D.%Lukoff%NULL%1,                      Jeffrey S.%Duchin%NULL%1,                      Karin%Huster%NULL%0,                      Jody%Rauch%NULL%0,                      Hedda%McLendon%NULL%1,                      Matthew%Hanson%NULL%1,                      Dave%Nichols%NULL%1,                      Sargis%Pogosjans%NULL%1,                      Meaghan%Fagalde%NULL%1,                      Jennifer%Lenahan%NULL%1,                      Emily%Maier%NULL%1,                      Holly%Whitney%NULL%1,                      Nancy%Sugg%NULL%0,                      Helen%Chu%NULL%1,                      Julia%Rogers%NULL%1,                      Emily%Mosites%NULL%0,                      Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                      Elizabeth%Samuels%NULL%1,                      Rahul%Vanjani%NULL%1,                      Catherine%Trimbur%NULL%1,                      Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                      Josephine%Jacobs%NULL%2,                      Josephine%Jacobs%NULL%0,                      Maria%Yefimova%NULL%1,                      Liberty%Greene%NULL%1,                      Leonie%Heyworth%NULL%1,                      Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                      Richard%Booth%NULL%1,                      Jennifer%Rayner%NULL%1,                      Kristin K.%Clemens%NULL%1,                      Cheryl%Forchuk%NULL%1,                      Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                       Huiting%Ma%null%1,                       Kristy C.Y.%Yiu%null%1,                       Andrew%Calzavara%null%1,                       David%Landsman%null%1,                       Linh%Luong%null%1,                       Adrienne K.%Chan%null%1,                       Rafal%Kustra%null%1,                       Jeffrey C.%Kwong%null%1,                       Marie-Claude%Boily%null%1,                       Stephen%Hwang%null%1,                       Sharon%Straus%null%1,                       Stefan D.%Baral%null%1,                       Sharmistha%Mishra%null%1,                      Linwei%Wang%null%1,                      Huiting%Ma%null%1,                      Kristy C.Y.%Yiu%null%1,                      Andrew%Calzavara%null%1,                      David%Landsman%null%1,                      Linh%Luong%null%1,                      Adrienne K.%Chan%null%1,                      Rafal%Kustra%null%1,                      Jeffrey C.%Kwong%null%1,                      Marie-Claude%Boily%null%1,                      Stephen%Hwang%null%1,                      Sharon%Straus%null%1,                      Stefan D.%Baral%null%1,                      Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                      Van Thuan%Hoang%NULL%2,                      Ndiaw%Goumballa%NULL%2,                      Meriem%Louni%NULL%2,                      Naomie%Canard%NULL%2,                      Thi Loi%Dao%NULL%2,                      Hacene%Medkour%NULL%2,                      Audrey%Borg%NULL%2,                      Kevin%Bardy%NULL%2,                      Véra%Esteves-Vieira%NULL%2,                      Véronique%Filosa%NULL%2,                      Bernard%Davoust%NULL%2,                      Oleg%Mediannikov%NULL%2,                      Pierre-Edouard%Fournier%NULL%2,                      Didier%Raoult%NULL%2,                      Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                      Bastien%Mollo%NULL%1,                      Charline%Vincent%NULL%1,                      Birgit%Nikolay%NULL%1,                      Augusto E%Llosa%NULL%1,                      Robin%Nesbitt%NULL%1,                      Jessica%Vanhomwegen%NULL%1,                      Thierry%Rose%NULL%1,                      Sophie%Goyard%NULL%1,                      François%Anna%NULL%1,                      Corinne%Torre%NULL%1,                      Emilie%Fourrey%NULL%1,                      Erica%Simons%NULL%1,                      William%Hennequin%NULL%1,                      Clair%Mills%NULL%1,                      Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                      Nhu Ngoc%Nguyen%NULL%1,                      Van Thuan%Hoang%NULL%0,                      Ndiaw%Goumballa%NULL%0,                      Meriem%Louni%NULL%0,                      Naomie%Canard%NULL%0,                      Thi Loi%Dao%NULL%0,                      Hacene%Medkour%NULL%0,                      Audrey%Borg%NULL%0,                      Kevin%Bardy%NULL%0,                      Véra%Esteves-Vieira%NULL%0,                      Véronique%Filosa%NULL%0,                      Bernard%Davoust%NULL%0,                      Oleg%Mediannikov%NULL%0,                      Pierre-Edouard%Fournier%NULL%0,                      Didier%Raoult%NULL%0,                      Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                      Aldo%Morrone%NULL%1,                      Andrea%Arcangeli%NULL%1,                      Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                      Marc%Delforge%NULL%1,                      Faustine%Lebout%NULL%1,                      Thibaut%Vanbaelen%NULL%1,                      Amaryl%Lecompte%NULL%1,                      Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                      Pilar%Andrés%NULL%2,                      Pilar%Andrés%NULL%0,                      Alberto%Bullón%NULL%1,                      José Luis%Villegas%NULL%2,                      José Luis%Villegas%NULL%0,                      Javier Ignacio%de la Iglesia-Larrad%NULL%1,                      Berta%Bote%NULL%1,                      Nieves%Prieto%NULL%1,                      Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                       Erin M.%Parker%NULL%2,                       Kristie E. N.%Clarke%NULL%1,                       Jessie M.%Gaeta%NULL%1,                       Travis P.%Baggett%NULL%1,                       Elizabeth%Imbert%NULL%1,                       Madeline%Sankaran%NULL%2,                       Ashley%Scarborough%NULL%2,                       Karin%Huster%NULL%2,                       Matt%Hanson%NULL%1,                       Elysia%Gonzales%NULL%2,                       Jody%Rauch%NULL%2,                       Libby%Page%NULL%1,                       Temet M.%McMichael%NULL%2,                       Ryan%Keating%NULL%2,                       Grace E.%Marx%NULL%2,                       Tom%Andrews%NULL%2,                       Kristine%Schmit%NULL%2,                       Sapna Bamrah%Morris%NULL%2,                       Nicole F.%Dowling%NULL%2,                       Georgina%Peacock%NULL%2,                       NULL%NULL%NULL%5,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       Ann%Buff%NULL%1,                       Calla%Jamison%NULL%2,                       Ruthanne%Marcus%NULL%1,                       Carol Y.%Rao%NULL%2,                       Julie L.%Self%NULL%2,                       Farrell%Tobolowsky%NULL%1,                       Samantha%Williams%NULL%1,                       Meagan%Kay%NULL%2,                       Naveena%Bobba%NULL%1,                       Stephanie%Cohen%NULL%2,                       Jonathan%Fuchs%NULL%1,                       Trang%Nguyen%NULL%1,                       Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                       Elizabeth S%Davis%NULL%2,                       Elizabeth S%Davis%NULL%0,                       Stockton%Mayer%NULL%1,                       Karrie-Ann%Toews%NULL%1,                       Thomas D%Huggett%NULL%1,                       Nyssa%Snow-Hill%NULL%1,                       Omar%Perez%NULL%1,                       Mary K%Hayden%NULL%1,                       Seena%Tehrani%NULL%1,                       A Justine%Landi%NULL%1,                       Stephanie%Crane%NULL%1,                       Elizabeth%Bell%NULL%1,                       Joy-Marie%Hermes%NULL%1,                       Kush%Desai%NULL%1,                       Michelle%Godbee%NULL%1,                       Naman%Jhaveri%NULL%1,                       Brian%Borah%NULL%1,                       Tracy%Cable%NULL%1,                       Sofia%Sami%NULL%1,                       Laura%Nozicka%NULL%1,                       Yi-Shin%Chang%NULL%1,                       Aditi%Jagadish%NULL%1,                       Mark%Chee%NULL%1,                       Brynna%Thigpen%NULL%1,                       Christopher%Llerena%NULL%1,                       Minh%Tran%NULL%1,                       Divya Meher%Surabhi%NULL%1,                       Emilia D%Smith%NULL%1,                       Rosemary G%Remus%NULL%1,                       Roweine%Staszcuk%NULL%1,                       Evelyn%Figueroa%NULL%1,                       Paul%Leo%NULL%1,                       Wayne M%Detmer%NULL%1,                       Evan%Lyon%NULL%1,                       Sarah%Carreon%NULL%1,                       Stacey%Hoferka%NULL%1,                       Kathleen A%Ritger%NULL%1,                       Wilnise%Jasmin%NULL%1,                       Prathima%Nagireddy%NULL%1,                       Jennifer Y%Seo%NULL%1,                       Marielle J%Fricchione%NULL%1,                       Janna L%Kerins%NULL%1,                       Stephanie R%Black%NULL%1,                       Lisa Morrison%Butler%NULL%1,                       Kimberly%Howard%NULL%1,                       Maura%McCauley%NULL%1,                       Todd%Fraley%NULL%1,                       M Allison%Arwady%NULL%1,                       Stephanie%Gretsch%NULL%1,                       Megan%Cunningham%NULL%1,                       Massimo%Pacilli%NULL%1,                       Peter S%Ruestow%NULL%2,                       Peter S%Ruestow%NULL%0,                       Emily%Mosites%NULL%3,                       Elizabeth%Avery%NULL%1,                       Joshua%Longcoy%NULL%1,                       Elizabeth B%Lynch%NULL%1,                       Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                       Melisa Mei Jin%Tan%NULL%1,                       Eva%Turk%NULL%1,                       Devi%Sridhar%NULL%1,                       Gabriel M%Leung%NULL%1,                       Kenji%Shibuya%NULL%1,                       Nima%Asgari%NULL%1,                       Juhwan%Oh%NULL%1,                       Alberto L%García-Basteiro%NULL%1,                       Johanna%Hanefeld%NULL%1,                       Alex R%Cook%NULL%1,                       Li Yang%Hsu%NULL%1,                       Yik Ying%Teo%NULL%1,                       David%Heymann%NULL%1,                       Helen%Clark%NULL%1,                       Martin%McKee%NULL%1,                       Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                       Erin M.%Ashe%NULL%1,                       Michael%Silverstein%NULL%1,                       Melissa%Hofman%NULL%1,                       Samantha J.%Lange%NULL%1,                       Hilda%Razzaghi%NULL%1,                       Rebecca G.%Mishuris%NULL%1,                       Ravin%Davidoff%NULL%1,                       Erin M.%Parker%NULL%0,                       Ana%Penman-Aguilar%NULL%1,                       Kristie E.N.%Clarke%NULL%1,                       Anna%Goldman%NULL%1,                       Thea L.%James%NULL%1,                       Karen%Jacobson%NULL%1,                       Karen E.%Lasser%NULL%1,                       Ziming%Xuan%NULL%1,                       Georgina%Peacock%NULL%0,                       Nicole F.%Dowling%NULL%0,                       Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                       Alexander%Winnett%NULL%2,                       Alexander%Winnett%NULL%0,                       Christopher J.%Graber%NULL%2,                       Christopher J.%Graber%NULL%0,                       John%Vallone%NULL%1,                       David O.%Beenhouwer%NULL%1,                       Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                       Holly%Murphy%NULL%1,                       Ravi%Vadlamudi%NULL%2,                       Ravi%Vadlamudi%NULL%0,                       Ruth%Kraut%NULL%1,                       Kate%Dalessio%NULL%1,                       Anurag N.%Malani%NULL%1,                       Meghan%Glabach%NULL%1,                       Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                       Amy C.%Link%NULL%2,                       Amy C.%Link%NULL%0,                       Denise%McCulloch%NULL%1,                       Elisabeth%Brandstetter%NULL%1,                       Kira L.%Newman%NULL%2,                       Kira L.%Newman%NULL%0,                       Michael L.%Jackson%NULL%2,                       Michael L.%Jackson%NULL%0,                       James P.%Hughes%NULL%2,                       James P.%Hughes%NULL%0,                       Janet A.%Englund%NULL%2,                       Janet A.%Englund%NULL%0,                       Michael%Boeckh%NULL%2,                       Michael%Boeckh%NULL%0,                       Nancy%Sugg%NULL%2,                       Misja%Ilcisin%NULL%1,                       Thomas R.%Sibley%NULL%2,                       Thomas R.%Sibley%NULL%0,                       Kairsten%Fay%NULL%2,                       Kairsten%Fay%NULL%0,                       Jover%Lee%NULL%2,                       Jover%Lee%NULL%0,                       Peter%Han%NULL%2,                       Peter%Han%NULL%0,                       Melissa%Truong%NULL%1,                       Matthew%Richardson%NULL%2,                       Matthew%Richardson%NULL%0,                       Deborah A.%Nickerson%NULL%2,                       Deborah A.%Nickerson%NULL%0,                       Lea M.%Starita%NULL%1,                       Trevor%Bedford%NULL%2,                       Trevor%Bedford%NULL%0,                       Helen Y.%Chu%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                       Elizabeth J.%D'Amico%NULL%1,                       Eric R.%Pedersen%NULL%1,                       Rick%Garvey%NULL%1,                       Anthony%Rodriguez%NULL%1,                       David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                       Christian%Ramers%NULL%1,                       Adam%Northrup%NULL%1,                       Aaron%Tam%aaront@fhscd.org%1,                       Jie%Liu%NULL%1,                       Sarah%Rojas%NULL%1,                       Stacey%Klaman%NULL%1,                       Maureen%Khasira%NULL%1,                       Jenan%Madbak%NULL%1,                       Eva%Matthews%NULL%1,                       Jeffrey%Norris%NULL%1,                       Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                       Martha P%Montgomery%NULL%2,                       Martha P%Montgomery%NULL%0,                       Ann M%Buff%NULL%1,                       Andrew T%Boyd%NULL%1,                       Calla%Jamison%NULL%0,                       Alfonso%Hernandez%NULL%1,                       Kristine%Schmit%NULL%0,                       Sarita%Shah%NULL%1,                       Sophia%Ajoku%NULL%1,                       David P%Holland%NULL%1,                       Juliana%Prieto%NULL%1,                       Sasha%Smith%NULL%1,                       Mark A%Swancutt%NULL%1,                       Kim%Turner%NULL%1,                       Tom%Andrews%NULL%0,                       Kevin%Flowers%NULL%1,                       Alyssa%Wells%NULL%1,                       Cathryn%Marchman%NULL%1,                       Emaline%Laney%NULL%1,                       Danae%Bixler%NULL%1,                       Sean%Cavanaugh%NULL%1,                       Nicole%Flowers%NULL%1,                       Nicholas%Gaffga%NULL%1,                       Jean Y%Ko%NULL%1,                       Heather N%Paulin%NULL%1,                       Mark K%Weng%NULL%1,                       Emily%Mosites%NULL%0,                       Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                       Patrick M%Kinley%NULL%1,                       Ashley%Scarborough%NULL%0,                       Caroline%Cawley%NULL%1,                       Madeline%Sankaran%NULL%0,                       Sarah N%Cox%NULL%1,                       Margot%Kushel%NULL%1,                       Juliet%Stoltey%NULL%1,                       Stephanie%Cohen%NULL%0,                       Jonathan D%Fuchs%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                       Elysia%Gonzales%NULL%0,                       Julie L.%Self%NULL%0,                       Carol Y.%Rao%NULL%0,                       Ryan%Keating%NULL%0,                       Grace E.%Marx%NULL%0,                       Temet M.%McMichael%NULL%0,                       Margaret D.%Lukoff%NULL%1,                       Jeffrey S.%Duchin%NULL%1,                       Karin%Huster%NULL%0,                       Jody%Rauch%NULL%0,                       Hedda%McLendon%NULL%1,                       Matthew%Hanson%NULL%1,                       Dave%Nichols%NULL%1,                       Sargis%Pogosjans%NULL%1,                       Meaghan%Fagalde%NULL%1,                       Jennifer%Lenahan%NULL%1,                       Emily%Maier%NULL%1,                       Holly%Whitney%NULL%1,                       Nancy%Sugg%NULL%0,                       Helen%Chu%NULL%1,                       Julia%Rogers%NULL%1,                       Emily%Mosites%NULL%0,                       Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                       Elizabeth%Samuels%NULL%1,                       Rahul%Vanjani%NULL%1,                       Catherine%Trimbur%NULL%1,                       Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                       Josephine%Jacobs%NULL%2,                       Josephine%Jacobs%NULL%0,                       Maria%Yefimova%NULL%1,                       Liberty%Greene%NULL%1,                       Leonie%Heyworth%NULL%1,                       Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                       Richard%Booth%NULL%1,                       Jennifer%Rayner%NULL%1,                       Kristin K.%Clemens%NULL%1,                       Cheryl%Forchuk%NULL%1,                       Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                        Huiting%Ma%null%1,                        Kristy C.Y.%Yiu%null%1,                        Andrew%Calzavara%null%1,                        David%Landsman%null%1,                        Linh%Luong%null%1,                        Adrienne K.%Chan%null%1,                        Rafal%Kustra%null%1,                        Jeffrey C.%Kwong%null%1,                        Marie-Claude%Boily%null%1,                        Stephen%Hwang%null%1,                        Sharon%Straus%null%1,                        Stefan D.%Baral%null%1,                        Sharmistha%Mishra%null%1,                       Linwei%Wang%null%1,                       Huiting%Ma%null%1,                       Kristy C.Y.%Yiu%null%1,                       Andrew%Calzavara%null%1,                       David%Landsman%null%1,                       Linh%Luong%null%1,                       Adrienne K.%Chan%null%1,                       Rafal%Kustra%null%1,                       Jeffrey C.%Kwong%null%1,                       Marie-Claude%Boily%null%1,                       Stephen%Hwang%null%1,                       Sharon%Straus%null%1,                       Stefan D.%Baral%null%1,                       Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                       Van Thuan%Hoang%NULL%2,                       Ndiaw%Goumballa%NULL%2,                       Meriem%Louni%NULL%2,                       Naomie%Canard%NULL%2,                       Thi Loi%Dao%NULL%2,                       Hacene%Medkour%NULL%2,                       Audrey%Borg%NULL%2,                       Kevin%Bardy%NULL%2,                       Véra%Esteves-Vieira%NULL%2,                       Véronique%Filosa%NULL%2,                       Bernard%Davoust%NULL%2,                       Oleg%Mediannikov%NULL%2,                       Pierre-Edouard%Fournier%NULL%2,                       Didier%Raoult%NULL%2,                       Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                       Bastien%Mollo%NULL%1,                       Charline%Vincent%NULL%1,                       Birgit%Nikolay%NULL%1,                       Augusto E%Llosa%NULL%1,                       Robin%Nesbitt%NULL%1,                       Jessica%Vanhomwegen%NULL%1,                       Thierry%Rose%NULL%1,                       Sophie%Goyard%NULL%1,                       François%Anna%NULL%1,                       Corinne%Torre%NULL%1,                       Emilie%Fourrey%NULL%1,                       Erica%Simons%NULL%1,                       William%Hennequin%NULL%1,                       Clair%Mills%NULL%1,                       Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                       Nhu Ngoc%Nguyen%NULL%1,                       Van Thuan%Hoang%NULL%0,                       Ndiaw%Goumballa%NULL%0,                       Meriem%Louni%NULL%0,                       Naomie%Canard%NULL%0,                       Thi Loi%Dao%NULL%0,                       Hacene%Medkour%NULL%0,                       Audrey%Borg%NULL%0,                       Kevin%Bardy%NULL%0,                       Véra%Esteves-Vieira%NULL%0,                       Véronique%Filosa%NULL%0,                       Bernard%Davoust%NULL%0,                       Oleg%Mediannikov%NULL%0,                       Pierre-Edouard%Fournier%NULL%0,                       Didier%Raoult%NULL%0,                       Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                       Aldo%Morrone%NULL%1,                       Andrea%Arcangeli%NULL%1,                       Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                       Marc%Delforge%NULL%1,                       Faustine%Lebout%NULL%1,                       Thibaut%Vanbaelen%NULL%1,                       Amaryl%Lecompte%NULL%1,                       Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                       Pilar%Andrés%NULL%2,                       Pilar%Andrés%NULL%0,                       Alberto%Bullón%NULL%1,                       José Luis%Villegas%NULL%2,                       José Luis%Villegas%NULL%0,                       Javier Ignacio%de la Iglesia-Larrad%NULL%1,                       Berta%Bote%NULL%1,                       Nieves%Prieto%NULL%1,                       Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2400,6 +2763,9 @@
       <c r="I1" t="s">
         <v>36</v>
       </c>
+      <c r="J1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2415,7 +2781,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>699</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2428,6 +2794,9 @@
       </c>
       <c r="I2" t="s">
         <v>543</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2444,7 +2813,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2453,10 +2822,13 @@
         <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>603</v>
       </c>
       <c r="I3" t="s">
-        <v>545</v>
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2473,7 +2845,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2486,6 +2858,9 @@
       </c>
       <c r="I4" t="s">
         <v>543</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2502,7 +2877,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>576</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2511,10 +2886,13 @@
         <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>241</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>545</v>
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2531,7 +2909,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>577</v>
+        <v>701</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2544,6 +2922,9 @@
       </c>
       <c r="I6" t="s">
         <v>549</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2560,7 +2941,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>578</v>
+        <v>702</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2573,6 +2954,9 @@
       </c>
       <c r="I7" t="s">
         <v>543</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2589,7 +2973,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>579</v>
+        <v>703</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2602,6 +2986,9 @@
       </c>
       <c r="I8" t="s">
         <v>543</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2618,7 +3005,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>580</v>
+        <v>704</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2631,6 +3018,9 @@
       </c>
       <c r="I9" t="s">
         <v>543</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2647,7 +3037,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>581</v>
+        <v>705</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -2660,6 +3050,9 @@
       </c>
       <c r="I10" t="s">
         <v>543</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2676,7 +3069,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>582</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2688,7 +3081,10 @@
         <v>249</v>
       </c>
       <c r="I11" t="s">
-        <v>545</v>
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2705,7 +3101,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>583</v>
+        <v>706</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2718,6 +3114,9 @@
       </c>
       <c r="I12" t="s">
         <v>549</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2734,7 +3133,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>584</v>
+        <v>707</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2747,6 +3146,9 @@
       </c>
       <c r="I13" t="s">
         <v>543</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2763,7 +3165,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>585</v>
+        <v>708</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2776,6 +3178,9 @@
       </c>
       <c r="I14" t="s">
         <v>543</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2792,7 +3197,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>586</v>
+        <v>709</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2805,6 +3210,9 @@
       </c>
       <c r="I15" t="s">
         <v>543</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2821,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>587</v>
+        <v>710</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -2834,6 +3242,9 @@
       </c>
       <c r="I16" t="s">
         <v>543</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2850,7 +3261,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>588</v>
+        <v>368</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2862,7 +3273,10 @@
         <v>257</v>
       </c>
       <c r="I17" t="s">
-        <v>545</v>
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2879,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -2892,6 +3306,9 @@
       </c>
       <c r="I18" t="s">
         <v>543</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2908,7 +3325,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>590</v>
+        <v>370</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2920,7 +3337,10 @@
         <v>262</v>
       </c>
       <c r="I19" t="s">
-        <v>545</v>
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2937,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>591</v>
+        <v>712</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2950,6 +3370,9 @@
       </c>
       <c r="I20" t="s">
         <v>543</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +3389,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>713</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -2979,6 +3402,9 @@
       </c>
       <c r="I21" t="s">
         <v>549</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2995,7 +3421,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>593</v>
+        <v>714</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -3008,6 +3434,9 @@
       </c>
       <c r="I22" t="s">
         <v>545</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3024,7 +3453,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>715</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -3037,6 +3466,9 @@
       </c>
       <c r="I23" t="s">
         <v>567</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3053,7 +3485,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>716</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3066,6 +3498,9 @@
       </c>
       <c r="I24" t="s">
         <v>549</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3082,7 +3517,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>596</v>
+        <v>717</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -3095,6 +3530,9 @@
       </c>
       <c r="I25" t="s">
         <v>549</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3111,7 +3549,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>718</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -3124,6 +3562,9 @@
       </c>
       <c r="I26" t="s">
         <v>549</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3140,7 +3581,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>719</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -3153,6 +3594,9 @@
       </c>
       <c r="I27" t="s">
         <v>549</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3169,7 +3613,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>720</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>
@@ -3182,6 +3626,9 @@
       </c>
       <c r="I28" t="s">
         <v>543</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/67.xlsx
+++ b/Covid_19_Dataset_and_References/References/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="765">
   <si>
     <t>Doi</t>
   </si>
@@ -2362,6 +2362,138 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,                       Pilar%Andrés%NULL%2,                       Pilar%Andrés%NULL%0,                       Alberto%Bullón%NULL%1,                       José Luis%Villegas%NULL%2,                       José Luis%Villegas%NULL%0,                       Javier Ignacio%de la Iglesia-Larrad%NULL%1,                       Berta%Bote%NULL%1,                       Nieves%Prieto%NULL%1,                       Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                        Erin M.%Parker%NULL%2,                        Kristie E. N.%Clarke%NULL%1,                        Jessie M.%Gaeta%NULL%1,                        Travis P.%Baggett%NULL%1,                        Elizabeth%Imbert%NULL%1,                        Madeline%Sankaran%NULL%2,                        Ashley%Scarborough%NULL%2,                        Karin%Huster%NULL%2,                        Matt%Hanson%NULL%1,                        Elysia%Gonzales%NULL%2,                        Jody%Rauch%NULL%2,                        Libby%Page%NULL%1,                        Temet M.%McMichael%NULL%2,                        Ryan%Keating%NULL%2,                        Grace E.%Marx%NULL%2,                        Tom%Andrews%NULL%2,                        Kristine%Schmit%NULL%2,                        Sapna Bamrah%Morris%NULL%2,                        Nicole F.%Dowling%NULL%2,                        Georgina%Peacock%NULL%2,                        NULL%NULL%NULL%5,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        Ann%Buff%NULL%1,                        Calla%Jamison%NULL%2,                        Ruthanne%Marcus%NULL%1,                        Carol Y.%Rao%NULL%2,                        Julie L.%Self%NULL%2,                        Farrell%Tobolowsky%NULL%1,                        Samantha%Williams%NULL%1,                        Meagan%Kay%NULL%2,                        Naveena%Bobba%NULL%1,                        Stephanie%Cohen%NULL%2,                        Jonathan%Fuchs%NULL%1,                        Trang%Nguyen%NULL%1,                        Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                        Elizabeth S%Davis%NULL%2,                        Elizabeth S%Davis%NULL%0,                        Stockton%Mayer%NULL%1,                        Karrie-Ann%Toews%NULL%1,                        Thomas D%Huggett%NULL%1,                        Nyssa%Snow-Hill%NULL%1,                        Omar%Perez%NULL%1,                        Mary K%Hayden%NULL%1,                        Seena%Tehrani%NULL%1,                        A Justine%Landi%NULL%1,                        Stephanie%Crane%NULL%1,                        Elizabeth%Bell%NULL%1,                        Joy-Marie%Hermes%NULL%1,                        Kush%Desai%NULL%1,                        Michelle%Godbee%NULL%1,                        Naman%Jhaveri%NULL%1,                        Brian%Borah%NULL%1,                        Tracy%Cable%NULL%1,                        Sofia%Sami%NULL%1,                        Laura%Nozicka%NULL%1,                        Yi-Shin%Chang%NULL%1,                        Aditi%Jagadish%NULL%1,                        Mark%Chee%NULL%1,                        Brynna%Thigpen%NULL%1,                        Christopher%Llerena%NULL%1,                        Minh%Tran%NULL%1,                        Divya Meher%Surabhi%NULL%1,                        Emilia D%Smith%NULL%1,                        Rosemary G%Remus%NULL%1,                        Roweine%Staszcuk%NULL%1,                        Evelyn%Figueroa%NULL%1,                        Paul%Leo%NULL%1,                        Wayne M%Detmer%NULL%1,                        Evan%Lyon%NULL%1,                        Sarah%Carreon%NULL%1,                        Stacey%Hoferka%NULL%1,                        Kathleen A%Ritger%NULL%1,                        Wilnise%Jasmin%NULL%1,                        Prathima%Nagireddy%NULL%1,                        Jennifer Y%Seo%NULL%1,                        Marielle J%Fricchione%NULL%1,                        Janna L%Kerins%NULL%1,                        Stephanie R%Black%NULL%1,                        Lisa Morrison%Butler%NULL%1,                        Kimberly%Howard%NULL%1,                        Maura%McCauley%NULL%1,                        Todd%Fraley%NULL%1,                        M Allison%Arwady%NULL%1,                        Stephanie%Gretsch%NULL%1,                        Megan%Cunningham%NULL%1,                        Massimo%Pacilli%NULL%1,                        Peter S%Ruestow%NULL%2,                        Peter S%Ruestow%NULL%0,                        Emily%Mosites%NULL%3,                        Elizabeth%Avery%NULL%1,                        Joshua%Longcoy%NULL%1,                        Elizabeth B%Lynch%NULL%1,                        Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                        Melisa Mei Jin%Tan%NULL%1,                        Eva%Turk%NULL%1,                        Devi%Sridhar%NULL%1,                        Gabriel M%Leung%NULL%1,                        Kenji%Shibuya%NULL%1,                        Nima%Asgari%NULL%1,                        Juhwan%Oh%NULL%1,                        Alberto L%García-Basteiro%NULL%1,                        Johanna%Hanefeld%NULL%1,                        Alex R%Cook%NULL%1,                        Li Yang%Hsu%NULL%1,                        Yik Ying%Teo%NULL%1,                        David%Heymann%NULL%1,                        Helen%Clark%NULL%1,                        Martin%McKee%NULL%1,                        Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                        Erin M.%Ashe%NULL%1,                        Michael%Silverstein%NULL%1,                        Melissa%Hofman%NULL%1,                        Samantha J.%Lange%NULL%1,                        Hilda%Razzaghi%NULL%1,                        Rebecca G.%Mishuris%NULL%1,                        Ravin%Davidoff%NULL%1,                        Erin M.%Parker%NULL%0,                        Ana%Penman-Aguilar%NULL%1,                        Kristie E.N.%Clarke%NULL%1,                        Anna%Goldman%NULL%1,                        Thea L.%James%NULL%1,                        Karen%Jacobson%NULL%1,                        Karen E.%Lasser%NULL%1,                        Ziming%Xuan%NULL%1,                        Georgina%Peacock%NULL%0,                        Nicole F.%Dowling%NULL%0,                        Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                        Alexander%Winnett%NULL%2,                        Alexander%Winnett%NULL%0,                        Christopher J.%Graber%NULL%2,                        Christopher J.%Graber%NULL%0,                        John%Vallone%NULL%1,                        David O.%Beenhouwer%NULL%1,                        Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                        Holly%Murphy%NULL%1,                        Ravi%Vadlamudi%NULL%2,                        Ravi%Vadlamudi%NULL%0,                        Ruth%Kraut%NULL%1,                        Kate%Dalessio%NULL%1,                        Anurag N.%Malani%NULL%1,                        Meghan%Glabach%NULL%1,                        Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                        Amy C.%Link%NULL%2,                        Amy C.%Link%NULL%0,                        Denise%McCulloch%NULL%1,                        Elisabeth%Brandstetter%NULL%1,                        Kira L.%Newman%NULL%2,                        Kira L.%Newman%NULL%0,                        Michael L.%Jackson%NULL%2,                        Michael L.%Jackson%NULL%0,                        James P.%Hughes%NULL%2,                        James P.%Hughes%NULL%0,                        Janet A.%Englund%NULL%2,                        Janet A.%Englund%NULL%0,                        Michael%Boeckh%NULL%2,                        Michael%Boeckh%NULL%0,                        Nancy%Sugg%NULL%2,                        Misja%Ilcisin%NULL%1,                        Thomas R.%Sibley%NULL%2,                        Thomas R.%Sibley%NULL%0,                        Kairsten%Fay%NULL%2,                        Kairsten%Fay%NULL%0,                        Jover%Lee%NULL%2,                        Jover%Lee%NULL%0,                        Peter%Han%NULL%2,                        Peter%Han%NULL%0,                        Melissa%Truong%NULL%1,                        Matthew%Richardson%NULL%2,                        Matthew%Richardson%NULL%0,                        Deborah A.%Nickerson%NULL%2,                        Deborah A.%Nickerson%NULL%0,                        Lea M.%Starita%NULL%1,                        Trevor%Bedford%NULL%2,                        Trevor%Bedford%NULL%0,                        Helen Y.%Chu%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                        Elizabeth J.%D'Amico%NULL%1,                        Eric R.%Pedersen%NULL%1,                        Rick%Garvey%NULL%1,                        Anthony%Rodriguez%NULL%1,                        David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                        Christian%Ramers%NULL%1,                        Adam%Northrup%NULL%1,                        Aaron%Tam%aaront@fhscd.org%1,                        Jie%Liu%NULL%1,                        Sarah%Rojas%NULL%1,                        Stacey%Klaman%NULL%1,                        Maureen%Khasira%NULL%1,                        Jenan%Madbak%NULL%1,                        Eva%Matthews%NULL%1,                        Jeffrey%Norris%NULL%1,                        Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                        Martha P%Montgomery%NULL%2,                        Martha P%Montgomery%NULL%0,                        Ann M%Buff%NULL%1,                        Andrew T%Boyd%NULL%1,                        Calla%Jamison%NULL%0,                        Alfonso%Hernandez%NULL%1,                        Kristine%Schmit%NULL%0,                        Sarita%Shah%NULL%1,                        Sophia%Ajoku%NULL%1,                        David P%Holland%NULL%1,                        Juliana%Prieto%NULL%1,                        Sasha%Smith%NULL%1,                        Mark A%Swancutt%NULL%1,                        Kim%Turner%NULL%1,                        Tom%Andrews%NULL%0,                        Kevin%Flowers%NULL%1,                        Alyssa%Wells%NULL%1,                        Cathryn%Marchman%NULL%1,                        Emaline%Laney%NULL%1,                        Danae%Bixler%NULL%1,                        Sean%Cavanaugh%NULL%1,                        Nicole%Flowers%NULL%1,                        Nicholas%Gaffga%NULL%1,                        Jean Y%Ko%NULL%1,                        Heather N%Paulin%NULL%1,                        Mark K%Weng%NULL%1,                        Emily%Mosites%NULL%0,                        Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                        Patrick M%Kinley%NULL%1,                        Ashley%Scarborough%NULL%0,                        Caroline%Cawley%NULL%1,                        Madeline%Sankaran%NULL%0,                        Sarah N%Cox%NULL%1,                        Margot%Kushel%NULL%1,                        Juliet%Stoltey%NULL%1,                        Stephanie%Cohen%NULL%0,                        Jonathan D%Fuchs%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                        Elysia%Gonzales%NULL%0,                        Julie L.%Self%NULL%0,                        Carol Y.%Rao%NULL%0,                        Ryan%Keating%NULL%0,                        Grace E.%Marx%NULL%0,                        Temet M.%McMichael%NULL%0,                        Margaret D.%Lukoff%NULL%1,                        Jeffrey S.%Duchin%NULL%1,                        Karin%Huster%NULL%0,                        Jody%Rauch%NULL%0,                        Hedda%McLendon%NULL%1,                        Matthew%Hanson%NULL%1,                        Dave%Nichols%NULL%1,                        Sargis%Pogosjans%NULL%1,                        Meaghan%Fagalde%NULL%1,                        Jennifer%Lenahan%NULL%1,                        Emily%Maier%NULL%1,                        Holly%Whitney%NULL%1,                        Nancy%Sugg%NULL%0,                        Helen%Chu%NULL%1,                        Julia%Rogers%NULL%1,                        Emily%Mosites%NULL%0,                        Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                        Elizabeth%Samuels%NULL%1,                        Rahul%Vanjani%NULL%1,                        Catherine%Trimbur%NULL%1,                        Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                        Josephine%Jacobs%NULL%2,                        Josephine%Jacobs%NULL%0,                        Maria%Yefimova%NULL%1,                        Liberty%Greene%NULL%1,                        Leonie%Heyworth%NULL%1,                        Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                        Richard%Booth%NULL%1,                        Jennifer%Rayner%NULL%1,                        Kristin K.%Clemens%NULL%1,                        Cheryl%Forchuk%NULL%1,                        Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                         Huiting%Ma%null%1,                         Kristy C.Y.%Yiu%null%1,                         Andrew%Calzavara%null%1,                         David%Landsman%null%1,                         Linh%Luong%null%1,                         Adrienne K.%Chan%null%1,                         Rafal%Kustra%null%1,                         Jeffrey C.%Kwong%null%1,                         Marie-Claude%Boily%null%1,                         Stephen%Hwang%null%1,                         Sharon%Straus%null%1,                         Stefan D.%Baral%null%1,                         Sharmistha%Mishra%null%1,                        Linwei%Wang%null%1,                        Huiting%Ma%null%1,                        Kristy C.Y.%Yiu%null%1,                        Andrew%Calzavara%null%1,                        David%Landsman%null%1,                        Linh%Luong%null%1,                        Adrienne K.%Chan%null%1,                        Rafal%Kustra%null%1,                        Jeffrey C.%Kwong%null%1,                        Marie-Claude%Boily%null%1,                        Stephen%Hwang%null%1,                        Sharon%Straus%null%1,                        Stefan D.%Baral%null%1,                        Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                        Van Thuan%Hoang%NULL%2,                        Ndiaw%Goumballa%NULL%2,                        Meriem%Louni%NULL%2,                        Naomie%Canard%NULL%2,                        Thi Loi%Dao%NULL%2,                        Hacene%Medkour%NULL%2,                        Audrey%Borg%NULL%2,                        Kevin%Bardy%NULL%2,                        Véra%Esteves-Vieira%NULL%2,                        Véronique%Filosa%NULL%2,                        Bernard%Davoust%NULL%2,                        Oleg%Mediannikov%NULL%2,                        Pierre-Edouard%Fournier%NULL%2,                        Didier%Raoult%NULL%2,                        Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                        Bastien%Mollo%NULL%1,                        Charline%Vincent%NULL%1,                        Birgit%Nikolay%NULL%1,                        Augusto E%Llosa%NULL%1,                        Robin%Nesbitt%NULL%1,                        Jessica%Vanhomwegen%NULL%1,                        Thierry%Rose%NULL%1,                        Sophie%Goyard%NULL%1,                        François%Anna%NULL%1,                        Corinne%Torre%NULL%1,                        Emilie%Fourrey%NULL%1,                        Erica%Simons%NULL%1,                        William%Hennequin%NULL%1,                        Clair%Mills%NULL%1,                        Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                        Nhu Ngoc%Nguyen%NULL%1,                        Van Thuan%Hoang%NULL%0,                        Ndiaw%Goumballa%NULL%0,                        Meriem%Louni%NULL%0,                        Naomie%Canard%NULL%0,                        Thi Loi%Dao%NULL%0,                        Hacene%Medkour%NULL%0,                        Audrey%Borg%NULL%0,                        Kevin%Bardy%NULL%0,                        Véra%Esteves-Vieira%NULL%0,                        Véronique%Filosa%NULL%0,                        Bernard%Davoust%NULL%0,                        Oleg%Mediannikov%NULL%0,                        Pierre-Edouard%Fournier%NULL%0,                        Didier%Raoult%NULL%0,                        Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                        Aldo%Morrone%NULL%1,                        Andrea%Arcangeli%NULL%1,                        Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                        Marc%Delforge%NULL%1,                        Faustine%Lebout%NULL%1,                        Thibaut%Vanbaelen%NULL%1,                        Amaryl%Lecompte%NULL%1,                        Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                        Pilar%Andrés%NULL%2,                        Pilar%Andrés%NULL%0,                        Alberto%Bullón%NULL%1,                        José Luis%Villegas%NULL%2,                        José Luis%Villegas%NULL%0,                        Javier Ignacio%de la Iglesia-Larrad%NULL%1,                        Berta%Bote%NULL%1,                        Nieves%Prieto%NULL%1,                        Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                         Erin M.%Parker%NULL%2,                         Kristie E. N.%Clarke%NULL%1,                         Jessie M.%Gaeta%NULL%1,                         Travis P.%Baggett%NULL%1,                         Elizabeth%Imbert%NULL%1,                         Madeline%Sankaran%NULL%2,                         Ashley%Scarborough%NULL%2,                         Karin%Huster%NULL%2,                         Matt%Hanson%NULL%1,                         Elysia%Gonzales%NULL%2,                         Jody%Rauch%NULL%2,                         Libby%Page%NULL%1,                         Temet M.%McMichael%NULL%2,                         Ryan%Keating%NULL%2,                         Grace E.%Marx%NULL%2,                         Tom%Andrews%NULL%2,                         Kristine%Schmit%NULL%2,                         Sapna Bamrah%Morris%NULL%2,                         Nicole F.%Dowling%NULL%2,                         Georgina%Peacock%NULL%2,                         NULL%NULL%NULL%5,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         Ann%Buff%NULL%1,                         Calla%Jamison%NULL%2,                         Ruthanne%Marcus%NULL%1,                         Carol Y.%Rao%NULL%2,                         Julie L.%Self%NULL%2,                         Farrell%Tobolowsky%NULL%1,                         Samantha%Williams%NULL%1,                         Meagan%Kay%NULL%2,                         Naveena%Bobba%NULL%1,                         Stephanie%Cohen%NULL%2,                         Jonathan%Fuchs%NULL%1,                         Trang%Nguyen%NULL%1,                         Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                         Elizabeth S%Davis%NULL%2,                         Elizabeth S%Davis%NULL%0,                         Stockton%Mayer%NULL%1,                         Karrie-Ann%Toews%NULL%1,                         Thomas D%Huggett%NULL%1,                         Nyssa%Snow-Hill%NULL%1,                         Omar%Perez%NULL%1,                         Mary K%Hayden%NULL%1,                         Seena%Tehrani%NULL%1,                         A Justine%Landi%NULL%1,                         Stephanie%Crane%NULL%1,                         Elizabeth%Bell%NULL%1,                         Joy-Marie%Hermes%NULL%1,                         Kush%Desai%NULL%1,                         Michelle%Godbee%NULL%1,                         Naman%Jhaveri%NULL%1,                         Brian%Borah%NULL%1,                         Tracy%Cable%NULL%1,                         Sofia%Sami%NULL%1,                         Laura%Nozicka%NULL%1,                         Yi-Shin%Chang%NULL%1,                         Aditi%Jagadish%NULL%1,                         Mark%Chee%NULL%1,                         Brynna%Thigpen%NULL%1,                         Christopher%Llerena%NULL%1,                         Minh%Tran%NULL%1,                         Divya Meher%Surabhi%NULL%1,                         Emilia D%Smith%NULL%1,                         Rosemary G%Remus%NULL%1,                         Roweine%Staszcuk%NULL%1,                         Evelyn%Figueroa%NULL%1,                         Paul%Leo%NULL%1,                         Wayne M%Detmer%NULL%1,                         Evan%Lyon%NULL%1,                         Sarah%Carreon%NULL%1,                         Stacey%Hoferka%NULL%1,                         Kathleen A%Ritger%NULL%1,                         Wilnise%Jasmin%NULL%1,                         Prathima%Nagireddy%NULL%1,                         Jennifer Y%Seo%NULL%1,                         Marielle J%Fricchione%NULL%1,                         Janna L%Kerins%NULL%1,                         Stephanie R%Black%NULL%1,                         Lisa Morrison%Butler%NULL%1,                         Kimberly%Howard%NULL%1,                         Maura%McCauley%NULL%1,                         Todd%Fraley%NULL%1,                         M Allison%Arwady%NULL%1,                         Stephanie%Gretsch%NULL%1,                         Megan%Cunningham%NULL%1,                         Massimo%Pacilli%NULL%1,                         Peter S%Ruestow%NULL%2,                         Peter S%Ruestow%NULL%0,                         Emily%Mosites%NULL%3,                         Elizabeth%Avery%NULL%1,                         Joshua%Longcoy%NULL%1,                         Elizabeth B%Lynch%NULL%1,                         Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                         Melisa Mei Jin%Tan%NULL%1,                         Eva%Turk%NULL%1,                         Devi%Sridhar%NULL%1,                         Gabriel M%Leung%NULL%1,                         Kenji%Shibuya%NULL%1,                         Nima%Asgari%NULL%1,                         Juhwan%Oh%NULL%1,                         Alberto L%García-Basteiro%NULL%1,                         Johanna%Hanefeld%NULL%1,                         Alex R%Cook%NULL%1,                         Li Yang%Hsu%NULL%1,                         Yik Ying%Teo%NULL%1,                         David%Heymann%NULL%1,                         Helen%Clark%NULL%1,                         Martin%McKee%NULL%1,                         Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                         Erin M.%Ashe%NULL%1,                         Michael%Silverstein%NULL%1,                         Melissa%Hofman%NULL%1,                         Samantha J.%Lange%NULL%1,                         Hilda%Razzaghi%NULL%1,                         Rebecca G.%Mishuris%NULL%1,                         Ravin%Davidoff%NULL%1,                         Erin M.%Parker%NULL%0,                         Ana%Penman-Aguilar%NULL%1,                         Kristie E.N.%Clarke%NULL%1,                         Anna%Goldman%NULL%1,                         Thea L.%James%NULL%1,                         Karen%Jacobson%NULL%1,                         Karen E.%Lasser%NULL%1,                         Ziming%Xuan%NULL%1,                         Georgina%Peacock%NULL%0,                         Nicole F.%Dowling%NULL%0,                         Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                         Alexander%Winnett%NULL%2,                         Alexander%Winnett%NULL%0,                         Christopher J.%Graber%NULL%2,                         Christopher J.%Graber%NULL%0,                         John%Vallone%NULL%1,                         David O.%Beenhouwer%NULL%1,                         Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                         Holly%Murphy%NULL%1,                         Ravi%Vadlamudi%NULL%2,                         Ravi%Vadlamudi%NULL%0,                         Ruth%Kraut%NULL%1,                         Kate%Dalessio%NULL%1,                         Anurag N.%Malani%NULL%1,                         Meghan%Glabach%NULL%1,                         Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                         Amy C.%Link%NULL%2,                         Amy C.%Link%NULL%0,                         Denise%McCulloch%NULL%1,                         Elisabeth%Brandstetter%NULL%1,                         Kira L.%Newman%NULL%2,                         Kira L.%Newman%NULL%0,                         Michael L.%Jackson%NULL%2,                         Michael L.%Jackson%NULL%0,                         James P.%Hughes%NULL%2,                         James P.%Hughes%NULL%0,                         Janet A.%Englund%NULL%2,                         Janet A.%Englund%NULL%0,                         Michael%Boeckh%NULL%2,                         Michael%Boeckh%NULL%0,                         Nancy%Sugg%NULL%2,                         Misja%Ilcisin%NULL%1,                         Thomas R.%Sibley%NULL%2,                         Thomas R.%Sibley%NULL%0,                         Kairsten%Fay%NULL%2,                         Kairsten%Fay%NULL%0,                         Jover%Lee%NULL%2,                         Jover%Lee%NULL%0,                         Peter%Han%NULL%2,                         Peter%Han%NULL%0,                         Melissa%Truong%NULL%1,                         Matthew%Richardson%NULL%2,                         Matthew%Richardson%NULL%0,                         Deborah A.%Nickerson%NULL%2,                         Deborah A.%Nickerson%NULL%0,                         Lea M.%Starita%NULL%1,                         Trevor%Bedford%NULL%2,                         Trevor%Bedford%NULL%0,                         Helen Y.%Chu%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                         Elizabeth J.%D'Amico%NULL%1,                         Eric R.%Pedersen%NULL%1,                         Rick%Garvey%NULL%1,                         Anthony%Rodriguez%NULL%1,                         David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                         Christian%Ramers%NULL%1,                         Adam%Northrup%NULL%1,                         Aaron%Tam%aaront@fhscd.org%1,                         Jie%Liu%NULL%1,                         Sarah%Rojas%NULL%1,                         Stacey%Klaman%NULL%1,                         Maureen%Khasira%NULL%1,                         Jenan%Madbak%NULL%1,                         Eva%Matthews%NULL%1,                         Jeffrey%Norris%NULL%1,                         Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                         Martha P%Montgomery%NULL%2,                         Martha P%Montgomery%NULL%0,                         Ann M%Buff%NULL%1,                         Andrew T%Boyd%NULL%1,                         Calla%Jamison%NULL%0,                         Alfonso%Hernandez%NULL%1,                         Kristine%Schmit%NULL%0,                         Sarita%Shah%NULL%1,                         Sophia%Ajoku%NULL%1,                         David P%Holland%NULL%1,                         Juliana%Prieto%NULL%1,                         Sasha%Smith%NULL%1,                         Mark A%Swancutt%NULL%1,                         Kim%Turner%NULL%1,                         Tom%Andrews%NULL%0,                         Kevin%Flowers%NULL%1,                         Alyssa%Wells%NULL%1,                         Cathryn%Marchman%NULL%1,                         Emaline%Laney%NULL%1,                         Danae%Bixler%NULL%1,                         Sean%Cavanaugh%NULL%1,                         Nicole%Flowers%NULL%1,                         Nicholas%Gaffga%NULL%1,                         Jean Y%Ko%NULL%1,                         Heather N%Paulin%NULL%1,                         Mark K%Weng%NULL%1,                         Emily%Mosites%NULL%0,                         Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                         Patrick M%Kinley%NULL%1,                         Ashley%Scarborough%NULL%0,                         Caroline%Cawley%NULL%1,                         Madeline%Sankaran%NULL%0,                         Sarah N%Cox%NULL%1,                         Margot%Kushel%NULL%1,                         Juliet%Stoltey%NULL%1,                         Stephanie%Cohen%NULL%0,                         Jonathan D%Fuchs%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                         Elysia%Gonzales%NULL%0,                         Julie L.%Self%NULL%0,                         Carol Y.%Rao%NULL%0,                         Ryan%Keating%NULL%0,                         Grace E.%Marx%NULL%0,                         Temet M.%McMichael%NULL%0,                         Margaret D.%Lukoff%NULL%1,                         Jeffrey S.%Duchin%NULL%1,                         Karin%Huster%NULL%0,                         Jody%Rauch%NULL%0,                         Hedda%McLendon%NULL%1,                         Matthew%Hanson%NULL%1,                         Dave%Nichols%NULL%1,                         Sargis%Pogosjans%NULL%1,                         Meaghan%Fagalde%NULL%1,                         Jennifer%Lenahan%NULL%1,                         Emily%Maier%NULL%1,                         Holly%Whitney%NULL%1,                         Nancy%Sugg%NULL%0,                         Helen%Chu%NULL%1,                         Julia%Rogers%NULL%1,                         Emily%Mosites%NULL%0,                         Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                         Elizabeth%Samuels%NULL%1,                         Rahul%Vanjani%NULL%1,                         Catherine%Trimbur%NULL%1,                         Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                         Josephine%Jacobs%NULL%2,                         Josephine%Jacobs%NULL%0,                         Maria%Yefimova%NULL%1,                         Liberty%Greene%NULL%1,                         Leonie%Heyworth%NULL%1,                         Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                         Richard%Booth%NULL%1,                         Jennifer%Rayner%NULL%1,                         Kristin K.%Clemens%NULL%1,                         Cheryl%Forchuk%NULL%1,                         Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Linwei%Wang%null%1,                          Huiting%Ma%null%1,                          Kristy C.Y.%Yiu%null%1,                          Andrew%Calzavara%null%1,                          David%Landsman%null%1,                          Linh%Luong%null%1,                          Adrienne K.%Chan%null%1,                          Rafal%Kustra%null%1,                          Jeffrey C.%Kwong%null%1,                          Marie-Claude%Boily%null%1,                          Stephen%Hwang%null%1,                          Sharon%Straus%null%1,                          Stefan D.%Baral%null%1,                          Sharmistha%Mishra%null%1,                         Linwei%Wang%null%1,                         Huiting%Ma%null%1,                         Kristy C.Y.%Yiu%null%1,                         Andrew%Calzavara%null%1,                         David%Landsman%null%1,                         Linh%Luong%null%1,                         Adrienne K.%Chan%null%1,                         Rafal%Kustra%null%1,                         Jeffrey C.%Kwong%null%1,                         Marie-Claude%Boily%null%1,                         Stephen%Hwang%null%1,                         Sharon%Straus%null%1,                         Stefan D.%Baral%null%1,                         Sharmistha%Mishra%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                         Van Thuan%Hoang%NULL%2,                         Ndiaw%Goumballa%NULL%2,                         Meriem%Louni%NULL%2,                         Naomie%Canard%NULL%2,                         Thi Loi%Dao%NULL%2,                         Hacene%Medkour%NULL%2,                         Audrey%Borg%NULL%2,                         Kevin%Bardy%NULL%2,                         Véra%Esteves-Vieira%NULL%2,                         Véronique%Filosa%NULL%2,                         Bernard%Davoust%NULL%2,                         Oleg%Mediannikov%NULL%2,                         Pierre-Edouard%Fournier%NULL%2,                         Didier%Raoult%NULL%2,                         Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                         Bastien%Mollo%NULL%1,                         Charline%Vincent%NULL%1,                         Birgit%Nikolay%NULL%1,                         Augusto E%Llosa%NULL%1,                         Robin%Nesbitt%NULL%1,                         Jessica%Vanhomwegen%NULL%1,                         Thierry%Rose%NULL%1,                         Sophie%Goyard%NULL%1,                         François%Anna%NULL%1,                         Corinne%Torre%NULL%1,                         Emilie%Fourrey%NULL%1,                         Erica%Simons%NULL%1,                         William%Hennequin%NULL%1,                         Clair%Mills%NULL%1,                         Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                         Nhu Ngoc%Nguyen%NULL%1,                         Van Thuan%Hoang%NULL%0,                         Ndiaw%Goumballa%NULL%0,                         Meriem%Louni%NULL%0,                         Naomie%Canard%NULL%0,                         Thi Loi%Dao%NULL%0,                         Hacene%Medkour%NULL%0,                         Audrey%Borg%NULL%0,                         Kevin%Bardy%NULL%0,                         Véra%Esteves-Vieira%NULL%0,                         Véronique%Filosa%NULL%0,                         Bernard%Davoust%NULL%0,                         Oleg%Mediannikov%NULL%0,                         Pierre-Edouard%Fournier%NULL%0,                         Didier%Raoult%NULL%0,                         Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                         Aldo%Morrone%NULL%1,                         Andrea%Arcangeli%NULL%1,                         Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                         Marc%Delforge%NULL%1,                         Faustine%Lebout%NULL%1,                         Thibaut%Vanbaelen%NULL%1,                         Amaryl%Lecompte%NULL%1,                         Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                         Pilar%Andrés%NULL%2,                         Pilar%Andrés%NULL%0,                         Alberto%Bullón%NULL%1,                         José Luis%Villegas%NULL%2,                         José Luis%Villegas%NULL%0,                         Javier Ignacio%de la Iglesia-Larrad%NULL%1,                         Berta%Bote%NULL%1,                         Nieves%Prieto%NULL%1,                         Carlos%Roncero%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2913,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2813,7 +2945,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2845,7 +2977,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>700</v>
+        <v>744</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2877,7 +3009,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2909,7 +3041,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2941,7 +3073,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2973,7 +3105,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -3005,7 +3137,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -3037,7 +3169,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -3069,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -3101,7 +3233,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3133,7 +3265,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -3165,7 +3297,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>708</v>
+        <v>752</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -3197,7 +3329,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>709</v>
+        <v>753</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3229,7 +3361,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -3261,7 +3393,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3293,7 +3425,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -3325,7 +3457,7 @@
         <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -3357,7 +3489,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>712</v>
+        <v>756</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -3389,7 +3521,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -3421,7 +3553,7 @@
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -3453,7 +3585,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -3485,7 +3617,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3517,7 +3649,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -3549,7 +3681,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -3581,7 +3713,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -3613,7 +3745,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>720</v>
+        <v>764</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>
